--- a/com/Tools/MyPoco/info_tab/少三2关卡类型表.xlsx
+++ b/com/Tools/MyPoco/info_tab/少三2关卡类型表.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="副本" sheetId="1" r:id="rId1"/>
+    <sheet name="列传" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="2083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="2593">
   <si>
     <t>副本</t>
   </si>
@@ -6268,6 +6269,1578 @@
   </si>
   <si>
     <t>副本-210-10</t>
+  </si>
+  <si>
+    <t>尘埃落定</t>
+  </si>
+  <si>
+    <t>幻境殒命</t>
+  </si>
+  <si>
+    <t>捉拿叛徒</t>
+  </si>
+  <si>
+    <t>试探究竟</t>
+  </si>
+  <si>
+    <t>幻阵奇符</t>
+  </si>
+  <si>
+    <t>小童之问</t>
+  </si>
+  <si>
+    <t>故友重逢</t>
+  </si>
+  <si>
+    <t>仙人入梦</t>
+  </si>
+  <si>
+    <t>凶徒殒命</t>
+  </si>
+  <si>
+    <t>天子之诏</t>
+  </si>
+  <si>
+    <t>对峙堂前</t>
+  </si>
+  <si>
+    <t>矛头所指</t>
+  </si>
+  <si>
+    <t>搜寻线索</t>
+  </si>
+  <si>
+    <t>疑心初起</t>
+  </si>
+  <si>
+    <t>力挽狂澜</t>
+  </si>
+  <si>
+    <t>大闹凤仪</t>
+  </si>
+  <si>
+    <t>生擒祖郎</t>
+  </si>
+  <si>
+    <t>重整旗鼓</t>
+  </si>
+  <si>
+    <t>奋勇突围</t>
+  </si>
+  <si>
+    <t>坚兵利器</t>
+  </si>
+  <si>
+    <t>退意初生</t>
+  </si>
+  <si>
+    <t>孤立无援</t>
+  </si>
+  <si>
+    <t>贼寇来袭</t>
+  </si>
+  <si>
+    <t>一举破袁</t>
+  </si>
+  <si>
+    <t>计收南郡</t>
+  </si>
+  <si>
+    <t>入城诈降</t>
+  </si>
+  <si>
+    <t>解毒良药</t>
+  </si>
+  <si>
+    <t>私不废公</t>
+  </si>
+  <si>
+    <t>恼羞成怒</t>
+  </si>
+  <si>
+    <t>甘宁问计</t>
+  </si>
+  <si>
+    <t>千钧一发</t>
+  </si>
+  <si>
+    <t>蓄势待发</t>
+  </si>
+  <si>
+    <t>兵者诡道</t>
+  </si>
+  <si>
+    <t>太守之怯</t>
+  </si>
+  <si>
+    <t>夜战无休</t>
+  </si>
+  <si>
+    <t>旗鼓相当</t>
+  </si>
+  <si>
+    <t>临关叫战</t>
+  </si>
+  <si>
+    <t>不斩无名</t>
+  </si>
+  <si>
+    <t>意料之外</t>
+  </si>
+  <si>
+    <t>从弟之言</t>
+  </si>
+  <si>
+    <t>强将相拒</t>
+  </si>
+  <si>
+    <t>古有恶来</t>
+  </si>
+  <si>
+    <t>五步诛敌</t>
+  </si>
+  <si>
+    <t>以戟为兵</t>
+  </si>
+  <si>
+    <t>晴天霹雳</t>
+  </si>
+  <si>
+    <t>奉命攻寨</t>
+  </si>
+  <si>
+    <t>被困濮阳</t>
+  </si>
+  <si>
+    <t>冷讥热嘲</t>
+  </si>
+  <si>
+    <t>分杯为二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千年寿酒</t>
+  </si>
+  <si>
+    <t>蜀地紫姜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能臣救场</t>
+  </si>
+  <si>
+    <t>虎将拦路</t>
+  </si>
+  <si>
+    <t>七日无食</t>
+  </si>
+  <si>
+    <t>仙名左慈</t>
+  </si>
+  <si>
+    <t>大胜归来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟德有疑</t>
+  </si>
+  <si>
+    <t>杀奔曹营</t>
+  </si>
+  <si>
+    <t>豪言壮行</t>
+  </si>
+  <si>
+    <t>搜刮美酒</t>
+  </si>
+  <si>
+    <t>百骑请战</t>
+  </si>
+  <si>
+    <t>意外之功</t>
+  </si>
+  <si>
+    <t>欲挫其锋</t>
+  </si>
+  <si>
+    <t>赔礼道歉</t>
+  </si>
+  <si>
+    <t>欲取先与</t>
+  </si>
+  <si>
+    <t>拧转牛舌</t>
+  </si>
+  <si>
+    <t>袭击曹军</t>
+  </si>
+  <si>
+    <t>魏延责难</t>
+  </si>
+  <si>
+    <t>机关交付</t>
+  </si>
+  <si>
+    <t>牛舌机关</t>
+  </si>
+  <si>
+    <t>如获至宝</t>
+  </si>
+  <si>
+    <t>木牛初成</t>
+  </si>
+  <si>
+    <t>机关神威</t>
+  </si>
+  <si>
+    <t>砍伐铁木</t>
+  </si>
+  <si>
+    <t>心生猜忌</t>
+  </si>
+  <si>
+    <t>刻意之信</t>
+  </si>
+  <si>
+    <t>义愤填膺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天子诏令</t>
+  </si>
+  <si>
+    <t>逐虎吞狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绕道淮南</t>
+  </si>
+  <si>
+    <t>力劝吕布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计驱二虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操之虑</t>
+  </si>
+  <si>
+    <t>陈宫之死</t>
+  </si>
+  <si>
+    <t>水淹下邳</t>
+  </si>
+  <si>
+    <t>困守下邳</t>
+  </si>
+  <si>
+    <t>陈登逆反</t>
+  </si>
+  <si>
+    <t>无奈之举</t>
+  </si>
+  <si>
+    <t>横纵联合</t>
+  </si>
+  <si>
+    <t>自相残杀</t>
+  </si>
+  <si>
+    <t>徐州失守</t>
+  </si>
+  <si>
+    <t>救援小沛</t>
+  </si>
+  <si>
+    <t>将星殒命</t>
+  </si>
+  <si>
+    <t>受命而来</t>
+  </si>
+  <si>
+    <t>夺刀之恨</t>
+  </si>
+  <si>
+    <t>惜别战马</t>
+  </si>
+  <si>
+    <t>小将之嘲</t>
+  </si>
+  <si>
+    <t>私自离营</t>
+  </si>
+  <si>
+    <t>夷陵战前</t>
+  </si>
+  <si>
+    <t>孤军犯险</t>
+  </si>
+  <si>
+    <t>五虎上将</t>
+  </si>
+  <si>
+    <t>英雄之名</t>
+  </si>
+  <si>
+    <t>力斩五将</t>
+  </si>
+  <si>
+    <t>人影幢幢</t>
+  </si>
+  <si>
+    <t>蜀汉大将</t>
+  </si>
+  <si>
+    <t>发兵斜谷道</t>
+  </si>
+  <si>
+    <t>首出祁山</t>
+  </si>
+  <si>
+    <t>狭路相逢</t>
+  </si>
+  <si>
+    <t>合围江陵</t>
+  </si>
+  <si>
+    <t>驱退强敌</t>
+  </si>
+  <si>
+    <t>江上浮桥</t>
+  </si>
+  <si>
+    <t>洲上围坞</t>
+  </si>
+  <si>
+    <t>百里洲之战</t>
+  </si>
+  <si>
+    <t>出兵江陵</t>
+  </si>
+  <si>
+    <t>大军回援</t>
+  </si>
+  <si>
+    <t>火烧辎重</t>
+  </si>
+  <si>
+    <t>决战关羽</t>
+  </si>
+  <si>
+    <t>前后夹击</t>
+  </si>
+  <si>
+    <t>追击受阻</t>
+  </si>
+  <si>
+    <t>青泥之战</t>
+  </si>
+  <si>
+    <t>出兵荆州</t>
+  </si>
+  <si>
+    <t>大破联军</t>
+  </si>
+  <si>
+    <t>离间计</t>
+  </si>
+  <si>
+    <t>扬名之机</t>
+  </si>
+  <si>
+    <t>可趁之机</t>
+  </si>
+  <si>
+    <t>兵分两路</t>
+  </si>
+  <si>
+    <t>一触即发</t>
+  </si>
+  <si>
+    <t>借道关中</t>
+  </si>
+  <si>
+    <t>援军已至</t>
+  </si>
+  <si>
+    <t>瓮中捉鳖</t>
+  </si>
+  <si>
+    <t>滚石封路</t>
+  </si>
+  <si>
+    <t>韬光养晦</t>
+  </si>
+  <si>
+    <t>伏击之计</t>
+  </si>
+  <si>
+    <t>周鲂诈降</t>
+  </si>
+  <si>
+    <t>前往江东</t>
+  </si>
+  <si>
+    <t>军师对决</t>
+  </si>
+  <si>
+    <t>孙刘联盟</t>
+  </si>
+  <si>
+    <t>怒火滔滔</t>
+  </si>
+  <si>
+    <t>联合抗曹</t>
+  </si>
+  <si>
+    <t>往日恩仇</t>
+  </si>
+  <si>
+    <t>快马加鞭</t>
+  </si>
+  <si>
+    <t>日夜兼程</t>
+  </si>
+  <si>
+    <t>刘表新亡</t>
+  </si>
+  <si>
+    <t>请君入瓮</t>
+  </si>
+  <si>
+    <t>暗中埋伏</t>
+  </si>
+  <si>
+    <t>草人主帅</t>
+  </si>
+  <si>
+    <t>一出好戏</t>
+  </si>
+  <si>
+    <t>美酒佳酿</t>
+  </si>
+  <si>
+    <t>再生一计</t>
+  </si>
+  <si>
+    <t>坚守不出</t>
+  </si>
+  <si>
+    <t>巴西之争</t>
+  </si>
+  <si>
+    <t>凯旋归来</t>
+  </si>
+  <si>
+    <t>痛弑旧友</t>
+  </si>
+  <si>
+    <t>枕戈待旦</t>
+  </si>
+  <si>
+    <t>望风而降</t>
+  </si>
+  <si>
+    <t>峰回路转</t>
+  </si>
+  <si>
+    <t>两军相持</t>
+  </si>
+  <si>
+    <t>流言四起</t>
+  </si>
+  <si>
+    <t>泰山贼寇</t>
+  </si>
+  <si>
+    <t>威震塞外</t>
+  </si>
+  <si>
+    <t>白马将军</t>
+  </si>
+  <si>
+    <t>招降敌将</t>
+  </si>
+  <si>
+    <t>生擒丘力居</t>
+  </si>
+  <si>
+    <t>名动边郡</t>
+  </si>
+  <si>
+    <t>白马义从</t>
+  </si>
+  <si>
+    <t>鲜卑来袭</t>
+  </si>
+  <si>
+    <t>平定关右</t>
+  </si>
+  <si>
+    <t>先锋马岱</t>
+  </si>
+  <si>
+    <t>援军凉州</t>
+  </si>
+  <si>
+    <t>积草屯粮</t>
+  </si>
+  <si>
+    <t>收缴粮草</t>
+  </si>
+  <si>
+    <t>镇压韩遂</t>
+  </si>
+  <si>
+    <t>撤兵许都</t>
+  </si>
+  <si>
+    <t>割让荆州</t>
+  </si>
+  <si>
+    <t>大敌当前</t>
+  </si>
+  <si>
+    <t>计取三郡</t>
+  </si>
+  <si>
+    <t>诱降郝普</t>
+  </si>
+  <si>
+    <t>关羽南下</t>
+  </si>
+  <si>
+    <t>直取二郡</t>
+  </si>
+  <si>
+    <t>威震华夏</t>
+  </si>
+  <si>
+    <t>水淹七军</t>
+  </si>
+  <si>
+    <t>定计营中</t>
+  </si>
+  <si>
+    <t>大战庞令明</t>
+  </si>
+  <si>
+    <t>七军已至</t>
+  </si>
+  <si>
+    <t>樊城之战</t>
+  </si>
+  <si>
+    <t>三军尽起</t>
+  </si>
+  <si>
+    <t>灭蹋顿</t>
+  </si>
+  <si>
+    <t>战能臣</t>
+  </si>
+  <si>
+    <t>借军麾</t>
+  </si>
+  <si>
+    <t>临阵请战</t>
+  </si>
+  <si>
+    <t>稳军心</t>
+  </si>
+  <si>
+    <t>战徐晃</t>
+  </si>
+  <si>
+    <t>兵贵神速</t>
+  </si>
+  <si>
+    <t>隆中对策</t>
+  </si>
+  <si>
+    <t>翼德之怒</t>
+  </si>
+  <si>
+    <t>南柯一梦</t>
+  </si>
+  <si>
+    <t>孔明之心·二</t>
+  </si>
+  <si>
+    <t>路遇同窗</t>
+  </si>
+  <si>
+    <t>投其所好</t>
+  </si>
+  <si>
+    <t>孔明之心·一</t>
+  </si>
+  <si>
+    <t>哀叹司马</t>
+  </si>
+  <si>
+    <t>刺客来探</t>
+  </si>
+  <si>
+    <t>事端多生</t>
+  </si>
+  <si>
+    <t>贵客来访·二</t>
+  </si>
+  <si>
+    <t>贵客来访·一</t>
+  </si>
+  <si>
+    <t>怒斥故友</t>
+  </si>
+  <si>
+    <t>少年意气</t>
+  </si>
+  <si>
+    <t>临终托书</t>
+  </si>
+  <si>
+    <t>无端下狱</t>
+  </si>
+  <si>
+    <t>飞来横祸</t>
+  </si>
+  <si>
+    <t>药到病除</t>
+  </si>
+  <si>
+    <t>夺取珍药</t>
+  </si>
+  <si>
+    <t>偶遇神医</t>
+  </si>
+  <si>
+    <t>传经受教</t>
+  </si>
+  <si>
+    <t>东吴野火</t>
+  </si>
+  <si>
+    <t>负与不负</t>
+  </si>
+  <si>
+    <t>匡扶汉室</t>
+  </si>
+  <si>
+    <t>仙道勘幻</t>
+  </si>
+  <si>
+    <t>穷不畏奸</t>
+  </si>
+  <si>
+    <t>野路逢仙</t>
+  </si>
+  <si>
+    <t>时也运也</t>
+  </si>
+  <si>
+    <t>刚者易折</t>
+  </si>
+  <si>
+    <t>脱身离去</t>
+  </si>
+  <si>
+    <t>江东戾气</t>
+  </si>
+  <si>
+    <t>吴下阿蒙</t>
+  </si>
+  <si>
+    <t>江东仙人</t>
+  </si>
+  <si>
+    <t>非善非恶</t>
+  </si>
+  <si>
+    <t>单刀挑袍</t>
+  </si>
+  <si>
+    <t>大战夏侯惇</t>
+  </si>
+  <si>
+    <t>斩秦琪</t>
+  </si>
+  <si>
+    <t>斩卞喜</t>
+  </si>
+  <si>
+    <t>慈悲之言</t>
+  </si>
+  <si>
+    <t>卞喜之约</t>
+  </si>
+  <si>
+    <t>斩孔秀</t>
+  </si>
+  <si>
+    <t>千里单骑</t>
+  </si>
+  <si>
+    <t>义释严颜</t>
+  </si>
+  <si>
+    <t>再会老将</t>
+  </si>
+  <si>
+    <t>计上心头</t>
+  </si>
+  <si>
+    <t>试破城防</t>
+  </si>
+  <si>
+    <t>初会老将</t>
+  </si>
+  <si>
+    <t>误会一场</t>
+  </si>
+  <si>
+    <t>驰援救主</t>
+  </si>
+  <si>
+    <t>逼杀云长</t>
+  </si>
+  <si>
+    <t>十面埋伏</t>
+  </si>
+  <si>
+    <t>劝降糜芳</t>
+  </si>
+  <si>
+    <t>兵不血刃</t>
+  </si>
+  <si>
+    <t>白衣渡江</t>
+  </si>
+  <si>
+    <t>一荐一撤</t>
+  </si>
+  <si>
+    <t>偶遇陆逊</t>
+  </si>
+  <si>
+    <t>称病归省</t>
+  </si>
+  <si>
+    <t>吕蒙献策</t>
+  </si>
+  <si>
+    <t>手刃仇敌</t>
+  </si>
+  <si>
+    <t>拔矢啖睛</t>
+  </si>
+  <si>
+    <t>劝离张辽</t>
+  </si>
+  <si>
+    <t>手足分离</t>
+  </si>
+  <si>
+    <t>族长之决</t>
+  </si>
+  <si>
+    <t>孤城无计</t>
+  </si>
+  <si>
+    <t>忠臣遗言</t>
+  </si>
+  <si>
+    <t>毕生之愿</t>
+  </si>
+  <si>
+    <t>天降奇兵</t>
+  </si>
+  <si>
+    <t>一统大业</t>
+  </si>
+  <si>
+    <t>挑拨离间</t>
+  </si>
+  <si>
+    <t>殚精竭虑</t>
+  </si>
+  <si>
+    <t>青梅煮酒</t>
+  </si>
+  <si>
+    <t>夏侯惇的质疑</t>
+  </si>
+  <si>
+    <t>未雨绸缪</t>
+  </si>
+  <si>
+    <t>汉室义士</t>
+  </si>
+  <si>
+    <t>衣带血诏</t>
+  </si>
+  <si>
+    <t>突发意外</t>
+  </si>
+  <si>
+    <t>生子当如孙仲谋</t>
+  </si>
+  <si>
+    <t>大战张辽</t>
+  </si>
+  <si>
+    <t>孤舟探营</t>
+  </si>
+  <si>
+    <t>问计陆逊</t>
+  </si>
+  <si>
+    <t>战退臧霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲自督军</t>
+  </si>
+  <si>
+    <t>火熄上方</t>
+  </si>
+  <si>
+    <t>落入圈套</t>
+  </si>
+  <si>
+    <t>阵前挑战</t>
+  </si>
+  <si>
+    <t>司马释疑</t>
+  </si>
+  <si>
+    <t>大义灭亲</t>
+  </si>
+  <si>
+    <t>远望宏图</t>
+  </si>
+  <si>
+    <t>城门之考</t>
+  </si>
+  <si>
+    <t>多事杨修</t>
+  </si>
+  <si>
+    <t>曹植来访</t>
+  </si>
+  <si>
+    <t>稳中求胜</t>
+  </si>
+  <si>
+    <t>偏颇之爱</t>
+  </si>
+  <si>
+    <t>周郎围堵</t>
+  </si>
+  <si>
+    <t>黄盖诈降</t>
+  </si>
+  <si>
+    <t>打造铁索</t>
+  </si>
+  <si>
+    <t>凤雏献策</t>
+  </si>
+  <si>
+    <t>初战告败</t>
+  </si>
+  <si>
+    <t>问计贾诩</t>
+  </si>
+  <si>
+    <t>王允落幕</t>
+  </si>
+  <si>
+    <t>攻入长安</t>
+  </si>
+  <si>
+    <t>名将张看穿</t>
+  </si>
+  <si>
+    <t>拉拢张辽</t>
+  </si>
+  <si>
+    <t>威逼利诱</t>
+  </si>
+  <si>
+    <t>搅动风云</t>
+  </si>
+  <si>
+    <t>得胜而归</t>
+  </si>
+  <si>
+    <t>勇冠三军</t>
+  </si>
+  <si>
+    <t>突破孙坚</t>
+  </si>
+  <si>
+    <t>上将潘凤</t>
+  </si>
+  <si>
+    <t>补充草药</t>
+  </si>
+  <si>
+    <t>军营伤兵</t>
+  </si>
+  <si>
+    <t>君命难违</t>
+  </si>
+  <si>
+    <t>辕门射戟</t>
+  </si>
+  <si>
+    <t>下马威</t>
+  </si>
+  <si>
+    <t>达成联盟</t>
+  </si>
+  <si>
+    <t>愤怒的张飞</t>
+  </si>
+  <si>
+    <t>制定策略</t>
+  </si>
+  <si>
+    <t>罪魁祸首</t>
+  </si>
+  <si>
+    <t>平叛</t>
+  </si>
+  <si>
+    <t>初露獠牙</t>
+  </si>
+  <si>
+    <t>诛杀宦官</t>
+  </si>
+  <si>
+    <t>撞开城门</t>
+  </si>
+  <si>
+    <t>飞扬跋扈</t>
+  </si>
+  <si>
+    <t>进入中原</t>
+  </si>
+  <si>
+    <t>野心勃勃</t>
+  </si>
+  <si>
+    <t>草莽英雄</t>
+  </si>
+  <si>
+    <t>后方来袭</t>
+  </si>
+  <si>
+    <t>难缠的对手</t>
+  </si>
+  <si>
+    <t>计划败露</t>
+  </si>
+  <si>
+    <t>飞鸽传书</t>
+  </si>
+  <si>
+    <t>准备起义</t>
+  </si>
+  <si>
+    <t>打退曹军</t>
+  </si>
+  <si>
+    <t>火烧博望</t>
+  </si>
+  <si>
+    <t>曹军先锋</t>
+  </si>
+  <si>
+    <t>子龙相助</t>
+  </si>
+  <si>
+    <t>定计</t>
+  </si>
+  <si>
+    <t>张飞的不满</t>
+  </si>
+  <si>
+    <t>如鱼得水</t>
+  </si>
+  <si>
+    <t>张辽的智略</t>
+  </si>
+  <si>
+    <t>离开曹营</t>
+  </si>
+  <si>
+    <t>连锁战船</t>
+  </si>
+  <si>
+    <t>连环计</t>
+  </si>
+  <si>
+    <t>张郃的挑战</t>
+  </si>
+  <si>
+    <t>凤雏出山</t>
+  </si>
+  <si>
+    <t>吕蒙的轻视</t>
+  </si>
+  <si>
+    <t>黎民苍生</t>
+  </si>
+  <si>
+    <t>反目成仇</t>
+  </si>
+  <si>
+    <t>进攻东郡</t>
+  </si>
+  <si>
+    <t>制作云梯</t>
+  </si>
+  <si>
+    <t>计划泄露</t>
+  </si>
+  <si>
+    <t>策反张邈</t>
+  </si>
+  <si>
+    <t>偷袭兖州</t>
+  </si>
+  <si>
+    <t>扬名天下</t>
+  </si>
+  <si>
+    <t>追击敌军</t>
+  </si>
+  <si>
+    <t>火烧连营</t>
+  </si>
+  <si>
+    <t>黄忠殒命</t>
+  </si>
+  <si>
+    <t>严防死守</t>
+  </si>
+  <si>
+    <t>少年老成</t>
+  </si>
+  <si>
+    <t>难孚众望</t>
+  </si>
+  <si>
+    <t>委以重任</t>
+  </si>
+  <si>
+    <t>单刀赴会</t>
+  </si>
+  <si>
+    <t>周仓的刁难</t>
+  </si>
+  <si>
+    <t>明日之星</t>
+  </si>
+  <si>
+    <t>徐盛的质问</t>
+  </si>
+  <si>
+    <t>金丝软甲</t>
+  </si>
+  <si>
+    <t>讨要荆州</t>
+  </si>
+  <si>
+    <t>火烧赤壁</t>
+  </si>
+  <si>
+    <t>万无一失</t>
+  </si>
+  <si>
+    <t>做火船</t>
+  </si>
+  <si>
+    <t>假意投降</t>
+  </si>
+  <si>
+    <t>苦肉计</t>
+  </si>
+  <si>
+    <t>斗周瑜</t>
+  </si>
+  <si>
+    <t>斗太史慈</t>
+  </si>
+  <si>
+    <t>大闹军营</t>
+  </si>
+  <si>
+    <t>黄盖献策</t>
+  </si>
+  <si>
+    <t>功亏一篑</t>
+  </si>
+  <si>
+    <t>割须弃袍</t>
+  </si>
+  <si>
+    <t>战退于禁</t>
+  </si>
+  <si>
+    <t>枪挑拒马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大战许褚</t>
+  </si>
+  <si>
+    <t>兴兵复仇</t>
+  </si>
+  <si>
+    <t>决战定军山</t>
+  </si>
+  <si>
+    <t>擂鼓为计</t>
+  </si>
+  <si>
+    <t>突袭张郃</t>
+  </si>
+  <si>
+    <t>问计法正</t>
+  </si>
+  <si>
+    <t>老当益壮</t>
+  </si>
+  <si>
+    <t>老将请命</t>
+  </si>
+  <si>
+    <t>威震逍遥津</t>
+  </si>
+  <si>
+    <t>战退程普</t>
+  </si>
+  <si>
+    <t>突出重围</t>
+  </si>
+  <si>
+    <t>一个不能少</t>
+  </si>
+  <si>
+    <t>战退徐盛</t>
+  </si>
+  <si>
+    <t>曹操的安排</t>
+  </si>
+  <si>
+    <t>主将之争</t>
+  </si>
+  <si>
+    <t>死战不退</t>
+  </si>
+  <si>
+    <t>击败张绣</t>
+  </si>
+  <si>
+    <t>击败胡车儿</t>
+  </si>
+  <si>
+    <t>曹昂之死</t>
+  </si>
+  <si>
+    <t>宛城惊变</t>
+  </si>
+  <si>
+    <t>战三英</t>
+  </si>
+  <si>
+    <t>战关羽</t>
+  </si>
+  <si>
+    <t>斩拒马</t>
+  </si>
+  <si>
+    <t>战张飞</t>
+  </si>
+  <si>
+    <t>设伏</t>
+  </si>
+  <si>
+    <t>追杀</t>
+  </si>
+  <si>
+    <t>来犯</t>
+  </si>
+  <si>
+    <t>来袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉玺</t>
+  </si>
+  <si>
+    <t>灭火</t>
+  </si>
+  <si>
+    <t>杀狼</t>
+  </si>
+  <si>
+    <t>取水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退敌</t>
+  </si>
+  <si>
+    <t>恶战</t>
+  </si>
+  <si>
+    <t>陷阱</t>
+  </si>
+  <si>
+    <t>灭敌</t>
+  </si>
+  <si>
+    <t>入侵</t>
+  </si>
+  <si>
+    <t>木材</t>
+  </si>
+  <si>
+    <t>木盾</t>
+  </si>
+  <si>
+    <t>废帝</t>
+  </si>
+  <si>
+    <t>下毒</t>
+  </si>
+  <si>
+    <t>刚硬</t>
+  </si>
+  <si>
+    <t>制药</t>
+  </si>
+  <si>
+    <t>采药</t>
+  </si>
+  <si>
+    <t>毒计</t>
+  </si>
+  <si>
+    <t>逼迫</t>
+  </si>
+  <si>
+    <t>刺杀</t>
+  </si>
+  <si>
+    <t>修复</t>
+  </si>
+  <si>
+    <t>紫铜</t>
+  </si>
+  <si>
+    <t>精铁</t>
+  </si>
+  <si>
+    <t>宝刀</t>
+  </si>
+  <si>
+    <t>受命</t>
+  </si>
+  <si>
+    <t>挑拨</t>
+  </si>
+  <si>
+    <t>对酒</t>
+  </si>
+  <si>
+    <t>迷惑</t>
+  </si>
+  <si>
+    <t>华服</t>
+  </si>
+  <si>
+    <t>布匹</t>
+  </si>
+  <si>
+    <t>缝衣</t>
+  </si>
+  <si>
+    <t>烦恼</t>
+  </si>
+  <si>
+    <t>曹丕的承诺</t>
+  </si>
+  <si>
+    <t>贵公子</t>
+  </si>
+  <si>
+    <t>打败夏侯惇</t>
+  </si>
+  <si>
+    <t>打败夏侯渊</t>
+  </si>
+  <si>
+    <t>取水</t>
+  </si>
+  <si>
+    <t>逃出生天</t>
+  </si>
+  <si>
+    <t>邺城形势</t>
+  </si>
+  <si>
+    <t>复仇女神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密信</t>
+  </si>
+  <si>
+    <t>保险匣</t>
+  </si>
+  <si>
+    <t>调查主谋</t>
+  </si>
+  <si>
+    <t>调查线索</t>
+  </si>
+  <si>
+    <t>心有余恨</t>
+  </si>
+  <si>
+    <t>决战张辽</t>
+  </si>
+  <si>
+    <t>砍树作舟</t>
+  </si>
+  <si>
+    <t>击败李典</t>
+  </si>
+  <si>
+    <t>智退司马懿</t>
+  </si>
+  <si>
+    <t>击败乐进</t>
+  </si>
+  <si>
+    <t>赶往战场</t>
+  </si>
+  <si>
+    <t>成长的代价</t>
+  </si>
+  <si>
+    <t>外敌入侵</t>
+  </si>
+  <si>
+    <t>平息内乱</t>
+  </si>
+  <si>
+    <t>兄妹重逢</t>
+  </si>
+  <si>
+    <t>拒马拦路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路途艰险</t>
+  </si>
+  <si>
+    <t>破城</t>
+  </si>
+  <si>
+    <t>掘坝</t>
+  </si>
+  <si>
+    <t>计谋</t>
+  </si>
+  <si>
+    <t>遇袭</t>
+  </si>
+  <si>
+    <t>探查</t>
+  </si>
+  <si>
+    <t>问计</t>
+  </si>
+  <si>
+    <t>小乔的考验</t>
+  </si>
+  <si>
+    <t>乔公之托</t>
+  </si>
+  <si>
+    <t>打败刘勋</t>
+  </si>
+  <si>
+    <t>打败雷薄</t>
+  </si>
+  <si>
+    <t>打败陈兰</t>
+  </si>
+  <si>
+    <t>打造投石机</t>
+  </si>
+  <si>
+    <t>新老之争</t>
+  </si>
+  <si>
+    <t>议策</t>
+  </si>
+  <si>
+    <t>为父报仇</t>
+  </si>
+  <si>
+    <t>破机关阵</t>
+  </si>
+  <si>
+    <t>大战严白虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名士鲁肃</t>
+  </si>
+  <si>
+    <t>周瑜的考验</t>
+  </si>
+  <si>
+    <t>丹阳借兵</t>
+  </si>
+  <si>
+    <t>完成使命</t>
+  </si>
+  <si>
+    <t>七进七出</t>
+  </si>
+  <si>
+    <t>大战张郃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>救出少主</t>
+  </si>
+  <si>
+    <t>推倒破墙</t>
+  </si>
+  <si>
+    <t>少主消息</t>
+  </si>
+  <si>
+    <t>名剑青釭</t>
+  </si>
+  <si>
+    <t>大闹当阳桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莽汉对决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞用计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破先锋官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殿后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大战夏侯惇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算无遗策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埋伏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂印封金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诛文丑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军师审配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傀儡机关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙人指点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路遇埋伏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩颜良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身在曹营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃园结义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上好的肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不打不相识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教训泼皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上好美酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>揭皇榜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6594,8 +8167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2083"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23269,4 +24842,7231 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D515"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2">
+        <v>1001</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3">
+        <v>1002</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4">
+        <v>1003</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5">
+        <v>1004</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6">
+        <v>1005</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1006</v>
+      </c>
+      <c r="B7">
+        <v>1006</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8">
+        <v>2001</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2002</v>
+      </c>
+      <c r="B9">
+        <v>2002</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2003</v>
+      </c>
+      <c r="B10">
+        <v>2003</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+      <c r="B11">
+        <v>2004</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2005</v>
+      </c>
+      <c r="B12">
+        <v>2005</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13">
+        <v>2006</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2007</v>
+      </c>
+      <c r="B14">
+        <v>2007</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2008</v>
+      </c>
+      <c r="B15">
+        <v>2008</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3001</v>
+      </c>
+      <c r="B16">
+        <v>3001</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3002</v>
+      </c>
+      <c r="B17">
+        <v>3002</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3003</v>
+      </c>
+      <c r="B18">
+        <v>3003</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3004</v>
+      </c>
+      <c r="B19">
+        <v>3004</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3005</v>
+      </c>
+      <c r="B20">
+        <v>3005</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3006</v>
+      </c>
+      <c r="B21">
+        <v>3006</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>3007</v>
+      </c>
+      <c r="B22">
+        <v>3007</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3008</v>
+      </c>
+      <c r="B23">
+        <v>3008</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3009</v>
+      </c>
+      <c r="B24">
+        <v>3009</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4001</v>
+      </c>
+      <c r="B25">
+        <v>4001</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4002</v>
+      </c>
+      <c r="B26">
+        <v>4002</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4003</v>
+      </c>
+      <c r="B27">
+        <v>4003</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4004</v>
+      </c>
+      <c r="B28">
+        <v>4004</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4005</v>
+      </c>
+      <c r="B29">
+        <v>4005</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4006</v>
+      </c>
+      <c r="B30">
+        <v>4006</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4007</v>
+      </c>
+      <c r="B31">
+        <v>4007</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>5001</v>
+      </c>
+      <c r="B32">
+        <v>5001</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>5002</v>
+      </c>
+      <c r="B33">
+        <v>5002</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>5003</v>
+      </c>
+      <c r="B34">
+        <v>5003</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>5004</v>
+      </c>
+      <c r="B35">
+        <v>5004</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>5005</v>
+      </c>
+      <c r="B36">
+        <v>5005</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>5006</v>
+      </c>
+      <c r="B37">
+        <v>5006</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>6001</v>
+      </c>
+      <c r="B38">
+        <v>6001</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>6002</v>
+      </c>
+      <c r="B39">
+        <v>6002</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>6003</v>
+      </c>
+      <c r="B40">
+        <v>6003</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>6004</v>
+      </c>
+      <c r="B41">
+        <v>6004</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>6005</v>
+      </c>
+      <c r="B42">
+        <v>6005</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>6006</v>
+      </c>
+      <c r="B43">
+        <v>6006</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>6007</v>
+      </c>
+      <c r="B44">
+        <v>6007</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>6008</v>
+      </c>
+      <c r="B45">
+        <v>6008</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>6009</v>
+      </c>
+      <c r="B46">
+        <v>6009</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>7001</v>
+      </c>
+      <c r="B47">
+        <v>7001</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>7002</v>
+      </c>
+      <c r="B48">
+        <v>7002</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>7003</v>
+      </c>
+      <c r="B49">
+        <v>7003</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>7004</v>
+      </c>
+      <c r="B50">
+        <v>7004</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>7005</v>
+      </c>
+      <c r="B51">
+        <v>7005</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>7006</v>
+      </c>
+      <c r="B52">
+        <v>7006</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>8001</v>
+      </c>
+      <c r="B53">
+        <v>8001</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>8002</v>
+      </c>
+      <c r="B54">
+        <v>8002</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>8003</v>
+      </c>
+      <c r="B55">
+        <v>8003</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>8004</v>
+      </c>
+      <c r="B56">
+        <v>8004</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>8005</v>
+      </c>
+      <c r="B57">
+        <v>8005</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>8006</v>
+      </c>
+      <c r="B58">
+        <v>8006</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>9001</v>
+      </c>
+      <c r="B59">
+        <v>9001</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>9002</v>
+      </c>
+      <c r="B60">
+        <v>9002</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>9003</v>
+      </c>
+      <c r="B61">
+        <v>9003</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>9004</v>
+      </c>
+      <c r="B62">
+        <v>9004</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>9005</v>
+      </c>
+      <c r="B63">
+        <v>9005</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>9006</v>
+      </c>
+      <c r="B64">
+        <v>9006</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>10001</v>
+      </c>
+      <c r="B65">
+        <v>10001</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>10002</v>
+      </c>
+      <c r="B66">
+        <v>10002</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>10003</v>
+      </c>
+      <c r="B67">
+        <v>10003</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>10004</v>
+      </c>
+      <c r="B68">
+        <v>10004</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>10005</v>
+      </c>
+      <c r="B69">
+        <v>10005</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>10006</v>
+      </c>
+      <c r="B70">
+        <v>10006</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>11001</v>
+      </c>
+      <c r="B71">
+        <v>11001</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>11002</v>
+      </c>
+      <c r="B72">
+        <v>11002</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>11003</v>
+      </c>
+      <c r="B73">
+        <v>11003</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>11004</v>
+      </c>
+      <c r="B74">
+        <v>11004</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>11005</v>
+      </c>
+      <c r="B75">
+        <v>11005</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>11006</v>
+      </c>
+      <c r="B76">
+        <v>11006</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>11007</v>
+      </c>
+      <c r="B77">
+        <v>11007</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>11008</v>
+      </c>
+      <c r="B78">
+        <v>11008</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>12001</v>
+      </c>
+      <c r="B79">
+        <v>12001</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>12002</v>
+      </c>
+      <c r="B80">
+        <v>12002</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>12003</v>
+      </c>
+      <c r="B81">
+        <v>12003</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>12004</v>
+      </c>
+      <c r="B82">
+        <v>12004</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>12005</v>
+      </c>
+      <c r="B83">
+        <v>12005</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>12006</v>
+      </c>
+      <c r="B84">
+        <v>12006</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>12007</v>
+      </c>
+      <c r="B85">
+        <v>12007</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>13001</v>
+      </c>
+      <c r="B86">
+        <v>13001</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>13002</v>
+      </c>
+      <c r="B87">
+        <v>13002</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>13003</v>
+      </c>
+      <c r="B88">
+        <v>13003</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>13004</v>
+      </c>
+      <c r="B89">
+        <v>13004</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>13005</v>
+      </c>
+      <c r="B90">
+        <v>13005</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>13006</v>
+      </c>
+      <c r="B91">
+        <v>13006</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>14001</v>
+      </c>
+      <c r="B92">
+        <v>14001</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>14002</v>
+      </c>
+      <c r="B93">
+        <v>14002</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>14003</v>
+      </c>
+      <c r="B94">
+        <v>14003</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>14004</v>
+      </c>
+      <c r="B95">
+        <v>14004</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>14005</v>
+      </c>
+      <c r="B96">
+        <v>14005</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>14006</v>
+      </c>
+      <c r="B97">
+        <v>14006</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>14007</v>
+      </c>
+      <c r="B98">
+        <v>14007</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>14008</v>
+      </c>
+      <c r="B99">
+        <v>14008</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>15001</v>
+      </c>
+      <c r="B100">
+        <v>15001</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>15002</v>
+      </c>
+      <c r="B101">
+        <v>15002</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>15003</v>
+      </c>
+      <c r="B102">
+        <v>15003</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>15004</v>
+      </c>
+      <c r="B103">
+        <v>15004</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>15005</v>
+      </c>
+      <c r="B104">
+        <v>15005</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>15006</v>
+      </c>
+      <c r="B105">
+        <v>15006</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>16001</v>
+      </c>
+      <c r="B106">
+        <v>16001</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>16002</v>
+      </c>
+      <c r="B107">
+        <v>16002</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>16003</v>
+      </c>
+      <c r="B108">
+        <v>16003</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>16004</v>
+      </c>
+      <c r="B109">
+        <v>16004</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>16005</v>
+      </c>
+      <c r="B110">
+        <v>16005</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>16006</v>
+      </c>
+      <c r="B111">
+        <v>16006</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>17001</v>
+      </c>
+      <c r="B112">
+        <v>17001</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>17002</v>
+      </c>
+      <c r="B113">
+        <v>17002</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>17003</v>
+      </c>
+      <c r="B114">
+        <v>17003</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>17004</v>
+      </c>
+      <c r="B115">
+        <v>17004</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>17005</v>
+      </c>
+      <c r="B116">
+        <v>17005</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>17006</v>
+      </c>
+      <c r="B117">
+        <v>17006</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>17007</v>
+      </c>
+      <c r="B118">
+        <v>17007</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>18001</v>
+      </c>
+      <c r="B119">
+        <v>18001</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>18002</v>
+      </c>
+      <c r="B120">
+        <v>18002</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>18003</v>
+      </c>
+      <c r="B121">
+        <v>18003</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>18004</v>
+      </c>
+      <c r="B122">
+        <v>18004</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>18005</v>
+      </c>
+      <c r="B123">
+        <v>18005</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>18006</v>
+      </c>
+      <c r="B124">
+        <v>18006</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>19001</v>
+      </c>
+      <c r="B125">
+        <v>19001</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>19002</v>
+      </c>
+      <c r="B126">
+        <v>19002</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>19003</v>
+      </c>
+      <c r="B127">
+        <v>19003</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>19004</v>
+      </c>
+      <c r="B128">
+        <v>19004</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>19005</v>
+      </c>
+      <c r="B129">
+        <v>19005</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>19006</v>
+      </c>
+      <c r="B130">
+        <v>19006</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>19007</v>
+      </c>
+      <c r="B131">
+        <v>19007</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>20001</v>
+      </c>
+      <c r="B132">
+        <v>20001</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>20002</v>
+      </c>
+      <c r="B133">
+        <v>20002</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>20003</v>
+      </c>
+      <c r="B134">
+        <v>20003</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>20004</v>
+      </c>
+      <c r="B135">
+        <v>20004</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>20005</v>
+      </c>
+      <c r="B136">
+        <v>20005</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>20006</v>
+      </c>
+      <c r="B137">
+        <v>20006</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>21001</v>
+      </c>
+      <c r="B138">
+        <v>21001</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>21002</v>
+      </c>
+      <c r="B139">
+        <v>21002</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>21003</v>
+      </c>
+      <c r="B140">
+        <v>21003</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>21004</v>
+      </c>
+      <c r="B141">
+        <v>21004</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>21005</v>
+      </c>
+      <c r="B142">
+        <v>21005</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>21006</v>
+      </c>
+      <c r="B143">
+        <v>21006</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>22001</v>
+      </c>
+      <c r="B144">
+        <v>22001</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>22002</v>
+      </c>
+      <c r="B145">
+        <v>22002</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+      <c r="D145" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>22003</v>
+      </c>
+      <c r="B146">
+        <v>22003</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>22004</v>
+      </c>
+      <c r="B147">
+        <v>22004</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>22005</v>
+      </c>
+      <c r="B148">
+        <v>22005</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>22006</v>
+      </c>
+      <c r="B149">
+        <v>22006</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+      <c r="D149" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>22007</v>
+      </c>
+      <c r="B150">
+        <v>22007</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>22008</v>
+      </c>
+      <c r="B151">
+        <v>22008</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>22009</v>
+      </c>
+      <c r="B152">
+        <v>22009</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>23001</v>
+      </c>
+      <c r="B153">
+        <v>23001</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>23002</v>
+      </c>
+      <c r="B154">
+        <v>23002</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+      <c r="D154" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>23003</v>
+      </c>
+      <c r="B155">
+        <v>23003</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>23004</v>
+      </c>
+      <c r="B156">
+        <v>23004</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+      <c r="D156" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>23005</v>
+      </c>
+      <c r="B157">
+        <v>23005</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>23006</v>
+      </c>
+      <c r="B158">
+        <v>23006</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>24001</v>
+      </c>
+      <c r="B159">
+        <v>24001</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+      <c r="D159" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>24002</v>
+      </c>
+      <c r="B160">
+        <v>24002</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>24003</v>
+      </c>
+      <c r="B161">
+        <v>24003</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+      <c r="D161" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>24004</v>
+      </c>
+      <c r="B162">
+        <v>24004</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+      <c r="D162" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>24005</v>
+      </c>
+      <c r="B163">
+        <v>24005</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>24006</v>
+      </c>
+      <c r="B164">
+        <v>24006</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="D164" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>24007</v>
+      </c>
+      <c r="B165">
+        <v>24007</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>24008</v>
+      </c>
+      <c r="B166">
+        <v>24008</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>25001</v>
+      </c>
+      <c r="B167">
+        <v>25001</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+      <c r="D167" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>25002</v>
+      </c>
+      <c r="B168">
+        <v>25002</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+      <c r="D168" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>25003</v>
+      </c>
+      <c r="B169">
+        <v>25003</v>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>25004</v>
+      </c>
+      <c r="B170">
+        <v>25004</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+      <c r="D170" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>25005</v>
+      </c>
+      <c r="B171">
+        <v>25005</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>25006</v>
+      </c>
+      <c r="B172">
+        <v>25006</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>26001</v>
+      </c>
+      <c r="B173">
+        <v>26001</v>
+      </c>
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>26002</v>
+      </c>
+      <c r="B174">
+        <v>26002</v>
+      </c>
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>26003</v>
+      </c>
+      <c r="B175">
+        <v>26003</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+      <c r="D175" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>26004</v>
+      </c>
+      <c r="B176">
+        <v>26004</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>26005</v>
+      </c>
+      <c r="B177">
+        <v>26005</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="D177" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>26006</v>
+      </c>
+      <c r="B178">
+        <v>26006</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+      <c r="D178" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>26007</v>
+      </c>
+      <c r="B179">
+        <v>26007</v>
+      </c>
+      <c r="C179">
+        <v>2</v>
+      </c>
+      <c r="D179" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>26008</v>
+      </c>
+      <c r="B180">
+        <v>26008</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>27001</v>
+      </c>
+      <c r="B181">
+        <v>27001</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+      <c r="D181" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>27002</v>
+      </c>
+      <c r="B182">
+        <v>27002</v>
+      </c>
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>27003</v>
+      </c>
+      <c r="B183">
+        <v>27003</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+      <c r="D183" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>27004</v>
+      </c>
+      <c r="B184">
+        <v>27004</v>
+      </c>
+      <c r="C184">
+        <v>2</v>
+      </c>
+      <c r="D184" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>27005</v>
+      </c>
+      <c r="B185">
+        <v>27005</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>27006</v>
+      </c>
+      <c r="B186">
+        <v>27006</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+      <c r="D186" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>27007</v>
+      </c>
+      <c r="B187">
+        <v>27007</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>28001</v>
+      </c>
+      <c r="B188">
+        <v>28001</v>
+      </c>
+      <c r="C188">
+        <v>2</v>
+      </c>
+      <c r="D188" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>28002</v>
+      </c>
+      <c r="B189">
+        <v>28002</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+      <c r="D189" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>28003</v>
+      </c>
+      <c r="B190">
+        <v>28003</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>28004</v>
+      </c>
+      <c r="B191">
+        <v>28004</v>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>28005</v>
+      </c>
+      <c r="B192">
+        <v>28005</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+      <c r="D192" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>28006</v>
+      </c>
+      <c r="B193">
+        <v>28006</v>
+      </c>
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>29001</v>
+      </c>
+      <c r="B194">
+        <v>29001</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+      <c r="D194" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>29002</v>
+      </c>
+      <c r="B195">
+        <v>29002</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>29003</v>
+      </c>
+      <c r="B196">
+        <v>29003</v>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>29004</v>
+      </c>
+      <c r="B197">
+        <v>29004</v>
+      </c>
+      <c r="C197">
+        <v>2</v>
+      </c>
+      <c r="D197" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>29005</v>
+      </c>
+      <c r="B198">
+        <v>29005</v>
+      </c>
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>29006</v>
+      </c>
+      <c r="B199">
+        <v>29006</v>
+      </c>
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>30001</v>
+      </c>
+      <c r="B200">
+        <v>30001</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+      <c r="D200" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>30002</v>
+      </c>
+      <c r="B201">
+        <v>30002</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>30003</v>
+      </c>
+      <c r="B202">
+        <v>30003</v>
+      </c>
+      <c r="C202">
+        <v>2</v>
+      </c>
+      <c r="D202" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>30004</v>
+      </c>
+      <c r="B203">
+        <v>30004</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>30005</v>
+      </c>
+      <c r="B204">
+        <v>30005</v>
+      </c>
+      <c r="C204">
+        <v>2</v>
+      </c>
+      <c r="D204" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>30006</v>
+      </c>
+      <c r="B205">
+        <v>30006</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>30007</v>
+      </c>
+      <c r="B206">
+        <v>30007</v>
+      </c>
+      <c r="C206">
+        <v>2</v>
+      </c>
+      <c r="D206" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>31001</v>
+      </c>
+      <c r="B207">
+        <v>31001</v>
+      </c>
+      <c r="C207">
+        <v>2</v>
+      </c>
+      <c r="D207" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>31002</v>
+      </c>
+      <c r="B208">
+        <v>31002</v>
+      </c>
+      <c r="C208">
+        <v>2</v>
+      </c>
+      <c r="D208" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>31003</v>
+      </c>
+      <c r="B209">
+        <v>31003</v>
+      </c>
+      <c r="C209">
+        <v>2</v>
+      </c>
+      <c r="D209" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>31004</v>
+      </c>
+      <c r="B210">
+        <v>31004</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>31005</v>
+      </c>
+      <c r="B211">
+        <v>31005</v>
+      </c>
+      <c r="C211">
+        <v>2</v>
+      </c>
+      <c r="D211" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>31006</v>
+      </c>
+      <c r="B212">
+        <v>31006</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>31007</v>
+      </c>
+      <c r="B213">
+        <v>31007</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>32001</v>
+      </c>
+      <c r="B214">
+        <v>32001</v>
+      </c>
+      <c r="C214">
+        <v>2</v>
+      </c>
+      <c r="D214" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>32002</v>
+      </c>
+      <c r="B215">
+        <v>32002</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>32003</v>
+      </c>
+      <c r="B216">
+        <v>32003</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+      <c r="D216" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>32004</v>
+      </c>
+      <c r="B217">
+        <v>32004</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>32005</v>
+      </c>
+      <c r="B218">
+        <v>32005</v>
+      </c>
+      <c r="C218">
+        <v>2</v>
+      </c>
+      <c r="D218" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>32006</v>
+      </c>
+      <c r="B219">
+        <v>32006</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>33001</v>
+      </c>
+      <c r="B220">
+        <v>33001</v>
+      </c>
+      <c r="C220">
+        <v>2</v>
+      </c>
+      <c r="D220" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>33002</v>
+      </c>
+      <c r="B221">
+        <v>33002</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>33003</v>
+      </c>
+      <c r="B222">
+        <v>33003</v>
+      </c>
+      <c r="C222">
+        <v>2</v>
+      </c>
+      <c r="D222" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>33004</v>
+      </c>
+      <c r="B223">
+        <v>33004</v>
+      </c>
+      <c r="C223">
+        <v>2</v>
+      </c>
+      <c r="D223" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>33005</v>
+      </c>
+      <c r="B224">
+        <v>33005</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>33006</v>
+      </c>
+      <c r="B225">
+        <v>33006</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>34001</v>
+      </c>
+      <c r="B226">
+        <v>34001</v>
+      </c>
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>34002</v>
+      </c>
+      <c r="B227">
+        <v>34002</v>
+      </c>
+      <c r="C227">
+        <v>2</v>
+      </c>
+      <c r="D227" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>34003</v>
+      </c>
+      <c r="B228">
+        <v>34003</v>
+      </c>
+      <c r="C228">
+        <v>2</v>
+      </c>
+      <c r="D228" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>34004</v>
+      </c>
+      <c r="B229">
+        <v>34004</v>
+      </c>
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>34005</v>
+      </c>
+      <c r="B230">
+        <v>34005</v>
+      </c>
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>34006</v>
+      </c>
+      <c r="B231">
+        <v>34006</v>
+      </c>
+      <c r="C231">
+        <v>2</v>
+      </c>
+      <c r="D231" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>34007</v>
+      </c>
+      <c r="B232">
+        <v>34007</v>
+      </c>
+      <c r="C232">
+        <v>2</v>
+      </c>
+      <c r="D232" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>35001</v>
+      </c>
+      <c r="B233">
+        <v>35001</v>
+      </c>
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>35002</v>
+      </c>
+      <c r="B234">
+        <v>35002</v>
+      </c>
+      <c r="C234">
+        <v>2</v>
+      </c>
+      <c r="D234" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>35003</v>
+      </c>
+      <c r="B235">
+        <v>35003</v>
+      </c>
+      <c r="C235">
+        <v>2</v>
+      </c>
+      <c r="D235" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>35004</v>
+      </c>
+      <c r="B236">
+        <v>35004</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>35005</v>
+      </c>
+      <c r="B237">
+        <v>35005</v>
+      </c>
+      <c r="C237">
+        <v>2</v>
+      </c>
+      <c r="D237" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>35006</v>
+      </c>
+      <c r="B238">
+        <v>35006</v>
+      </c>
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>36001</v>
+      </c>
+      <c r="B239">
+        <v>36001</v>
+      </c>
+      <c r="C239">
+        <v>2</v>
+      </c>
+      <c r="D239" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>36002</v>
+      </c>
+      <c r="B240">
+        <v>36002</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>36003</v>
+      </c>
+      <c r="B241">
+        <v>36003</v>
+      </c>
+      <c r="C241">
+        <v>2</v>
+      </c>
+      <c r="D241" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>36004</v>
+      </c>
+      <c r="B242">
+        <v>36004</v>
+      </c>
+      <c r="C242">
+        <v>2</v>
+      </c>
+      <c r="D242" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>36005</v>
+      </c>
+      <c r="B243">
+        <v>36005</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>36006</v>
+      </c>
+      <c r="B244">
+        <v>36006</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>37001</v>
+      </c>
+      <c r="B245">
+        <v>37001</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>37002</v>
+      </c>
+      <c r="B246">
+        <v>37002</v>
+      </c>
+      <c r="C246">
+        <v>2</v>
+      </c>
+      <c r="D246" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>37003</v>
+      </c>
+      <c r="B247">
+        <v>37003</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>37004</v>
+      </c>
+      <c r="B248">
+        <v>37004</v>
+      </c>
+      <c r="C248">
+        <v>2</v>
+      </c>
+      <c r="D248" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>37005</v>
+      </c>
+      <c r="B249">
+        <v>37005</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>37006</v>
+      </c>
+      <c r="B250">
+        <v>37006</v>
+      </c>
+      <c r="C250">
+        <v>2</v>
+      </c>
+      <c r="D250" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>38001</v>
+      </c>
+      <c r="B251">
+        <v>38001</v>
+      </c>
+      <c r="C251">
+        <v>2</v>
+      </c>
+      <c r="D251" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>38002</v>
+      </c>
+      <c r="B252">
+        <v>38002</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>38003</v>
+      </c>
+      <c r="B253">
+        <v>38003</v>
+      </c>
+      <c r="C253">
+        <v>2</v>
+      </c>
+      <c r="D253" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>38004</v>
+      </c>
+      <c r="B254">
+        <v>38004</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>38005</v>
+      </c>
+      <c r="B255">
+        <v>38005</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>38006</v>
+      </c>
+      <c r="B256">
+        <v>38006</v>
+      </c>
+      <c r="C256">
+        <v>2</v>
+      </c>
+      <c r="D256" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>39001</v>
+      </c>
+      <c r="B257">
+        <v>39001</v>
+      </c>
+      <c r="C257">
+        <v>2</v>
+      </c>
+      <c r="D257" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>39002</v>
+      </c>
+      <c r="B258">
+        <v>39002</v>
+      </c>
+      <c r="C258">
+        <v>2</v>
+      </c>
+      <c r="D258" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>39003</v>
+      </c>
+      <c r="B259">
+        <v>39003</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>39004</v>
+      </c>
+      <c r="B260">
+        <v>39004</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>39005</v>
+      </c>
+      <c r="B261">
+        <v>39005</v>
+      </c>
+      <c r="C261">
+        <v>2</v>
+      </c>
+      <c r="D261" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>39006</v>
+      </c>
+      <c r="B262">
+        <v>39006</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>40001</v>
+      </c>
+      <c r="B263">
+        <v>40001</v>
+      </c>
+      <c r="C263">
+        <v>2</v>
+      </c>
+      <c r="D263" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>40002</v>
+      </c>
+      <c r="B264">
+        <v>40002</v>
+      </c>
+      <c r="C264">
+        <v>2</v>
+      </c>
+      <c r="D264" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>40003</v>
+      </c>
+      <c r="B265">
+        <v>40003</v>
+      </c>
+      <c r="C265">
+        <v>2</v>
+      </c>
+      <c r="D265" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>40004</v>
+      </c>
+      <c r="B266">
+        <v>40004</v>
+      </c>
+      <c r="C266">
+        <v>2</v>
+      </c>
+      <c r="D266" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>40005</v>
+      </c>
+      <c r="B267">
+        <v>40005</v>
+      </c>
+      <c r="C267">
+        <v>2</v>
+      </c>
+      <c r="D267" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>40006</v>
+      </c>
+      <c r="B268">
+        <v>40006</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>40007</v>
+      </c>
+      <c r="B269">
+        <v>40007</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>40008</v>
+      </c>
+      <c r="B270">
+        <v>40008</v>
+      </c>
+      <c r="C270">
+        <v>2</v>
+      </c>
+      <c r="D270" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>40009</v>
+      </c>
+      <c r="B271">
+        <v>40009</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>41001</v>
+      </c>
+      <c r="B272">
+        <v>41001</v>
+      </c>
+      <c r="C272">
+        <v>2</v>
+      </c>
+      <c r="D272" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>41002</v>
+      </c>
+      <c r="B273">
+        <v>41002</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>41003</v>
+      </c>
+      <c r="B274">
+        <v>41003</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>41004</v>
+      </c>
+      <c r="B275">
+        <v>41004</v>
+      </c>
+      <c r="C275">
+        <v>2</v>
+      </c>
+      <c r="D275" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>41005</v>
+      </c>
+      <c r="B276">
+        <v>41005</v>
+      </c>
+      <c r="C276">
+        <v>2</v>
+      </c>
+      <c r="D276" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>41006</v>
+      </c>
+      <c r="B277">
+        <v>41006</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>41007</v>
+      </c>
+      <c r="B278">
+        <v>41007</v>
+      </c>
+      <c r="C278">
+        <v>2</v>
+      </c>
+      <c r="D278" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>42001</v>
+      </c>
+      <c r="B279">
+        <v>42001</v>
+      </c>
+      <c r="C279">
+        <v>2</v>
+      </c>
+      <c r="D279" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>42002</v>
+      </c>
+      <c r="B280">
+        <v>42002</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>42003</v>
+      </c>
+      <c r="B281">
+        <v>42003</v>
+      </c>
+      <c r="C281">
+        <v>2</v>
+      </c>
+      <c r="D281" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>42004</v>
+      </c>
+      <c r="B282">
+        <v>42004</v>
+      </c>
+      <c r="C282">
+        <v>2</v>
+      </c>
+      <c r="D282" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>42005</v>
+      </c>
+      <c r="B283">
+        <v>42005</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>42006</v>
+      </c>
+      <c r="B284">
+        <v>42006</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+      <c r="D284" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>42007</v>
+      </c>
+      <c r="B285">
+        <v>42007</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>42008</v>
+      </c>
+      <c r="B286">
+        <v>42008</v>
+      </c>
+      <c r="C286">
+        <v>2</v>
+      </c>
+      <c r="D286" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>43001</v>
+      </c>
+      <c r="B287">
+        <v>43001</v>
+      </c>
+      <c r="C287">
+        <v>2</v>
+      </c>
+      <c r="D287" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>43002</v>
+      </c>
+      <c r="B288">
+        <v>43002</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>43003</v>
+      </c>
+      <c r="B289">
+        <v>43003</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>43004</v>
+      </c>
+      <c r="B290">
+        <v>43004</v>
+      </c>
+      <c r="C290">
+        <v>2</v>
+      </c>
+      <c r="D290" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>43005</v>
+      </c>
+      <c r="B291">
+        <v>43005</v>
+      </c>
+      <c r="C291">
+        <v>2</v>
+      </c>
+      <c r="D291" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>43006</v>
+      </c>
+      <c r="B292">
+        <v>43006</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>43007</v>
+      </c>
+      <c r="B293">
+        <v>43007</v>
+      </c>
+      <c r="C293">
+        <v>2</v>
+      </c>
+      <c r="D293" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>44001</v>
+      </c>
+      <c r="B294">
+        <v>44001</v>
+      </c>
+      <c r="C294">
+        <v>2</v>
+      </c>
+      <c r="D294" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>44002</v>
+      </c>
+      <c r="B295">
+        <v>44002</v>
+      </c>
+      <c r="C295">
+        <v>2</v>
+      </c>
+      <c r="D295" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>44003</v>
+      </c>
+      <c r="B296">
+        <v>44003</v>
+      </c>
+      <c r="C296">
+        <v>2</v>
+      </c>
+      <c r="D296" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>44004</v>
+      </c>
+      <c r="B297">
+        <v>44004</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>44005</v>
+      </c>
+      <c r="B298">
+        <v>44005</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>44006</v>
+      </c>
+      <c r="B299">
+        <v>44006</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>44007</v>
+      </c>
+      <c r="B300">
+        <v>44007</v>
+      </c>
+      <c r="C300">
+        <v>2</v>
+      </c>
+      <c r="D300" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>45001</v>
+      </c>
+      <c r="B301">
+        <v>45001</v>
+      </c>
+      <c r="C301">
+        <v>2</v>
+      </c>
+      <c r="D301" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>45002</v>
+      </c>
+      <c r="B302">
+        <v>45002</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>45003</v>
+      </c>
+      <c r="B303">
+        <v>45003</v>
+      </c>
+      <c r="C303">
+        <v>2</v>
+      </c>
+      <c r="D303" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>45004</v>
+      </c>
+      <c r="B304">
+        <v>45004</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>45005</v>
+      </c>
+      <c r="B305">
+        <v>45005</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>45006</v>
+      </c>
+      <c r="B306">
+        <v>45006</v>
+      </c>
+      <c r="C306">
+        <v>2</v>
+      </c>
+      <c r="D306" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>46001</v>
+      </c>
+      <c r="B307">
+        <v>46001</v>
+      </c>
+      <c r="C307">
+        <v>2</v>
+      </c>
+      <c r="D307" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>46002</v>
+      </c>
+      <c r="B308">
+        <v>46002</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>46003</v>
+      </c>
+      <c r="B309">
+        <v>46003</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>46004</v>
+      </c>
+      <c r="B310">
+        <v>46004</v>
+      </c>
+      <c r="C310">
+        <v>2</v>
+      </c>
+      <c r="D310" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>46005</v>
+      </c>
+      <c r="B311">
+        <v>46005</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>46006</v>
+      </c>
+      <c r="B312">
+        <v>46006</v>
+      </c>
+      <c r="C312">
+        <v>2</v>
+      </c>
+      <c r="D312" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>46007</v>
+      </c>
+      <c r="B313">
+        <v>46007</v>
+      </c>
+      <c r="C313">
+        <v>2</v>
+      </c>
+      <c r="D313" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>47001</v>
+      </c>
+      <c r="B314">
+        <v>47001</v>
+      </c>
+      <c r="C314">
+        <v>2</v>
+      </c>
+      <c r="D314" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>47002</v>
+      </c>
+      <c r="B315">
+        <v>47002</v>
+      </c>
+      <c r="C315">
+        <v>2</v>
+      </c>
+      <c r="D315" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>47003</v>
+      </c>
+      <c r="B316">
+        <v>47003</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>47004</v>
+      </c>
+      <c r="B317">
+        <v>47004</v>
+      </c>
+      <c r="C317">
+        <v>2</v>
+      </c>
+      <c r="D317" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>47005</v>
+      </c>
+      <c r="B318">
+        <v>47005</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>47006</v>
+      </c>
+      <c r="B319">
+        <v>47006</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>47007</v>
+      </c>
+      <c r="B320">
+        <v>47007</v>
+      </c>
+      <c r="C320">
+        <v>2</v>
+      </c>
+      <c r="D320" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>48001</v>
+      </c>
+      <c r="B321">
+        <v>48001</v>
+      </c>
+      <c r="C321">
+        <v>2</v>
+      </c>
+      <c r="D321" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>48002</v>
+      </c>
+      <c r="B322">
+        <v>48002</v>
+      </c>
+      <c r="C322">
+        <v>2</v>
+      </c>
+      <c r="D322" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>48003</v>
+      </c>
+      <c r="B323">
+        <v>48003</v>
+      </c>
+      <c r="C323">
+        <v>2</v>
+      </c>
+      <c r="D323" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>48004</v>
+      </c>
+      <c r="B324">
+        <v>48004</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>48005</v>
+      </c>
+      <c r="B325">
+        <v>48005</v>
+      </c>
+      <c r="C325">
+        <v>2</v>
+      </c>
+      <c r="D325" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>48006</v>
+      </c>
+      <c r="B326">
+        <v>48006</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>48007</v>
+      </c>
+      <c r="B327">
+        <v>48007</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>49001</v>
+      </c>
+      <c r="B328">
+        <v>49001</v>
+      </c>
+      <c r="C328">
+        <v>2</v>
+      </c>
+      <c r="D328" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>49002</v>
+      </c>
+      <c r="B329">
+        <v>49002</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>49003</v>
+      </c>
+      <c r="B330">
+        <v>49003</v>
+      </c>
+      <c r="C330">
+        <v>2</v>
+      </c>
+      <c r="D330" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>49004</v>
+      </c>
+      <c r="B331">
+        <v>49004</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>49005</v>
+      </c>
+      <c r="B332">
+        <v>49005</v>
+      </c>
+      <c r="C332">
+        <v>2</v>
+      </c>
+      <c r="D332" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>49006</v>
+      </c>
+      <c r="B333">
+        <v>49006</v>
+      </c>
+      <c r="C333">
+        <v>2</v>
+      </c>
+      <c r="D333" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>49007</v>
+      </c>
+      <c r="B334">
+        <v>49007</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+      <c r="D334" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>50001</v>
+      </c>
+      <c r="B335">
+        <v>50001</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>50002</v>
+      </c>
+      <c r="B336">
+        <v>50002</v>
+      </c>
+      <c r="C336">
+        <v>2</v>
+      </c>
+      <c r="D336" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>50003</v>
+      </c>
+      <c r="B337">
+        <v>50003</v>
+      </c>
+      <c r="C337">
+        <v>2</v>
+      </c>
+      <c r="D337" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>50004</v>
+      </c>
+      <c r="B338">
+        <v>50004</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>50005</v>
+      </c>
+      <c r="B339">
+        <v>50005</v>
+      </c>
+      <c r="C339">
+        <v>2</v>
+      </c>
+      <c r="D339" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>50006</v>
+      </c>
+      <c r="B340">
+        <v>50006</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>50007</v>
+      </c>
+      <c r="B341">
+        <v>50007</v>
+      </c>
+      <c r="C341">
+        <v>2</v>
+      </c>
+      <c r="D341" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>51001</v>
+      </c>
+      <c r="B342">
+        <v>51001</v>
+      </c>
+      <c r="C342">
+        <v>2</v>
+      </c>
+      <c r="D342" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>51002</v>
+      </c>
+      <c r="B343">
+        <v>51002</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>51003</v>
+      </c>
+      <c r="B344">
+        <v>51003</v>
+      </c>
+      <c r="C344">
+        <v>2</v>
+      </c>
+      <c r="D344" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>51004</v>
+      </c>
+      <c r="B345">
+        <v>51004</v>
+      </c>
+      <c r="C345">
+        <v>2</v>
+      </c>
+      <c r="D345" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>51005</v>
+      </c>
+      <c r="B346">
+        <v>51005</v>
+      </c>
+      <c r="C346">
+        <v>2</v>
+      </c>
+      <c r="D346" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>51006</v>
+      </c>
+      <c r="B347">
+        <v>51006</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>51007</v>
+      </c>
+      <c r="B348">
+        <v>51007</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>52001</v>
+      </c>
+      <c r="B349">
+        <v>52001</v>
+      </c>
+      <c r="C349">
+        <v>2</v>
+      </c>
+      <c r="D349" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>52002</v>
+      </c>
+      <c r="B350">
+        <v>52002</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="D350" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>52003</v>
+      </c>
+      <c r="B351">
+        <v>52003</v>
+      </c>
+      <c r="C351">
+        <v>2</v>
+      </c>
+      <c r="D351" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>52004</v>
+      </c>
+      <c r="B352">
+        <v>52004</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>52005</v>
+      </c>
+      <c r="B353">
+        <v>52005</v>
+      </c>
+      <c r="C353">
+        <v>2</v>
+      </c>
+      <c r="D353" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>52006</v>
+      </c>
+      <c r="B354">
+        <v>52006</v>
+      </c>
+      <c r="C354">
+        <v>2</v>
+      </c>
+      <c r="D354" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>52007</v>
+      </c>
+      <c r="B355">
+        <v>52007</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>53001</v>
+      </c>
+      <c r="B356">
+        <v>53001</v>
+      </c>
+      <c r="C356">
+        <v>2</v>
+      </c>
+      <c r="D356" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>53002</v>
+      </c>
+      <c r="B357">
+        <v>53002</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>53003</v>
+      </c>
+      <c r="B358">
+        <v>53003</v>
+      </c>
+      <c r="C358">
+        <v>2</v>
+      </c>
+      <c r="D358" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>53004</v>
+      </c>
+      <c r="B359">
+        <v>53004</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+      <c r="D359" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>53005</v>
+      </c>
+      <c r="B360">
+        <v>53005</v>
+      </c>
+      <c r="C360">
+        <v>2</v>
+      </c>
+      <c r="D360" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>53006</v>
+      </c>
+      <c r="B361">
+        <v>53006</v>
+      </c>
+      <c r="C361">
+        <v>2</v>
+      </c>
+      <c r="D361" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>53007</v>
+      </c>
+      <c r="B362">
+        <v>53007</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>53008</v>
+      </c>
+      <c r="B363">
+        <v>53008</v>
+      </c>
+      <c r="C363">
+        <v>2</v>
+      </c>
+      <c r="D363" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>54001</v>
+      </c>
+      <c r="B364">
+        <v>54001</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+      <c r="D364" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>54002</v>
+      </c>
+      <c r="B365">
+        <v>54002</v>
+      </c>
+      <c r="C365">
+        <v>2</v>
+      </c>
+      <c r="D365" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>54003</v>
+      </c>
+      <c r="B366">
+        <v>54003</v>
+      </c>
+      <c r="C366">
+        <v>2</v>
+      </c>
+      <c r="D366" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>54004</v>
+      </c>
+      <c r="B367">
+        <v>54004</v>
+      </c>
+      <c r="C367">
+        <v>2</v>
+      </c>
+      <c r="D367" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>54005</v>
+      </c>
+      <c r="B368">
+        <v>54005</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>54006</v>
+      </c>
+      <c r="B369">
+        <v>54006</v>
+      </c>
+      <c r="C369">
+        <v>2</v>
+      </c>
+      <c r="D369" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>54007</v>
+      </c>
+      <c r="B370">
+        <v>54007</v>
+      </c>
+      <c r="C370">
+        <v>2</v>
+      </c>
+      <c r="D370" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>54008</v>
+      </c>
+      <c r="B371">
+        <v>54008</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>55001</v>
+      </c>
+      <c r="B372">
+        <v>55001</v>
+      </c>
+      <c r="C372">
+        <v>2</v>
+      </c>
+      <c r="D372" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>55002</v>
+      </c>
+      <c r="B373">
+        <v>55002</v>
+      </c>
+      <c r="C373">
+        <v>2</v>
+      </c>
+      <c r="D373" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>55003</v>
+      </c>
+      <c r="B374">
+        <v>55003</v>
+      </c>
+      <c r="C374">
+        <v>2</v>
+      </c>
+      <c r="D374" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>55004</v>
+      </c>
+      <c r="B375">
+        <v>55004</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>55005</v>
+      </c>
+      <c r="B376">
+        <v>55005</v>
+      </c>
+      <c r="C376">
+        <v>2</v>
+      </c>
+      <c r="D376" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>55006</v>
+      </c>
+      <c r="B377">
+        <v>55006</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>55007</v>
+      </c>
+      <c r="B378">
+        <v>55007</v>
+      </c>
+      <c r="C378">
+        <v>2</v>
+      </c>
+      <c r="D378" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>55008</v>
+      </c>
+      <c r="B379">
+        <v>55008</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>55009</v>
+      </c>
+      <c r="B380">
+        <v>55009</v>
+      </c>
+      <c r="C380">
+        <v>2</v>
+      </c>
+      <c r="D380" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>56001</v>
+      </c>
+      <c r="B381">
+        <v>56001</v>
+      </c>
+      <c r="C381">
+        <v>2</v>
+      </c>
+      <c r="D381" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>56002</v>
+      </c>
+      <c r="B382">
+        <v>56002</v>
+      </c>
+      <c r="C382">
+        <v>2</v>
+      </c>
+      <c r="D382" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>56003</v>
+      </c>
+      <c r="B383">
+        <v>56003</v>
+      </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
+      <c r="D383" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>56004</v>
+      </c>
+      <c r="B384">
+        <v>56004</v>
+      </c>
+      <c r="C384">
+        <v>2</v>
+      </c>
+      <c r="D384" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>56005</v>
+      </c>
+      <c r="B385">
+        <v>56005</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>56006</v>
+      </c>
+      <c r="B386">
+        <v>56006</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>57001</v>
+      </c>
+      <c r="B387">
+        <v>57001</v>
+      </c>
+      <c r="C387">
+        <v>2</v>
+      </c>
+      <c r="D387" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>57002</v>
+      </c>
+      <c r="B388">
+        <v>57002</v>
+      </c>
+      <c r="C388">
+        <v>2</v>
+      </c>
+      <c r="D388" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>57003</v>
+      </c>
+      <c r="B389">
+        <v>57003</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>57004</v>
+      </c>
+      <c r="B390">
+        <v>57004</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>57005</v>
+      </c>
+      <c r="B391">
+        <v>57005</v>
+      </c>
+      <c r="C391">
+        <v>2</v>
+      </c>
+      <c r="D391" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>57006</v>
+      </c>
+      <c r="B392">
+        <v>57006</v>
+      </c>
+      <c r="C392">
+        <v>2</v>
+      </c>
+      <c r="D392" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>57007</v>
+      </c>
+      <c r="B393">
+        <v>57007</v>
+      </c>
+      <c r="C393">
+        <v>1</v>
+      </c>
+      <c r="D393" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>58001</v>
+      </c>
+      <c r="B394">
+        <v>58001</v>
+      </c>
+      <c r="C394">
+        <v>2</v>
+      </c>
+      <c r="D394" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>58002</v>
+      </c>
+      <c r="B395">
+        <v>58002</v>
+      </c>
+      <c r="C395">
+        <v>1</v>
+      </c>
+      <c r="D395" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>58003</v>
+      </c>
+      <c r="B396">
+        <v>58003</v>
+      </c>
+      <c r="C396">
+        <v>2</v>
+      </c>
+      <c r="D396" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>58004</v>
+      </c>
+      <c r="B397">
+        <v>58004</v>
+      </c>
+      <c r="C397">
+        <v>2</v>
+      </c>
+      <c r="D397" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>58005</v>
+      </c>
+      <c r="B398">
+        <v>58005</v>
+      </c>
+      <c r="C398">
+        <v>1</v>
+      </c>
+      <c r="D398" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>58006</v>
+      </c>
+      <c r="B399">
+        <v>58006</v>
+      </c>
+      <c r="C399">
+        <v>2</v>
+      </c>
+      <c r="D399" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>58007</v>
+      </c>
+      <c r="B400">
+        <v>58007</v>
+      </c>
+      <c r="C400">
+        <v>1</v>
+      </c>
+      <c r="D400" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>59001</v>
+      </c>
+      <c r="B401">
+        <v>59001</v>
+      </c>
+      <c r="C401">
+        <v>2</v>
+      </c>
+      <c r="D401" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>59002</v>
+      </c>
+      <c r="B402">
+        <v>59002</v>
+      </c>
+      <c r="C402">
+        <v>1</v>
+      </c>
+      <c r="D402" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>59003</v>
+      </c>
+      <c r="B403">
+        <v>59003</v>
+      </c>
+      <c r="C403">
+        <v>2</v>
+      </c>
+      <c r="D403" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>59004</v>
+      </c>
+      <c r="B404">
+        <v>59004</v>
+      </c>
+      <c r="C404">
+        <v>2</v>
+      </c>
+      <c r="D404" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>59005</v>
+      </c>
+      <c r="B405">
+        <v>59005</v>
+      </c>
+      <c r="C405">
+        <v>1</v>
+      </c>
+      <c r="D405" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>59006</v>
+      </c>
+      <c r="B406">
+        <v>59006</v>
+      </c>
+      <c r="C406">
+        <v>2</v>
+      </c>
+      <c r="D406" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>59007</v>
+      </c>
+      <c r="B407">
+        <v>59007</v>
+      </c>
+      <c r="C407">
+        <v>1</v>
+      </c>
+      <c r="D407" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>60001</v>
+      </c>
+      <c r="B408">
+        <v>60001</v>
+      </c>
+      <c r="C408">
+        <v>2</v>
+      </c>
+      <c r="D408" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>60002</v>
+      </c>
+      <c r="B409">
+        <v>60002</v>
+      </c>
+      <c r="C409">
+        <v>2</v>
+      </c>
+      <c r="D409" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>60003</v>
+      </c>
+      <c r="B410">
+        <v>60003</v>
+      </c>
+      <c r="C410">
+        <v>1</v>
+      </c>
+      <c r="D410" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>60004</v>
+      </c>
+      <c r="B411">
+        <v>60004</v>
+      </c>
+      <c r="C411">
+        <v>2</v>
+      </c>
+      <c r="D411" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>60005</v>
+      </c>
+      <c r="B412">
+        <v>60005</v>
+      </c>
+      <c r="C412">
+        <v>1</v>
+      </c>
+      <c r="D412" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>60006</v>
+      </c>
+      <c r="B413">
+        <v>60006</v>
+      </c>
+      <c r="C413">
+        <v>2</v>
+      </c>
+      <c r="D413" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>60007</v>
+      </c>
+      <c r="B414">
+        <v>60007</v>
+      </c>
+      <c r="C414">
+        <v>2</v>
+      </c>
+      <c r="D414" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>60008</v>
+      </c>
+      <c r="B415">
+        <v>60008</v>
+      </c>
+      <c r="C415">
+        <v>1</v>
+      </c>
+      <c r="D415" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>61001</v>
+      </c>
+      <c r="B416">
+        <v>61001</v>
+      </c>
+      <c r="C416">
+        <v>2</v>
+      </c>
+      <c r="D416" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>61002</v>
+      </c>
+      <c r="B417">
+        <v>61002</v>
+      </c>
+      <c r="C417">
+        <v>2</v>
+      </c>
+      <c r="D417" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>61003</v>
+      </c>
+      <c r="B418">
+        <v>61003</v>
+      </c>
+      <c r="C418">
+        <v>1</v>
+      </c>
+      <c r="D418" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>61004</v>
+      </c>
+      <c r="B419">
+        <v>61004</v>
+      </c>
+      <c r="C419">
+        <v>2</v>
+      </c>
+      <c r="D419" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>61005</v>
+      </c>
+      <c r="B420">
+        <v>61005</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+      <c r="D420" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>61006</v>
+      </c>
+      <c r="B421">
+        <v>61006</v>
+      </c>
+      <c r="C421">
+        <v>2</v>
+      </c>
+      <c r="D421" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>61007</v>
+      </c>
+      <c r="B422">
+        <v>61007</v>
+      </c>
+      <c r="C422">
+        <v>1</v>
+      </c>
+      <c r="D422" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>62001</v>
+      </c>
+      <c r="B423">
+        <v>62001</v>
+      </c>
+      <c r="C423">
+        <v>2</v>
+      </c>
+      <c r="D423" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>62002</v>
+      </c>
+      <c r="B424">
+        <v>62002</v>
+      </c>
+      <c r="C424">
+        <v>2</v>
+      </c>
+      <c r="D424" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>62003</v>
+      </c>
+      <c r="B425">
+        <v>62003</v>
+      </c>
+      <c r="C425">
+        <v>1</v>
+      </c>
+      <c r="D425" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>62004</v>
+      </c>
+      <c r="B426">
+        <v>62004</v>
+      </c>
+      <c r="C426">
+        <v>2</v>
+      </c>
+      <c r="D426" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>62005</v>
+      </c>
+      <c r="B427">
+        <v>62005</v>
+      </c>
+      <c r="C427">
+        <v>2</v>
+      </c>
+      <c r="D427" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>62006</v>
+      </c>
+      <c r="B428">
+        <v>62006</v>
+      </c>
+      <c r="C428">
+        <v>1</v>
+      </c>
+      <c r="D428" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>62007</v>
+      </c>
+      <c r="B429">
+        <v>62007</v>
+      </c>
+      <c r="C429">
+        <v>2</v>
+      </c>
+      <c r="D429" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>62008</v>
+      </c>
+      <c r="B430">
+        <v>62008</v>
+      </c>
+      <c r="C430">
+        <v>1</v>
+      </c>
+      <c r="D430" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>62009</v>
+      </c>
+      <c r="B431">
+        <v>62009</v>
+      </c>
+      <c r="C431">
+        <v>2</v>
+      </c>
+      <c r="D431" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>63001</v>
+      </c>
+      <c r="B432">
+        <v>63001</v>
+      </c>
+      <c r="C432">
+        <v>2</v>
+      </c>
+      <c r="D432" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>63002</v>
+      </c>
+      <c r="B433">
+        <v>63002</v>
+      </c>
+      <c r="C433">
+        <v>2</v>
+      </c>
+      <c r="D433" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>63003</v>
+      </c>
+      <c r="B434">
+        <v>63003</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+      <c r="D434" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>63004</v>
+      </c>
+      <c r="B435">
+        <v>63004</v>
+      </c>
+      <c r="C435">
+        <v>2</v>
+      </c>
+      <c r="D435" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>63005</v>
+      </c>
+      <c r="B436">
+        <v>63005</v>
+      </c>
+      <c r="C436">
+        <v>1</v>
+      </c>
+      <c r="D436" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>63006</v>
+      </c>
+      <c r="B437">
+        <v>63006</v>
+      </c>
+      <c r="C437">
+        <v>2</v>
+      </c>
+      <c r="D437" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>63007</v>
+      </c>
+      <c r="B438">
+        <v>63007</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+      <c r="D438" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>63008</v>
+      </c>
+      <c r="B439">
+        <v>63008</v>
+      </c>
+      <c r="C439">
+        <v>2</v>
+      </c>
+      <c r="D439" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>63009</v>
+      </c>
+      <c r="B440">
+        <v>63009</v>
+      </c>
+      <c r="C440">
+        <v>2</v>
+      </c>
+      <c r="D440" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>64001</v>
+      </c>
+      <c r="B441">
+        <v>64001</v>
+      </c>
+      <c r="C441">
+        <v>2</v>
+      </c>
+      <c r="D441" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>64002</v>
+      </c>
+      <c r="B442">
+        <v>64002</v>
+      </c>
+      <c r="C442">
+        <v>1</v>
+      </c>
+      <c r="D442" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>64003</v>
+      </c>
+      <c r="B443">
+        <v>64003</v>
+      </c>
+      <c r="C443">
+        <v>2</v>
+      </c>
+      <c r="D443" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>64004</v>
+      </c>
+      <c r="B444">
+        <v>64004</v>
+      </c>
+      <c r="C444">
+        <v>2</v>
+      </c>
+      <c r="D444" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>64005</v>
+      </c>
+      <c r="B445">
+        <v>64005</v>
+      </c>
+      <c r="C445">
+        <v>2</v>
+      </c>
+      <c r="D445" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>64006</v>
+      </c>
+      <c r="B446">
+        <v>64006</v>
+      </c>
+      <c r="C446">
+        <v>2</v>
+      </c>
+      <c r="D446" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>64007</v>
+      </c>
+      <c r="B447">
+        <v>64007</v>
+      </c>
+      <c r="C447">
+        <v>2</v>
+      </c>
+      <c r="D447" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>64008</v>
+      </c>
+      <c r="B448">
+        <v>64008</v>
+      </c>
+      <c r="C448">
+        <v>1</v>
+      </c>
+      <c r="D448" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>64009</v>
+      </c>
+      <c r="B449">
+        <v>64009</v>
+      </c>
+      <c r="C449">
+        <v>2</v>
+      </c>
+      <c r="D449" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>64010</v>
+      </c>
+      <c r="B450">
+        <v>64010</v>
+      </c>
+      <c r="C450">
+        <v>1</v>
+      </c>
+      <c r="D450" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>64011</v>
+      </c>
+      <c r="B451">
+        <v>64011</v>
+      </c>
+      <c r="C451">
+        <v>2</v>
+      </c>
+      <c r="D451" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>65001</v>
+      </c>
+      <c r="B452">
+        <v>65001</v>
+      </c>
+      <c r="C452">
+        <v>2</v>
+      </c>
+      <c r="D452" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>65002</v>
+      </c>
+      <c r="B453">
+        <v>65002</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+      <c r="D453" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>65003</v>
+      </c>
+      <c r="B454">
+        <v>65003</v>
+      </c>
+      <c r="C454">
+        <v>2</v>
+      </c>
+      <c r="D454" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>65004</v>
+      </c>
+      <c r="B455">
+        <v>65004</v>
+      </c>
+      <c r="C455">
+        <v>2</v>
+      </c>
+      <c r="D455" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>65005</v>
+      </c>
+      <c r="B456">
+        <v>65005</v>
+      </c>
+      <c r="C456">
+        <v>2</v>
+      </c>
+      <c r="D456" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>65006</v>
+      </c>
+      <c r="B457">
+        <v>65006</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+      <c r="D457" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>65007</v>
+      </c>
+      <c r="B458">
+        <v>65007</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+      <c r="D458" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>65008</v>
+      </c>
+      <c r="B459">
+        <v>65008</v>
+      </c>
+      <c r="C459">
+        <v>2</v>
+      </c>
+      <c r="D459" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>66001</v>
+      </c>
+      <c r="B460">
+        <v>66001</v>
+      </c>
+      <c r="C460">
+        <v>2</v>
+      </c>
+      <c r="D460" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>66002</v>
+      </c>
+      <c r="B461">
+        <v>66002</v>
+      </c>
+      <c r="C461">
+        <v>1</v>
+      </c>
+      <c r="D461" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>66003</v>
+      </c>
+      <c r="B462">
+        <v>66003</v>
+      </c>
+      <c r="C462">
+        <v>1</v>
+      </c>
+      <c r="D462" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>66004</v>
+      </c>
+      <c r="B463">
+        <v>66004</v>
+      </c>
+      <c r="C463">
+        <v>2</v>
+      </c>
+      <c r="D463" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>66005</v>
+      </c>
+      <c r="B464">
+        <v>66005</v>
+      </c>
+      <c r="C464">
+        <v>2</v>
+      </c>
+      <c r="D464" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>66006</v>
+      </c>
+      <c r="B465">
+        <v>66006</v>
+      </c>
+      <c r="C465">
+        <v>2</v>
+      </c>
+      <c r="D465" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>66007</v>
+      </c>
+      <c r="B466">
+        <v>66007</v>
+      </c>
+      <c r="C466">
+        <v>2</v>
+      </c>
+      <c r="D466" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>66008</v>
+      </c>
+      <c r="B467">
+        <v>66008</v>
+      </c>
+      <c r="C467">
+        <v>1</v>
+      </c>
+      <c r="D467" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>67001</v>
+      </c>
+      <c r="B468">
+        <v>67001</v>
+      </c>
+      <c r="C468">
+        <v>2</v>
+      </c>
+      <c r="D468" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>67002</v>
+      </c>
+      <c r="B469">
+        <v>67002</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+      <c r="D469" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>67003</v>
+      </c>
+      <c r="B470">
+        <v>67003</v>
+      </c>
+      <c r="C470">
+        <v>2</v>
+      </c>
+      <c r="D470" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>67004</v>
+      </c>
+      <c r="B471">
+        <v>67004</v>
+      </c>
+      <c r="C471">
+        <v>2</v>
+      </c>
+      <c r="D471" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>67005</v>
+      </c>
+      <c r="B472">
+        <v>67005</v>
+      </c>
+      <c r="C472">
+        <v>2</v>
+      </c>
+      <c r="D472" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>67006</v>
+      </c>
+      <c r="B473">
+        <v>67006</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+      <c r="D473" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>67007</v>
+      </c>
+      <c r="B474">
+        <v>67007</v>
+      </c>
+      <c r="C474">
+        <v>2</v>
+      </c>
+      <c r="D474" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>67008</v>
+      </c>
+      <c r="B475">
+        <v>67008</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+      <c r="D475" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>68001</v>
+      </c>
+      <c r="B476">
+        <v>68001</v>
+      </c>
+      <c r="C476">
+        <v>2</v>
+      </c>
+      <c r="D476" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>68002</v>
+      </c>
+      <c r="B477">
+        <v>68002</v>
+      </c>
+      <c r="C477">
+        <v>2</v>
+      </c>
+      <c r="D477" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>68003</v>
+      </c>
+      <c r="B478">
+        <v>68003</v>
+      </c>
+      <c r="C478">
+        <v>1</v>
+      </c>
+      <c r="D478" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>68004</v>
+      </c>
+      <c r="B479">
+        <v>68004</v>
+      </c>
+      <c r="C479">
+        <v>2</v>
+      </c>
+      <c r="D479" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>68005</v>
+      </c>
+      <c r="B480">
+        <v>68005</v>
+      </c>
+      <c r="C480">
+        <v>1</v>
+      </c>
+      <c r="D480" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>68006</v>
+      </c>
+      <c r="B481">
+        <v>68006</v>
+      </c>
+      <c r="C481">
+        <v>2</v>
+      </c>
+      <c r="D481" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>68007</v>
+      </c>
+      <c r="B482">
+        <v>68007</v>
+      </c>
+      <c r="C482">
+        <v>2</v>
+      </c>
+      <c r="D482" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>68008</v>
+      </c>
+      <c r="B483">
+        <v>68008</v>
+      </c>
+      <c r="C483">
+        <v>1</v>
+      </c>
+      <c r="D483" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>69001</v>
+      </c>
+      <c r="B484">
+        <v>69001</v>
+      </c>
+      <c r="C484">
+        <v>2</v>
+      </c>
+      <c r="D484" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>69002</v>
+      </c>
+      <c r="B485">
+        <v>69002</v>
+      </c>
+      <c r="C485">
+        <v>1</v>
+      </c>
+      <c r="D485" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>69003</v>
+      </c>
+      <c r="B486">
+        <v>69003</v>
+      </c>
+      <c r="C486">
+        <v>2</v>
+      </c>
+      <c r="D486" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>69004</v>
+      </c>
+      <c r="B487">
+        <v>69004</v>
+      </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
+      <c r="D487" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>69005</v>
+      </c>
+      <c r="B488">
+        <v>69005</v>
+      </c>
+      <c r="C488">
+        <v>2</v>
+      </c>
+      <c r="D488" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>69006</v>
+      </c>
+      <c r="B489">
+        <v>69006</v>
+      </c>
+      <c r="C489">
+        <v>2</v>
+      </c>
+      <c r="D489" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>69007</v>
+      </c>
+      <c r="B490">
+        <v>69007</v>
+      </c>
+      <c r="C490">
+        <v>2</v>
+      </c>
+      <c r="D490" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>69008</v>
+      </c>
+      <c r="B491">
+        <v>69008</v>
+      </c>
+      <c r="C491">
+        <v>1</v>
+      </c>
+      <c r="D491" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>70001</v>
+      </c>
+      <c r="B492">
+        <v>70001</v>
+      </c>
+      <c r="C492">
+        <v>1</v>
+      </c>
+      <c r="D492" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>70002</v>
+      </c>
+      <c r="B493">
+        <v>70002</v>
+      </c>
+      <c r="C493">
+        <v>2</v>
+      </c>
+      <c r="D493" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>70003</v>
+      </c>
+      <c r="B494">
+        <v>70003</v>
+      </c>
+      <c r="C494">
+        <v>1</v>
+      </c>
+      <c r="D494" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>70004</v>
+      </c>
+      <c r="B495">
+        <v>70004</v>
+      </c>
+      <c r="C495">
+        <v>2</v>
+      </c>
+      <c r="D495" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>70005</v>
+      </c>
+      <c r="B496">
+        <v>70005</v>
+      </c>
+      <c r="C496">
+        <v>2</v>
+      </c>
+      <c r="D496" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>70006</v>
+      </c>
+      <c r="B497">
+        <v>70006</v>
+      </c>
+      <c r="C497">
+        <v>1</v>
+      </c>
+      <c r="D497" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A498">
+        <v>70007</v>
+      </c>
+      <c r="B498">
+        <v>70007</v>
+      </c>
+      <c r="C498">
+        <v>2</v>
+      </c>
+      <c r="D498" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>70008</v>
+      </c>
+      <c r="B499">
+        <v>70008</v>
+      </c>
+      <c r="C499">
+        <v>1</v>
+      </c>
+      <c r="D499" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>71001</v>
+      </c>
+      <c r="B500">
+        <v>71001</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+      <c r="D500" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>71002</v>
+      </c>
+      <c r="B501">
+        <v>71002</v>
+      </c>
+      <c r="C501">
+        <v>2</v>
+      </c>
+      <c r="D501" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>71003</v>
+      </c>
+      <c r="B502">
+        <v>71003</v>
+      </c>
+      <c r="C502">
+        <v>2</v>
+      </c>
+      <c r="D502" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>71004</v>
+      </c>
+      <c r="B503">
+        <v>71004</v>
+      </c>
+      <c r="C503">
+        <v>2</v>
+      </c>
+      <c r="D503" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>71005</v>
+      </c>
+      <c r="B504">
+        <v>71005</v>
+      </c>
+      <c r="C504">
+        <v>2</v>
+      </c>
+      <c r="D504" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>71006</v>
+      </c>
+      <c r="B505">
+        <v>71006</v>
+      </c>
+      <c r="C505">
+        <v>1</v>
+      </c>
+      <c r="D505" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>71007</v>
+      </c>
+      <c r="B506">
+        <v>71007</v>
+      </c>
+      <c r="C506">
+        <v>2</v>
+      </c>
+      <c r="D506" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>71008</v>
+      </c>
+      <c r="B507">
+        <v>71008</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+      <c r="D507" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>72001</v>
+      </c>
+      <c r="B508">
+        <v>72001</v>
+      </c>
+      <c r="C508">
+        <v>2</v>
+      </c>
+      <c r="D508" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>72002</v>
+      </c>
+      <c r="B509">
+        <v>72002</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+      <c r="D509" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>72003</v>
+      </c>
+      <c r="B510">
+        <v>72003</v>
+      </c>
+      <c r="C510">
+        <v>2</v>
+      </c>
+      <c r="D510" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>72004</v>
+      </c>
+      <c r="B511">
+        <v>72004</v>
+      </c>
+      <c r="C511">
+        <v>2</v>
+      </c>
+      <c r="D511" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>72005</v>
+      </c>
+      <c r="B512">
+        <v>72005</v>
+      </c>
+      <c r="C512">
+        <v>2</v>
+      </c>
+      <c r="D512" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>72006</v>
+      </c>
+      <c r="B513">
+        <v>72006</v>
+      </c>
+      <c r="C513">
+        <v>1</v>
+      </c>
+      <c r="D513" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>72007</v>
+      </c>
+      <c r="B514">
+        <v>72007</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+      <c r="D514" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>72008</v>
+      </c>
+      <c r="B515">
+        <v>72008</v>
+      </c>
+      <c r="C515">
+        <v>2</v>
+      </c>
+      <c r="D515" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/com/Tools/MyPoco/info_tab/少三2关卡类型表.xlsx
+++ b/com/Tools/MyPoco/info_tab/少三2关卡类型表.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="副本" sheetId="1" r:id="rId1"/>
     <sheet name="列传" sheetId="2" r:id="rId2"/>
+    <sheet name="关隘" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="2593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="2594">
   <si>
     <t>副本</t>
   </si>
@@ -7840,6 +7841,10 @@
   </si>
   <si>
     <t>章节数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -24848,8 +24853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D515"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32069,4 +32074,1144 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10101</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>10107</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>10102</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>10104</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>10108</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1006</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>10103</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1007</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>10109</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1008</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>10106</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1009</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>10105</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1010</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>10111</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1011</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>10110</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1012</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>10112</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1013</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>10115</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1014</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>10114</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1015</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>10113</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1016</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>10116</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2001</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>10201</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2002</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>10212</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2003</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>10202</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2004</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>10213</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2005</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>10203</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2006</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>10204</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2007</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>10206</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2008</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>10205</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2009</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>10207</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2010</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>10218</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2011</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>10208</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2012</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>10219</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2013</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>10209</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2014</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>10211</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2015</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>10217</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2016</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>10216</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2017</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>10215</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2018</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>10214</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2019</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>10210</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2020</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>10221</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2021</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>10220</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2022</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>10223</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2023</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>10224</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2024</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>10225</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2025</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>10222</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>3001</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>10301</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>3002</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>10320</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>3003</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>10304</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>3004</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>10302</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>3005</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>10321</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>3006</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>10323</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>3007</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>10303</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>3008</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>10322</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>3009</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>10305</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>3010</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>10306</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>3011</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>10318</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>3012</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>10324</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>3013</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>10316</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>3014</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>10309</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>3015</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>10319</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>3016</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>10307</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>3017</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>10325</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>3018</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>10308</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>3019</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>10326</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>3020</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>10317</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>3021</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>10327</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>3022</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>10310</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>3023</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>10328</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>3024</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>10311</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>3025</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>10329</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>3026</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>10312</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>3027</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>10330</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>3028</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>10313</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>3029</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>10331</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>3030</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>10314</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>3031</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>10332</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>3032</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74">
+        <v>10315</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>3033</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>10333</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>3034</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>10334</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>3035</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>10337</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>3036</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78">
+        <v>10336</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>3037</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>10335</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>3038</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
+        <v>10338</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/com/Tools/MyPoco/info_tab/少三2关卡类型表.xlsx
+++ b/com/Tools/MyPoco/info_tab/少三2关卡类型表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="副本" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2605" uniqueCount="2594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="3344">
   <si>
     <t>副本</t>
   </si>
@@ -7846,6 +7846,2308 @@
   <si>
     <t>关卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-211-1</t>
+  </si>
+  <si>
+    <t>副本-211-2</t>
+  </si>
+  <si>
+    <t>副本-211-3</t>
+  </si>
+  <si>
+    <t>副本-211-4</t>
+  </si>
+  <si>
+    <t>副本-211-5</t>
+  </si>
+  <si>
+    <t>副本-211-6</t>
+  </si>
+  <si>
+    <t>副本-211-7</t>
+  </si>
+  <si>
+    <t>副本-211-8</t>
+  </si>
+  <si>
+    <t>副本-211-9</t>
+  </si>
+  <si>
+    <t>副本-211-10</t>
+  </si>
+  <si>
+    <t>副本-212-1</t>
+  </si>
+  <si>
+    <t>副本-212-2</t>
+  </si>
+  <si>
+    <t>副本-212-3</t>
+  </si>
+  <si>
+    <t>副本-212-4</t>
+  </si>
+  <si>
+    <t>副本-212-5</t>
+  </si>
+  <si>
+    <t>副本-212-6</t>
+  </si>
+  <si>
+    <t>副本-212-7</t>
+  </si>
+  <si>
+    <t>副本-212-8</t>
+  </si>
+  <si>
+    <t>副本-212-9</t>
+  </si>
+  <si>
+    <t>副本-212-10</t>
+  </si>
+  <si>
+    <t>副本-213-1</t>
+  </si>
+  <si>
+    <t>副本-213-2</t>
+  </si>
+  <si>
+    <t>副本-213-3</t>
+  </si>
+  <si>
+    <t>副本-213-4</t>
+  </si>
+  <si>
+    <t>副本-213-5</t>
+  </si>
+  <si>
+    <t>副本-213-6</t>
+  </si>
+  <si>
+    <t>副本-213-7</t>
+  </si>
+  <si>
+    <t>副本-213-8</t>
+  </si>
+  <si>
+    <t>副本-213-9</t>
+  </si>
+  <si>
+    <t>副本-213-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-214-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-214-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-214-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-214-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-214-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-214-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-214-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-214-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-214-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-214-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-215-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-215-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-215-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-215-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-215-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-215-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-215-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-215-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-215-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-249-10</t>
+  </si>
+  <si>
+    <t>副本-216-1</t>
+  </si>
+  <si>
+    <t>副本-221-1</t>
+  </si>
+  <si>
+    <t>副本-226-1</t>
+  </si>
+  <si>
+    <t>副本-246-1</t>
+  </si>
+  <si>
+    <t>副本-249-2</t>
+  </si>
+  <si>
+    <t>副本-216-2</t>
+  </si>
+  <si>
+    <t>副本-230-7</t>
+  </si>
+  <si>
+    <t>副本-240-1</t>
+  </si>
+  <si>
+    <t>副本-248-4</t>
+  </si>
+  <si>
+    <t>副本-216-3</t>
+  </si>
+  <si>
+    <t>副本-223-6</t>
+  </si>
+  <si>
+    <t>副本-230-9</t>
+  </si>
+  <si>
+    <t>副本-215-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-216-4</t>
+  </si>
+  <si>
+    <t>副本-226-4</t>
+  </si>
+  <si>
+    <t>副本-240-4</t>
+  </si>
+  <si>
+    <t>副本-246-7</t>
+  </si>
+  <si>
+    <t>副本-249-7</t>
+  </si>
+  <si>
+    <t>副本-216-5</t>
+  </si>
+  <si>
+    <t>副本-221-5</t>
+  </si>
+  <si>
+    <t>副本-240-8</t>
+  </si>
+  <si>
+    <t>副本-246-2</t>
+  </si>
+  <si>
+    <t>副本-248-1</t>
+  </si>
+  <si>
+    <t>副本-249-4</t>
+  </si>
+  <si>
+    <t>副本-251-1</t>
+  </si>
+  <si>
+    <t>副本-216-6</t>
+  </si>
+  <si>
+    <t>副本-217-3</t>
+  </si>
+  <si>
+    <t>副本-219-9</t>
+  </si>
+  <si>
+    <t>副本-239-9</t>
+  </si>
+  <si>
+    <t>副本-216-7</t>
+  </si>
+  <si>
+    <t>副本-221-8</t>
+  </si>
+  <si>
+    <t>副本-226-5</t>
+  </si>
+  <si>
+    <t>副本-230-2</t>
+  </si>
+  <si>
+    <t>副本-246-4</t>
+  </si>
+  <si>
+    <t>副本-248-8</t>
+  </si>
+  <si>
+    <t>副本-249-5</t>
+  </si>
+  <si>
+    <t>副本-251-7</t>
+  </si>
+  <si>
+    <t>副本-216-8</t>
+  </si>
+  <si>
+    <t>副本-248-5</t>
+  </si>
+  <si>
+    <t>副本-251-2</t>
+  </si>
+  <si>
+    <t>副本-216-9</t>
+  </si>
+  <si>
+    <t>副本-216-10</t>
+  </si>
+  <si>
+    <t>副本-217-2</t>
+  </si>
+  <si>
+    <t>副本-217-5</t>
+  </si>
+  <si>
+    <t>副本-217-1</t>
+  </si>
+  <si>
+    <t>副本-226-2</t>
+  </si>
+  <si>
+    <t>副本-251-8</t>
+  </si>
+  <si>
+    <t>副本-217-4</t>
+  </si>
+  <si>
+    <t>副本-226-7</t>
+  </si>
+  <si>
+    <t>副本-230-5</t>
+  </si>
+  <si>
+    <t>副本-240-7</t>
+  </si>
+  <si>
+    <t>副本-246-5</t>
+  </si>
+  <si>
+    <t>副本-248-2</t>
+  </si>
+  <si>
+    <t>副本-251-4</t>
+  </si>
+  <si>
+    <t>副本-217-6</t>
+  </si>
+  <si>
+    <t>副本-233-3</t>
+  </si>
+  <si>
+    <t>副本-234-3</t>
+  </si>
+  <si>
+    <t>副本-240-3</t>
+  </si>
+  <si>
+    <t>副本-217-7</t>
+  </si>
+  <si>
+    <t>副本-221-4</t>
+  </si>
+  <si>
+    <t>副本-248-7</t>
+  </si>
+  <si>
+    <t>副本-217-9</t>
+  </si>
+  <si>
+    <t>副本-230-3</t>
+  </si>
+  <si>
+    <t>副本-239-3</t>
+  </si>
+  <si>
+    <t>副本-217-8</t>
+  </si>
+  <si>
+    <t>副本-221-2</t>
+  </si>
+  <si>
+    <t>副本-226-8</t>
+  </si>
+  <si>
+    <t>副本-230-8</t>
+  </si>
+  <si>
+    <t>副本-240-2</t>
+  </si>
+  <si>
+    <t>副本-249-1</t>
+  </si>
+  <si>
+    <t>副本-251-5</t>
+  </si>
+  <si>
+    <t>副本-217-10</t>
+  </si>
+  <si>
+    <t>副本-218-1</t>
+  </si>
+  <si>
+    <t>副本-218-2</t>
+  </si>
+  <si>
+    <t>副本-218-4</t>
+  </si>
+  <si>
+    <t>副本-218-5</t>
+  </si>
+  <si>
+    <t>副本-218-7</t>
+  </si>
+  <si>
+    <t>副本-218-8</t>
+  </si>
+  <si>
+    <t>副本-220-1</t>
+  </si>
+  <si>
+    <t>副本-220-2</t>
+  </si>
+  <si>
+    <t>副本-220-4</t>
+  </si>
+  <si>
+    <t>副本-220-5</t>
+  </si>
+  <si>
+    <t>副本-220-7</t>
+  </si>
+  <si>
+    <t>副本-220-8</t>
+  </si>
+  <si>
+    <t>副本-222-1</t>
+  </si>
+  <si>
+    <t>副本-222-2</t>
+  </si>
+  <si>
+    <t>副本-222-5</t>
+  </si>
+  <si>
+    <t>副本-222-7</t>
+  </si>
+  <si>
+    <t>副本-222-8</t>
+  </si>
+  <si>
+    <t>副本-225-1</t>
+  </si>
+  <si>
+    <t>副本-225-2</t>
+  </si>
+  <si>
+    <t>副本-225-4</t>
+  </si>
+  <si>
+    <t>副本-225-5</t>
+  </si>
+  <si>
+    <t>副本-225-7</t>
+  </si>
+  <si>
+    <t>副本-225-8</t>
+  </si>
+  <si>
+    <t>副本-236-1</t>
+  </si>
+  <si>
+    <t>副本-236-2</t>
+  </si>
+  <si>
+    <t>副本-236-4</t>
+  </si>
+  <si>
+    <t>副本-236-7</t>
+  </si>
+  <si>
+    <t>副本-238-1</t>
+  </si>
+  <si>
+    <t>副本-238-2</t>
+  </si>
+  <si>
+    <t>副本-238-4</t>
+  </si>
+  <si>
+    <t>副本-238-5</t>
+  </si>
+  <si>
+    <t>副本-238-7</t>
+  </si>
+  <si>
+    <t>副本-238-8</t>
+  </si>
+  <si>
+    <t>副本-218-3</t>
+  </si>
+  <si>
+    <t>副本-219-6</t>
+  </si>
+  <si>
+    <t>副本-220-9</t>
+  </si>
+  <si>
+    <t>副本-221-3</t>
+  </si>
+  <si>
+    <t>副本-222-10</t>
+  </si>
+  <si>
+    <t>副本-224-9</t>
+  </si>
+  <si>
+    <t>副本-225-9</t>
+  </si>
+  <si>
+    <t>副本-226-9</t>
+  </si>
+  <si>
+    <t>副本-236-9</t>
+  </si>
+  <si>
+    <t>副本-237-9</t>
+  </si>
+  <si>
+    <t>副本-239-6</t>
+  </si>
+  <si>
+    <t>副本-218-6</t>
+  </si>
+  <si>
+    <t>副本-219-3</t>
+  </si>
+  <si>
+    <t>副本-220-6</t>
+  </si>
+  <si>
+    <t>副本-221-9</t>
+  </si>
+  <si>
+    <t>副本-223-1</t>
+  </si>
+  <si>
+    <t>副本-223-2</t>
+  </si>
+  <si>
+    <t>副本-223-4</t>
+  </si>
+  <si>
+    <t>副本-223-5</t>
+  </si>
+  <si>
+    <t>副本-223-7</t>
+  </si>
+  <si>
+    <t>副本-223-8</t>
+  </si>
+  <si>
+    <t>副本-223-10</t>
+  </si>
+  <si>
+    <t>副本-224-1</t>
+  </si>
+  <si>
+    <t>副本-224-2</t>
+  </si>
+  <si>
+    <t>副本-224-4</t>
+  </si>
+  <si>
+    <t>副本-224-5</t>
+  </si>
+  <si>
+    <t>副本-224-7</t>
+  </si>
+  <si>
+    <t>副本-224-8</t>
+  </si>
+  <si>
+    <t>副本-224-10</t>
+  </si>
+  <si>
+    <t>副本-225-6</t>
+  </si>
+  <si>
+    <t>副本-226-10</t>
+  </si>
+  <si>
+    <t>副本-236-10</t>
+  </si>
+  <si>
+    <t>副本-237-1</t>
+  </si>
+  <si>
+    <t>副本-237-2</t>
+  </si>
+  <si>
+    <t>副本-237-4</t>
+  </si>
+  <si>
+    <t>副本-237-5</t>
+  </si>
+  <si>
+    <t>副本-237-7</t>
+  </si>
+  <si>
+    <t>副本-237-8</t>
+  </si>
+  <si>
+    <t>副本-237-10</t>
+  </si>
+  <si>
+    <t>副本-239-1</t>
+  </si>
+  <si>
+    <t>副本-239-2</t>
+  </si>
+  <si>
+    <t>副本-239-4</t>
+  </si>
+  <si>
+    <t>副本-239-5</t>
+  </si>
+  <si>
+    <t>副本-239-8</t>
+  </si>
+  <si>
+    <t>副本-239-10</t>
+  </si>
+  <si>
+    <t>副本-240-10</t>
+  </si>
+  <si>
+    <t>副本-218-9</t>
+  </si>
+  <si>
+    <t>副本-219-10</t>
+  </si>
+  <si>
+    <t>副本-218-10</t>
+  </si>
+  <si>
+    <t>副本-219-1</t>
+  </si>
+  <si>
+    <t>副本-219-2</t>
+  </si>
+  <si>
+    <t>副本-219-4</t>
+  </si>
+  <si>
+    <t>副本-219-5</t>
+  </si>
+  <si>
+    <t>副本-219-7</t>
+  </si>
+  <si>
+    <t>副本-219-8</t>
+  </si>
+  <si>
+    <t>副本-220-10</t>
+  </si>
+  <si>
+    <t>副本-220-3</t>
+  </si>
+  <si>
+    <t>副本-223-9</t>
+  </si>
+  <si>
+    <t>副本-224-3</t>
+  </si>
+  <si>
+    <t>副本-226-3</t>
+  </si>
+  <si>
+    <t>副本-236-3</t>
+  </si>
+  <si>
+    <t>副本-237-6</t>
+  </si>
+  <si>
+    <t>副本-221-6</t>
+  </si>
+  <si>
+    <t>副本-222-6</t>
+  </si>
+  <si>
+    <t>副本-230-6</t>
+  </si>
+  <si>
+    <t>副本-221-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-221-10</t>
+  </si>
+  <si>
+    <t>副本-222-9</t>
+  </si>
+  <si>
+    <t>副本-225-10</t>
+  </si>
+  <si>
+    <t>副本-238-10</t>
+  </si>
+  <si>
+    <t>副本-248-10</t>
+  </si>
+  <si>
+    <t>副本-249-8</t>
+  </si>
+  <si>
+    <t>副本-249-9</t>
+  </si>
+  <si>
+    <t>副本-222-3</t>
+  </si>
+  <si>
+    <t>副本-224-6</t>
+  </si>
+  <si>
+    <t>副本-225-3</t>
+  </si>
+  <si>
+    <t>副本-226-6</t>
+  </si>
+  <si>
+    <t>副本-236-6</t>
+  </si>
+  <si>
+    <t>副本-222-4</t>
+  </si>
+  <si>
+    <t>副本-223-3</t>
+  </si>
+  <si>
+    <t>副本-228-10</t>
+  </si>
+  <si>
+    <t>副本-238-9</t>
+  </si>
+  <si>
+    <t>副本-247-1</t>
+  </si>
+  <si>
+    <t>副本-247-2</t>
+  </si>
+  <si>
+    <t>副本-247-5</t>
+  </si>
+  <si>
+    <t>副本-247-7</t>
+  </si>
+  <si>
+    <t>副本-247-8</t>
+  </si>
+  <si>
+    <t>副本-247-10</t>
+  </si>
+  <si>
+    <t>副本-249-6</t>
+  </si>
+  <si>
+    <t>副本-250-10</t>
+  </si>
+  <si>
+    <t>副本-227-1</t>
+  </si>
+  <si>
+    <t>副本-227-2</t>
+  </si>
+  <si>
+    <t>副本-227-4</t>
+  </si>
+  <si>
+    <t>副本-227-5</t>
+  </si>
+  <si>
+    <t>副本-227-7</t>
+  </si>
+  <si>
+    <t>副本-227-8</t>
+  </si>
+  <si>
+    <t>副本-256-1</t>
+  </si>
+  <si>
+    <t>副本-256-4</t>
+  </si>
+  <si>
+    <t>副本-256-5</t>
+  </si>
+  <si>
+    <t>副本-256-7</t>
+  </si>
+  <si>
+    <t>副本-256-8</t>
+  </si>
+  <si>
+    <t>副本-257-1</t>
+  </si>
+  <si>
+    <t>副本-257-2</t>
+  </si>
+  <si>
+    <t>副本-257-4</t>
+  </si>
+  <si>
+    <t>副本-257-5</t>
+  </si>
+  <si>
+    <t>副本-257-7</t>
+  </si>
+  <si>
+    <t>副本-257-8</t>
+  </si>
+  <si>
+    <t>副本-259-1</t>
+  </si>
+  <si>
+    <t>副本-259-2</t>
+  </si>
+  <si>
+    <t>副本-259-4</t>
+  </si>
+  <si>
+    <t>副本-259-5</t>
+  </si>
+  <si>
+    <t>副本-259-7</t>
+  </si>
+  <si>
+    <t>副本-259-8</t>
+  </si>
+  <si>
+    <t>副本-261-1</t>
+  </si>
+  <si>
+    <t>副本-261-2</t>
+  </si>
+  <si>
+    <t>副本-261-7</t>
+  </si>
+  <si>
+    <t>副本-262-1</t>
+  </si>
+  <si>
+    <t>副本-262-2</t>
+  </si>
+  <si>
+    <t>副本-262-5</t>
+  </si>
+  <si>
+    <t>副本-263-1</t>
+  </si>
+  <si>
+    <t>副本-263-2</t>
+  </si>
+  <si>
+    <t>副本-263-4</t>
+  </si>
+  <si>
+    <t>副本-263-5</t>
+  </si>
+  <si>
+    <t>副本-263-8</t>
+  </si>
+  <si>
+    <t>副本-265-1</t>
+  </si>
+  <si>
+    <t>副本-265-4</t>
+  </si>
+  <si>
+    <t>副本-265-7</t>
+  </si>
+  <si>
+    <t>副本-265-8</t>
+  </si>
+  <si>
+    <t>副本-266-1</t>
+  </si>
+  <si>
+    <t>副本-266-2</t>
+  </si>
+  <si>
+    <t>副本-266-4</t>
+  </si>
+  <si>
+    <t>副本-266-5</t>
+  </si>
+  <si>
+    <t>副本-266-7</t>
+  </si>
+  <si>
+    <t>副本-266-8</t>
+  </si>
+  <si>
+    <t>副本-267-1</t>
+  </si>
+  <si>
+    <t>副本-267-2</t>
+  </si>
+  <si>
+    <t>副本-267-7</t>
+  </si>
+  <si>
+    <t>副本-267-8</t>
+  </si>
+  <si>
+    <t>副本-268-1</t>
+  </si>
+  <si>
+    <t>副本-268-2</t>
+  </si>
+  <si>
+    <t>副本-268-4</t>
+  </si>
+  <si>
+    <t>副本-268-7</t>
+  </si>
+  <si>
+    <t>副本-269-1</t>
+  </si>
+  <si>
+    <t>副本-269-2</t>
+  </si>
+  <si>
+    <t>副本-269-4</t>
+  </si>
+  <si>
+    <t>副本-270-2</t>
+  </si>
+  <si>
+    <t>副本-270-4</t>
+  </si>
+  <si>
+    <t>副本-270-7</t>
+  </si>
+  <si>
+    <t>副本-270-8</t>
+  </si>
+  <si>
+    <t>副本-271-1</t>
+  </si>
+  <si>
+    <t>副本-271-4</t>
+  </si>
+  <si>
+    <t>副本-271-5</t>
+  </si>
+  <si>
+    <t>副本-271-7</t>
+  </si>
+  <si>
+    <t>副本-272-1</t>
+  </si>
+  <si>
+    <t>副本-272-2</t>
+  </si>
+  <si>
+    <t>副本-272-4</t>
+  </si>
+  <si>
+    <t>副本-272-5</t>
+  </si>
+  <si>
+    <t>副本-272-8</t>
+  </si>
+  <si>
+    <t>副本-273-1</t>
+  </si>
+  <si>
+    <t>副本-273-2</t>
+  </si>
+  <si>
+    <t>副本-273-4</t>
+  </si>
+  <si>
+    <t>副本-273-5</t>
+  </si>
+  <si>
+    <t>副本-273-7</t>
+  </si>
+  <si>
+    <t>副本-273-8</t>
+  </si>
+  <si>
+    <t>副本-274-1</t>
+  </si>
+  <si>
+    <t>副本-274-2</t>
+  </si>
+  <si>
+    <t>副本-274-4</t>
+  </si>
+  <si>
+    <t>副本-274-7</t>
+  </si>
+  <si>
+    <t>副本-274-8</t>
+  </si>
+  <si>
+    <t>副本-275-1</t>
+  </si>
+  <si>
+    <t>副本-275-2</t>
+  </si>
+  <si>
+    <t>副本-275-4</t>
+  </si>
+  <si>
+    <t>副本-275-5</t>
+  </si>
+  <si>
+    <t>副本-275-7</t>
+  </si>
+  <si>
+    <t>副本-275-8</t>
+  </si>
+  <si>
+    <t>副本-277-2</t>
+  </si>
+  <si>
+    <t>副本-277-4</t>
+  </si>
+  <si>
+    <t>副本-277-5</t>
+  </si>
+  <si>
+    <t>副本-277-7</t>
+  </si>
+  <si>
+    <t>副本-277-8</t>
+  </si>
+  <si>
+    <t>副本-282-1</t>
+  </si>
+  <si>
+    <t>副本-282-2</t>
+  </si>
+  <si>
+    <t>副本-282-4</t>
+  </si>
+  <si>
+    <t>副本-282-5</t>
+  </si>
+  <si>
+    <t>副本-282-7</t>
+  </si>
+  <si>
+    <t>副本-282-8</t>
+  </si>
+  <si>
+    <t>副本-283-2</t>
+  </si>
+  <si>
+    <t>副本-283-4</t>
+  </si>
+  <si>
+    <t>副本-283-5</t>
+  </si>
+  <si>
+    <t>副本-283-7</t>
+  </si>
+  <si>
+    <t>副本-283-8</t>
+  </si>
+  <si>
+    <t>副本-284-1</t>
+  </si>
+  <si>
+    <t>副本-284-2</t>
+  </si>
+  <si>
+    <t>副本-284-4</t>
+  </si>
+  <si>
+    <t>副本-284-5</t>
+  </si>
+  <si>
+    <t>副本-284-7</t>
+  </si>
+  <si>
+    <t>副本-284-8</t>
+  </si>
+  <si>
+    <t>副本-285-1</t>
+  </si>
+  <si>
+    <t>副本-285-2</t>
+  </si>
+  <si>
+    <t>副本-285-4</t>
+  </si>
+  <si>
+    <t>副本-285-5</t>
+  </si>
+  <si>
+    <t>副本-285-7</t>
+  </si>
+  <si>
+    <t>副本-285-8</t>
+  </si>
+  <si>
+    <t>副本-227-3</t>
+  </si>
+  <si>
+    <t>副本-259-9</t>
+  </si>
+  <si>
+    <t>副本-269-3</t>
+  </si>
+  <si>
+    <t>副本-270-9</t>
+  </si>
+  <si>
+    <t>副本-271-10</t>
+  </si>
+  <si>
+    <t>副本-277-6</t>
+  </si>
+  <si>
+    <t>副本-282-9</t>
+  </si>
+  <si>
+    <t>副本-285-9</t>
+  </si>
+  <si>
+    <t>副本-227-6</t>
+  </si>
+  <si>
+    <t>副本-259-3</t>
+  </si>
+  <si>
+    <t>副本-227-9</t>
+  </si>
+  <si>
+    <t>副本-227-10</t>
+  </si>
+  <si>
+    <t>副本-273-6</t>
+  </si>
+  <si>
+    <t>副本-275-10</t>
+  </si>
+  <si>
+    <t>副本-277-3</t>
+  </si>
+  <si>
+    <t>副本-283-3</t>
+  </si>
+  <si>
+    <t>副本-228-1</t>
+  </si>
+  <si>
+    <t>副本-228-2</t>
+  </si>
+  <si>
+    <t>副本-228-4</t>
+  </si>
+  <si>
+    <t>副本-228-5</t>
+  </si>
+  <si>
+    <t>副本-228-8</t>
+  </si>
+  <si>
+    <t>副本-228-3</t>
+  </si>
+  <si>
+    <t>副本-237-3</t>
+  </si>
+  <si>
+    <t>副本-247-9</t>
+  </si>
+  <si>
+    <t>副本-250-6</t>
+  </si>
+  <si>
+    <t>副本-228-7</t>
+  </si>
+  <si>
+    <t>副本-230-4</t>
+  </si>
+  <si>
+    <t>副本-247-4</t>
+  </si>
+  <si>
+    <t>副本-272-7</t>
+  </si>
+  <si>
+    <t>副本-228-6</t>
+  </si>
+  <si>
+    <t>副本-247-6</t>
+  </si>
+  <si>
+    <t>副本-228-9</t>
+  </si>
+  <si>
+    <t>副本-229-1</t>
+  </si>
+  <si>
+    <t>副本-229-2</t>
+  </si>
+  <si>
+    <t>副本-229-4</t>
+  </si>
+  <si>
+    <t>副本-229-5</t>
+  </si>
+  <si>
+    <t>副本-229-7</t>
+  </si>
+  <si>
+    <t>副本-229-8</t>
+  </si>
+  <si>
+    <t>副本-250-1</t>
+  </si>
+  <si>
+    <t>副本-250-2</t>
+  </si>
+  <si>
+    <t>副本-250-4</t>
+  </si>
+  <si>
+    <t>副本-250-5</t>
+  </si>
+  <si>
+    <t>副本-250-7</t>
+  </si>
+  <si>
+    <t>副本-250-8</t>
+  </si>
+  <si>
+    <t>副本-252-2</t>
+  </si>
+  <si>
+    <t>副本-252-4</t>
+  </si>
+  <si>
+    <t>副本-252-5</t>
+  </si>
+  <si>
+    <t>副本-252-7</t>
+  </si>
+  <si>
+    <t>副本-252-8</t>
+  </si>
+  <si>
+    <t>副本-253-1</t>
+  </si>
+  <si>
+    <t>副本-253-2</t>
+  </si>
+  <si>
+    <t>副本-253-4</t>
+  </si>
+  <si>
+    <t>副本-253-5</t>
+  </si>
+  <si>
+    <t>副本-253-7</t>
+  </si>
+  <si>
+    <t>副本-253-8</t>
+  </si>
+  <si>
+    <t>副本-278-1</t>
+  </si>
+  <si>
+    <t>副本-278-2</t>
+  </si>
+  <si>
+    <t>副本-278-4</t>
+  </si>
+  <si>
+    <t>副本-278-5</t>
+  </si>
+  <si>
+    <t>副本-278-7</t>
+  </si>
+  <si>
+    <t>副本-278-8</t>
+  </si>
+  <si>
+    <t>副本-229-3</t>
+  </si>
+  <si>
+    <t>副本-235-6</t>
+  </si>
+  <si>
+    <t>副本-229-6</t>
+  </si>
+  <si>
+    <t>副本-235-9</t>
+  </si>
+  <si>
+    <t>副本-229-9</t>
+  </si>
+  <si>
+    <t>副本-232-9</t>
+  </si>
+  <si>
+    <t>副本-233-6</t>
+  </si>
+  <si>
+    <t>副本-250-9</t>
+  </si>
+  <si>
+    <t>副本-229-10</t>
+  </si>
+  <si>
+    <t>副本-231-9</t>
+  </si>
+  <si>
+    <t>副本-240-6</t>
+  </si>
+  <si>
+    <t>副本-230-1</t>
+  </si>
+  <si>
+    <t>副本-230-10</t>
+  </si>
+  <si>
+    <t>副本-231-1</t>
+  </si>
+  <si>
+    <t>副本-231-2</t>
+  </si>
+  <si>
+    <t>副本-231-4</t>
+  </si>
+  <si>
+    <t>副本-231-5</t>
+  </si>
+  <si>
+    <t>副本-231-7</t>
+  </si>
+  <si>
+    <t>副本-231-8</t>
+  </si>
+  <si>
+    <t>副本-235-1</t>
+  </si>
+  <si>
+    <t>副本-235-2</t>
+  </si>
+  <si>
+    <t>副本-235-4</t>
+  </si>
+  <si>
+    <t>副本-235-5</t>
+  </si>
+  <si>
+    <t>副本-235-7</t>
+  </si>
+  <si>
+    <t>副本-235-8</t>
+  </si>
+  <si>
+    <t>副本-231-3</t>
+  </si>
+  <si>
+    <t>副本-231-6</t>
+  </si>
+  <si>
+    <t>副本-231-10</t>
+  </si>
+  <si>
+    <t>副本-232-1</t>
+  </si>
+  <si>
+    <t>副本-232-2</t>
+  </si>
+  <si>
+    <t>副本-232-4</t>
+  </si>
+  <si>
+    <t>副本-232-5</t>
+  </si>
+  <si>
+    <t>副本-232-7</t>
+  </si>
+  <si>
+    <t>副本-232-8</t>
+  </si>
+  <si>
+    <t>副本-232-3</t>
+  </si>
+  <si>
+    <t>副本-235-3</t>
+  </si>
+  <si>
+    <t>副本-232-6</t>
+  </si>
+  <si>
+    <t>副本-232-10</t>
+  </si>
+  <si>
+    <t>副本-233-9</t>
+  </si>
+  <si>
+    <t>副本-233-1</t>
+  </si>
+  <si>
+    <t>副本-233-2</t>
+  </si>
+  <si>
+    <t>副本-233-4</t>
+  </si>
+  <si>
+    <t>副本-233-5</t>
+  </si>
+  <si>
+    <t>副本-233-7</t>
+  </si>
+  <si>
+    <t>副本-233-8</t>
+  </si>
+  <si>
+    <t>副本-233-10</t>
+  </si>
+  <si>
+    <t>副本-234-1</t>
+  </si>
+  <si>
+    <t>副本-234-2</t>
+  </si>
+  <si>
+    <t>副本-234-4</t>
+  </si>
+  <si>
+    <t>副本-234-5</t>
+  </si>
+  <si>
+    <t>副本-234-7</t>
+  </si>
+  <si>
+    <t>副本-234-8</t>
+  </si>
+  <si>
+    <t>副本-234-10</t>
+  </si>
+  <si>
+    <t>副本-234-6</t>
+  </si>
+  <si>
+    <t>副本-234-9</t>
+  </si>
+  <si>
+    <t>副本-235-10</t>
+  </si>
+  <si>
+    <t>副本-240-9</t>
+  </si>
+  <si>
+    <t>副本-236-5</t>
+  </si>
+  <si>
+    <t>副本-252-1</t>
+  </si>
+  <si>
+    <t>副本-277-1</t>
+  </si>
+  <si>
+    <t>副本-283-1</t>
+  </si>
+  <si>
+    <t>副本-236-8</t>
+  </si>
+  <si>
+    <t>副本-246-8</t>
+  </si>
+  <si>
+    <t>副本-256-2</t>
+  </si>
+  <si>
+    <t>副本-271-8</t>
+  </si>
+  <si>
+    <t>副本-238-3</t>
+  </si>
+  <si>
+    <t>副本-238-6</t>
+  </si>
+  <si>
+    <t>副本-239-7</t>
+  </si>
+  <si>
+    <t>副本-240-5</t>
+  </si>
+  <si>
+    <t>副本-241-1</t>
+  </si>
+  <si>
+    <t>副本-241-2</t>
+  </si>
+  <si>
+    <t>副本-241-4</t>
+  </si>
+  <si>
+    <t>副本-241-5</t>
+  </si>
+  <si>
+    <t>副本-241-7</t>
+  </si>
+  <si>
+    <t>副本-241-8</t>
+  </si>
+  <si>
+    <t>副本-242-1</t>
+  </si>
+  <si>
+    <t>副本-242-2</t>
+  </si>
+  <si>
+    <t>副本-242-4</t>
+  </si>
+  <si>
+    <t>副本-242-5</t>
+  </si>
+  <si>
+    <t>副本-242-7</t>
+  </si>
+  <si>
+    <t>副本-242-8</t>
+  </si>
+  <si>
+    <t>副本-242-10</t>
+  </si>
+  <si>
+    <t>副本-243-2</t>
+  </si>
+  <si>
+    <t>副本-243-4</t>
+  </si>
+  <si>
+    <t>副本-243-5</t>
+  </si>
+  <si>
+    <t>副本-243-7</t>
+  </si>
+  <si>
+    <t>副本-243-8</t>
+  </si>
+  <si>
+    <t>副本-243-10</t>
+  </si>
+  <si>
+    <t>副本-254-1</t>
+  </si>
+  <si>
+    <t>副本-254-2</t>
+  </si>
+  <si>
+    <t>副本-254-4</t>
+  </si>
+  <si>
+    <t>副本-254-5</t>
+  </si>
+  <si>
+    <t>副本-254-7</t>
+  </si>
+  <si>
+    <t>副本-254-8</t>
+  </si>
+  <si>
+    <t>副本-254-10</t>
+  </si>
+  <si>
+    <t>副本-241-3</t>
+  </si>
+  <si>
+    <t>副本-242-6</t>
+  </si>
+  <si>
+    <t>副本-243-9</t>
+  </si>
+  <si>
+    <t>副本-281-9</t>
+  </si>
+  <si>
+    <t>副本-241-6</t>
+  </si>
+  <si>
+    <t>副本-242-3</t>
+  </si>
+  <si>
+    <t>副本-241-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-241-10</t>
+  </si>
+  <si>
+    <t>副本-242-9</t>
+  </si>
+  <si>
+    <t>副本-243-3</t>
+  </si>
+  <si>
+    <t>副本-253-10</t>
+  </si>
+  <si>
+    <t>副本-254-9</t>
+  </si>
+  <si>
+    <t>副本-243-1</t>
+  </si>
+  <si>
+    <t>副本-243-6</t>
+  </si>
+  <si>
+    <t>副本-245-3</t>
+  </si>
+  <si>
+    <t>副本-280-3</t>
+  </si>
+  <si>
+    <t>副本-244-1</t>
+  </si>
+  <si>
+    <t>副本-244-2</t>
+  </si>
+  <si>
+    <t>副本-244-4</t>
+  </si>
+  <si>
+    <t>副本-244-5</t>
+  </si>
+  <si>
+    <t>副本-244-7</t>
+  </si>
+  <si>
+    <t>副本-244-8</t>
+  </si>
+  <si>
+    <t>副本-244-10</t>
+  </si>
+  <si>
+    <t>副本-245-1</t>
+  </si>
+  <si>
+    <t>副本-245-2</t>
+  </si>
+  <si>
+    <t>副本-245-4</t>
+  </si>
+  <si>
+    <t>副本-245-5</t>
+  </si>
+  <si>
+    <t>副本-245-7</t>
+  </si>
+  <si>
+    <t>副本-245-8</t>
+  </si>
+  <si>
+    <t>副本-280-1</t>
+  </si>
+  <si>
+    <t>副本-280-2</t>
+  </si>
+  <si>
+    <t>副本-280-4</t>
+  </si>
+  <si>
+    <t>副本-280-5</t>
+  </si>
+  <si>
+    <t>副本-280-7</t>
+  </si>
+  <si>
+    <t>副本-280-8</t>
+  </si>
+  <si>
+    <t>副本-281-1</t>
+  </si>
+  <si>
+    <t>副本-281-2</t>
+  </si>
+  <si>
+    <t>副本-281-4</t>
+  </si>
+  <si>
+    <t>副本-281-5</t>
+  </si>
+  <si>
+    <t>副本-281-7</t>
+  </si>
+  <si>
+    <t>副本-281-8</t>
+  </si>
+  <si>
+    <t>副本-281-10</t>
+  </si>
+  <si>
+    <t>副本-244-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-244-6</t>
+  </si>
+  <si>
+    <t>副本-244-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-245-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-245-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-245-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-246-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-246-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-246-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-246-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-247-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-248-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-248-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-248-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-249-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-250-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-251-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-251-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-251-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-251-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-252-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-252-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-252-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-252-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-253-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-253-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-253-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-254-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-254-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-255-1</t>
+  </si>
+  <si>
+    <t>副本-255-2</t>
+  </si>
+  <si>
+    <t>副本-255-4</t>
+  </si>
+  <si>
+    <t>副本-255-5</t>
+  </si>
+  <si>
+    <t>副本-255-7</t>
+  </si>
+  <si>
+    <t>副本-255-8</t>
+  </si>
+  <si>
+    <t>副本-258-1</t>
+  </si>
+  <si>
+    <t>副本-258-2</t>
+  </si>
+  <si>
+    <t>副本-258-4</t>
+  </si>
+  <si>
+    <t>副本-258-5</t>
+  </si>
+  <si>
+    <t>副本-258-7</t>
+  </si>
+  <si>
+    <t>副本-258-8</t>
+  </si>
+  <si>
+    <t>副本-260-1</t>
+  </si>
+  <si>
+    <t>副本-260-2</t>
+  </si>
+  <si>
+    <t>副本-260-4</t>
+  </si>
+  <si>
+    <t>副本-260-5</t>
+  </si>
+  <si>
+    <t>副本-260-7</t>
+  </si>
+  <si>
+    <t>副本-260-8</t>
+  </si>
+  <si>
+    <t>副本-274-10</t>
+  </si>
+  <si>
+    <t>副本-255-3</t>
+  </si>
+  <si>
+    <t>副本-269-6</t>
+  </si>
+  <si>
+    <t>副本-271-3</t>
+  </si>
+  <si>
+    <t>副本-255-6</t>
+  </si>
+  <si>
+    <t>副本-255-9</t>
+  </si>
+  <si>
+    <t>副本-255-10</t>
+  </si>
+  <si>
+    <t>副本-263-9</t>
+  </si>
+  <si>
+    <t>副本-265-9</t>
+  </si>
+  <si>
+    <t>副本-284-6</t>
+  </si>
+  <si>
+    <t>副本-256-3</t>
+  </si>
+  <si>
+    <t>副本-257-9</t>
+  </si>
+  <si>
+    <t>副本-256-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-256-9</t>
+  </si>
+  <si>
+    <t>副本-265-6</t>
+  </si>
+  <si>
+    <t>副本-267-10</t>
+  </si>
+  <si>
+    <t>副本-268-9</t>
+  </si>
+  <si>
+    <t>副本-274-5</t>
+  </si>
+  <si>
+    <t>副本-274-6</t>
+  </si>
+  <si>
+    <t>副本-256-10</t>
+  </si>
+  <si>
+    <t>副本-260-10</t>
+  </si>
+  <si>
+    <t>副本-283-10</t>
+  </si>
+  <si>
+    <t>副本-285-6</t>
+  </si>
+  <si>
+    <t>副本-257-3</t>
+  </si>
+  <si>
+    <t>副本-261-10</t>
+  </si>
+  <si>
+    <t>副本-263-10</t>
+  </si>
+  <si>
+    <t>副本-265-10</t>
+  </si>
+  <si>
+    <t>副本-267-3</t>
+  </si>
+  <si>
+    <t>副本-273-9</t>
+  </si>
+  <si>
+    <t>副本-275-3</t>
+  </si>
+  <si>
+    <t>副本-257-6</t>
+  </si>
+  <si>
+    <t>副本-258-10</t>
+  </si>
+  <si>
+    <t>副本-266-9</t>
+  </si>
+  <si>
+    <t>副本-272-10</t>
+  </si>
+  <si>
+    <t>副本-273-10</t>
+  </si>
+  <si>
+    <t>副本-257-10</t>
+  </si>
+  <si>
+    <t>副本-258-3</t>
+  </si>
+  <si>
+    <t>副本-260-6</t>
+  </si>
+  <si>
+    <t>副本-270-6</t>
+  </si>
+  <si>
+    <t>副本-258-6</t>
+  </si>
+  <si>
+    <t>副本-258-9</t>
+  </si>
+  <si>
+    <t>副本-260-3</t>
+  </si>
+  <si>
+    <t>副本-262-9</t>
+  </si>
+  <si>
+    <t>副本-263-3</t>
+  </si>
+  <si>
+    <t>副本-266-6</t>
+  </si>
+  <si>
+    <t>副本-268-3</t>
+  </si>
+  <si>
+    <t>副本-272-9</t>
+  </si>
+  <si>
+    <t>副本-259-6</t>
+  </si>
+  <si>
+    <t>副本-260-9</t>
+  </si>
+  <si>
+    <t>副本-261-9</t>
+  </si>
+  <si>
+    <t>副本-262-3</t>
+  </si>
+  <si>
+    <t>副本-266-3</t>
+  </si>
+  <si>
+    <t>副本-268-6</t>
+  </si>
+  <si>
+    <t>副本-272-3</t>
+  </si>
+  <si>
+    <t>副本-259-10</t>
+  </si>
+  <si>
+    <t>副本-282-10</t>
+  </si>
+  <si>
+    <t>副本-283-6</t>
+  </si>
+  <si>
+    <t>副本-285-10</t>
+  </si>
+  <si>
+    <t>副本-261-3</t>
+  </si>
+  <si>
+    <t>副本-262-6</t>
+  </si>
+  <si>
+    <t>副本-267-9</t>
+  </si>
+  <si>
+    <t>副本-273-3</t>
+  </si>
+  <si>
+    <t>副本-274-3</t>
+  </si>
+  <si>
+    <t>副本-261-4</t>
+  </si>
+  <si>
+    <t>副本-262-4</t>
+  </si>
+  <si>
+    <t>副本-265-5</t>
+  </si>
+  <si>
+    <t>副本-261-5</t>
+  </si>
+  <si>
+    <t>副本-261-6</t>
+  </si>
+  <si>
+    <t>副本-267-6</t>
+  </si>
+  <si>
+    <t>副本-275-6</t>
+  </si>
+  <si>
+    <t>副本-261-8</t>
+  </si>
+  <si>
+    <t>副本-262-7</t>
+  </si>
+  <si>
+    <t>副本-263-7</t>
+  </si>
+  <si>
+    <t>副本-267-4</t>
+  </si>
+  <si>
+    <t>副本-268-5</t>
+  </si>
+  <si>
+    <t>副本-269-7</t>
+  </si>
+  <si>
+    <t>副本-270-5</t>
+  </si>
+  <si>
+    <t>副本-262-8</t>
+  </si>
+  <si>
+    <t>副本-267-5</t>
+  </si>
+  <si>
+    <t>副本-269-8</t>
+  </si>
+  <si>
+    <t>副本-262-10</t>
+  </si>
+  <si>
+    <t>副本-266-10</t>
+  </si>
+  <si>
+    <t>副本-268-10</t>
+  </si>
+  <si>
+    <t>副本-274-9</t>
+  </si>
+  <si>
+    <t>副本-275-9</t>
+  </si>
+  <si>
+    <t>副本-284-3</t>
+  </si>
+  <si>
+    <t>副本-263-6</t>
+  </si>
+  <si>
+    <t>副本-269-10</t>
+  </si>
+  <si>
+    <t>副本-270-3</t>
+  </si>
+  <si>
+    <t>副本-272-6</t>
+  </si>
+  <si>
+    <t>副本-264-1</t>
+  </si>
+  <si>
+    <t>副本-264-2</t>
+  </si>
+  <si>
+    <t>副本-264-4</t>
+  </si>
+  <si>
+    <t>副本-264-7</t>
+  </si>
+  <si>
+    <t>副本-264-8</t>
+  </si>
+  <si>
+    <t>副本-264-10</t>
+  </si>
+  <si>
+    <t>副本-264-3</t>
+  </si>
+  <si>
+    <t>副本-264-6</t>
+  </si>
+  <si>
+    <t>副本-264-5</t>
+  </si>
+  <si>
+    <t>副本-264-9</t>
+  </si>
+  <si>
+    <t>副本-265-2</t>
+  </si>
+  <si>
+    <t>副本-269-5</t>
+  </si>
+  <si>
+    <t>副本-270-1</t>
+  </si>
+  <si>
+    <t>副本-271-2</t>
+  </si>
+  <si>
+    <t>副本-265-3</t>
+  </si>
+  <si>
+    <t>副本-282-3</t>
+  </si>
+  <si>
+    <t>副本-268-8</t>
+  </si>
+  <si>
+    <t>副本-269-9</t>
+  </si>
+  <si>
+    <t>副本-270-10</t>
+  </si>
+  <si>
+    <t>副本-271-6</t>
+  </si>
+  <si>
+    <t>副本-271-9</t>
+  </si>
+  <si>
+    <t>副本-277-9</t>
+  </si>
+  <si>
+    <t>副本-276-1</t>
+  </si>
+  <si>
+    <t>副本-276-2</t>
+  </si>
+  <si>
+    <t>副本-276-4</t>
+  </si>
+  <si>
+    <t>副本-276-5</t>
+  </si>
+  <si>
+    <t>副本-276-7</t>
+  </si>
+  <si>
+    <t>副本-276-8</t>
+  </si>
+  <si>
+    <t>副本-276-10</t>
+  </si>
+  <si>
+    <t>副本-276-3</t>
+  </si>
+  <si>
+    <t>副本-276-6</t>
+  </si>
+  <si>
+    <t>副本-276-9</t>
+  </si>
+  <si>
+    <t>副本-277-10</t>
+  </si>
+  <si>
+    <t>副本-283-9</t>
+  </si>
+  <si>
+    <t>副本-284-10</t>
+  </si>
+  <si>
+    <t>副本-278-3</t>
+  </si>
+  <si>
+    <t>副本-278-6</t>
+  </si>
+  <si>
+    <t>副本-278-9</t>
+  </si>
+  <si>
+    <t>副本-278-10</t>
+  </si>
+  <si>
+    <t>副本-279-1</t>
+  </si>
+  <si>
+    <t>副本-279-2</t>
+  </si>
+  <si>
+    <t>副本-279-4</t>
+  </si>
+  <si>
+    <t>副本-279-5</t>
+  </si>
+  <si>
+    <t>副本-279-7</t>
+  </si>
+  <si>
+    <t>副本-279-8</t>
+  </si>
+  <si>
+    <t>副本-279-10</t>
+  </si>
+  <si>
+    <t>副本-279-3</t>
+  </si>
+  <si>
+    <t>副本-279-6</t>
+  </si>
+  <si>
+    <t>副本-279-9</t>
+  </si>
+  <si>
+    <t>副本-280-6</t>
+  </si>
+  <si>
+    <t>副本-280-9</t>
+  </si>
+  <si>
+    <t>副本-280-10</t>
+  </si>
+  <si>
+    <t>副本-281-6</t>
+  </si>
+  <si>
+    <t>副本-281-3</t>
+  </si>
+  <si>
+    <t>副本-282-6</t>
+  </si>
+  <si>
+    <t>副本-284-9</t>
+  </si>
+  <si>
+    <t>副本-285-3</t>
   </si>
 </sst>
 </file>
@@ -8170,13 +10472,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2083"/>
+  <dimension ref="A1:B2833"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A2809" workbookViewId="0">
+      <selection activeCell="J2826" sqref="J2826"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -24840,6 +27145,6006 @@
       </c>
       <c r="B2083">
         <v>51640</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2084" t="s">
+        <v>2594</v>
+      </c>
+      <c r="B2084">
+        <v>51660</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2085" t="s">
+        <v>2595</v>
+      </c>
+      <c r="B2085">
+        <v>51680</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2086" t="s">
+        <v>2596</v>
+      </c>
+      <c r="B2086">
+        <v>51700</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2087" t="s">
+        <v>2597</v>
+      </c>
+      <c r="B2087">
+        <v>51720</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2088" t="s">
+        <v>2598</v>
+      </c>
+      <c r="B2088">
+        <v>51740</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2089" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B2089">
+        <v>51760</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2090" t="s">
+        <v>2600</v>
+      </c>
+      <c r="B2090">
+        <v>51780</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2091" t="s">
+        <v>2601</v>
+      </c>
+      <c r="B2091">
+        <v>51800</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2092" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B2092">
+        <v>51820</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2093" t="s">
+        <v>2603</v>
+      </c>
+      <c r="B2093">
+        <v>51840</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2094" t="s">
+        <v>2604</v>
+      </c>
+      <c r="B2094">
+        <v>51860</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2095" t="s">
+        <v>2605</v>
+      </c>
+      <c r="B2095">
+        <v>51880</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2096" t="s">
+        <v>2606</v>
+      </c>
+      <c r="B2096">
+        <v>51900</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2097" t="s">
+        <v>2607</v>
+      </c>
+      <c r="B2097">
+        <v>51920</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2098" t="s">
+        <v>2608</v>
+      </c>
+      <c r="B2098">
+        <v>51940</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2099" t="s">
+        <v>2609</v>
+      </c>
+      <c r="B2099">
+        <v>51960</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2100" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B2100">
+        <v>51980</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2101" t="s">
+        <v>2611</v>
+      </c>
+      <c r="B2101">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2102" t="s">
+        <v>2612</v>
+      </c>
+      <c r="B2102">
+        <v>52020</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2103" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B2103">
+        <v>52040</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2104" t="s">
+        <v>2614</v>
+      </c>
+      <c r="B2104">
+        <v>52060</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2105" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B2105">
+        <v>52080</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2106" t="s">
+        <v>2616</v>
+      </c>
+      <c r="B2106">
+        <v>52100</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2107" t="s">
+        <v>2617</v>
+      </c>
+      <c r="B2107">
+        <v>52120</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2108" t="s">
+        <v>2618</v>
+      </c>
+      <c r="B2108">
+        <v>52140</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2109" t="s">
+        <v>2619</v>
+      </c>
+      <c r="B2109">
+        <v>52160</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2110" t="s">
+        <v>2620</v>
+      </c>
+      <c r="B2110">
+        <v>52180</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2111" t="s">
+        <v>2621</v>
+      </c>
+      <c r="B2111">
+        <v>52200</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2112" t="s">
+        <v>2622</v>
+      </c>
+      <c r="B2112">
+        <v>52220</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2113" t="s">
+        <v>2623</v>
+      </c>
+      <c r="B2113">
+        <v>52240</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2114" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B2114">
+        <v>52260</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2115" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B2115">
+        <v>52280</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2116" t="s">
+        <v>2626</v>
+      </c>
+      <c r="B2116">
+        <v>52300</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2117" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B2117">
+        <v>52320</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2118" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B2118">
+        <v>52340</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2119" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B2119">
+        <v>52360</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2120" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B2120">
+        <v>52380</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2121" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B2121">
+        <v>52400</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2122" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B2122">
+        <v>52420</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2123" t="s">
+        <v>2633</v>
+      </c>
+      <c r="B2123">
+        <v>52440</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2124" t="s">
+        <v>2634</v>
+      </c>
+      <c r="B2124">
+        <v>52460</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2125" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B2125">
+        <v>52480</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2126" t="s">
+        <v>2636</v>
+      </c>
+      <c r="B2126">
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2127" t="s">
+        <v>2637</v>
+      </c>
+      <c r="B2127">
+        <v>52520</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2128" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B2128">
+        <v>52540</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2129" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B2129">
+        <v>52560</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2130" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B2130">
+        <v>52580</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2131" t="s">
+        <v>2641</v>
+      </c>
+      <c r="B2131">
+        <v>52600</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2132" t="s">
+        <v>2642</v>
+      </c>
+      <c r="B2132">
+        <v>52620</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2133" t="s">
+        <v>2656</v>
+      </c>
+      <c r="B2133">
+        <v>52640</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2134" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B2134">
+        <v>52660</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2135" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B2135">
+        <v>52680</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2136" t="s">
+        <v>2653</v>
+      </c>
+      <c r="B2136">
+        <v>52700</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2137" t="s">
+        <v>2657</v>
+      </c>
+      <c r="B2137">
+        <v>52720</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2138" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B2138">
+        <v>52740</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2139" t="s">
+        <v>2669</v>
+      </c>
+      <c r="B2139">
+        <v>52760</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2140" t="s">
+        <v>2673</v>
+      </c>
+      <c r="B2140">
+        <v>52780</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2141" t="s">
+        <v>2681</v>
+      </c>
+      <c r="B2141">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2142" t="s">
+        <v>2684</v>
+      </c>
+      <c r="B2142">
+        <v>52820</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2143" t="s">
+        <v>2685</v>
+      </c>
+      <c r="B2143">
+        <v>52840</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2144" t="s">
+        <v>2688</v>
+      </c>
+      <c r="B2144">
+        <v>52860</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2145" t="s">
+        <v>2686</v>
+      </c>
+      <c r="B2145">
+        <v>52880</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2146" t="s">
+        <v>2670</v>
+      </c>
+      <c r="B2146">
+        <v>52900</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2147" t="s">
+        <v>2691</v>
+      </c>
+      <c r="B2147">
+        <v>52920</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2148" t="s">
+        <v>2687</v>
+      </c>
+      <c r="B2148">
+        <v>52940</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2149" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B2149">
+        <v>52960</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2150" t="s">
+        <v>2702</v>
+      </c>
+      <c r="B2150">
+        <v>52980</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2151" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B2151">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2152" t="s">
+        <v>2705</v>
+      </c>
+      <c r="B2152">
+        <v>53020</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2153" t="s">
+        <v>2715</v>
+      </c>
+      <c r="B2153">
+        <v>53040</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2154" t="s">
+        <v>2716</v>
+      </c>
+      <c r="B2154">
+        <v>53060</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2155" t="s">
+        <v>2717</v>
+      </c>
+      <c r="B2155">
+        <v>53080</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2156" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B2156">
+        <v>53100</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2157" t="s">
+        <v>2718</v>
+      </c>
+      <c r="B2157">
+        <v>53120</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2158" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B2158">
+        <v>53140</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2159" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B2159">
+        <v>53160</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2160" t="s">
+        <v>2720</v>
+      </c>
+      <c r="B2160">
+        <v>53180</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2161" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B2161">
+        <v>53200</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2162" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B2162">
+        <v>53220</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2163" t="s">
+        <v>2797</v>
+      </c>
+      <c r="B2163">
+        <v>53240</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2164" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B2164">
+        <v>53260</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2165" t="s">
+        <v>2799</v>
+      </c>
+      <c r="B2165">
+        <v>53280</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2166" t="s">
+        <v>2761</v>
+      </c>
+      <c r="B2166">
+        <v>53300</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2167" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B2167">
+        <v>53320</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2168" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B2168">
+        <v>53340</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2169" t="s">
+        <v>2750</v>
+      </c>
+      <c r="B2169">
+        <v>53360</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2170" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B2170">
+        <v>53380</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2171" t="s">
+        <v>2803</v>
+      </c>
+      <c r="B2171">
+        <v>53400</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2172" t="s">
+        <v>2671</v>
+      </c>
+      <c r="B2172">
+        <v>53420</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2173" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B2173">
+        <v>53440</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2174" t="s">
+        <v>2722</v>
+      </c>
+      <c r="B2174">
+        <v>53460</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2175" t="s">
+        <v>2723</v>
+      </c>
+      <c r="B2175">
+        <v>53480</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2176" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B2176">
+        <v>53500</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2177" t="s">
+        <v>2724</v>
+      </c>
+      <c r="B2177">
+        <v>53520</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2178" t="s">
+        <v>2725</v>
+      </c>
+      <c r="B2178">
+        <v>53540</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2179" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B2179">
+        <v>53560</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2180" t="s">
+        <v>2726</v>
+      </c>
+      <c r="B2180">
+        <v>53580</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2181" t="s">
+        <v>2727</v>
+      </c>
+      <c r="B2181">
+        <v>53600</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2182" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B2182">
+        <v>53620</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2183" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B2183">
+        <v>53640</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2184" t="s">
+        <v>2645</v>
+      </c>
+      <c r="B2184">
+        <v>53660</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2185" t="s">
+        <v>2709</v>
+      </c>
+      <c r="B2185">
+        <v>53680</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2186" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B2186">
+        <v>53700</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2187" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B2187">
+        <v>53720</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2188" t="s">
+        <v>2663</v>
+      </c>
+      <c r="B2188">
+        <v>53740</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2189" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B2189">
+        <v>53760</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2190" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B2190">
+        <v>53780</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2191" t="s">
+        <v>2674</v>
+      </c>
+      <c r="B2191">
+        <v>53800</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2192" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B2192">
+        <v>53820</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2193" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B2193">
+        <v>53840</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2194" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B2194">
+        <v>53860</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2195" t="s">
+        <v>2729</v>
+      </c>
+      <c r="B2195">
+        <v>53880</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2196" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B2196">
+        <v>53900</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2197" t="s">
+        <v>2827</v>
+      </c>
+      <c r="B2197">
+        <v>53920</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2198" t="s">
+        <v>2730</v>
+      </c>
+      <c r="B2198">
+        <v>53940</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2199" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B2199">
+        <v>53960</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2200" t="s">
+        <v>2731</v>
+      </c>
+      <c r="B2200">
+        <v>53980</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2201" t="s">
+        <v>2732</v>
+      </c>
+      <c r="B2201">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2202" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B2202">
+        <v>54020</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2203" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B2203">
+        <v>54040</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2204" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B2204">
+        <v>54060</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2205" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B2205">
+        <v>54080</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2206" t="s">
+        <v>2828</v>
+      </c>
+      <c r="B2206">
+        <v>54100</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2207" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B2207">
+        <v>54120</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2208" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B2208">
+        <v>54140</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2209" t="s">
+        <v>2654</v>
+      </c>
+      <c r="B2209">
+        <v>54160</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2210" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B2210">
+        <v>54180</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2211" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B2211">
+        <v>54200</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2212" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B2212">
+        <v>54220</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2213" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B2213">
+        <v>54240</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2214" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B2214">
+        <v>54260</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2215" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B2215">
+        <v>54280</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2216" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B2216">
+        <v>54300</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2217" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B2217">
+        <v>54320</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2218" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B2218">
+        <v>54340</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2219" t="s">
+        <v>2823</v>
+      </c>
+      <c r="B2219">
+        <v>54360</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2220" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B2220">
+        <v>54380</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2221" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B2221">
+        <v>54400</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2222" t="s">
+        <v>2754</v>
+      </c>
+      <c r="B2222">
+        <v>54420</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2223" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B2223">
+        <v>54440</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2224" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B2224">
+        <v>54460</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2225" t="s">
+        <v>2734</v>
+      </c>
+      <c r="B2225">
+        <v>54480</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2226" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B2226">
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2227" t="s">
+        <v>2735</v>
+      </c>
+      <c r="B2227">
+        <v>54520</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2228" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B2228">
+        <v>54540</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2229" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B2229">
+        <v>54560</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2230" t="s">
+        <v>2737</v>
+      </c>
+      <c r="B2230">
+        <v>54580</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2231" t="s">
+        <v>2738</v>
+      </c>
+      <c r="B2231">
+        <v>54600</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2232" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B2232">
+        <v>54620</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2233" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B2233">
+        <v>54640</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2234" t="s">
+        <v>2646</v>
+      </c>
+      <c r="B2234">
+        <v>54660</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2235" t="s">
+        <v>2689</v>
+      </c>
+      <c r="B2235">
+        <v>54680</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2236" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B2236">
+        <v>54700</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2237" t="s">
+        <v>2658</v>
+      </c>
+      <c r="B2237">
+        <v>54720</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2238" t="s">
+        <v>2675</v>
+      </c>
+      <c r="B2238">
+        <v>54740</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2239" t="s">
+        <v>2825</v>
+      </c>
+      <c r="B2239">
+        <v>54760</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2240" t="s">
+        <v>2692</v>
+      </c>
+      <c r="B2240">
+        <v>54780</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2241" t="s">
+        <v>2710</v>
+      </c>
+      <c r="B2241">
+        <v>54800</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2242" t="s">
+        <v>2756</v>
+      </c>
+      <c r="B2242">
+        <v>54820</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2243" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B2243">
+        <v>54840</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2244" t="s">
+        <v>2839</v>
+      </c>
+      <c r="B2244">
+        <v>54860</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2245" t="s">
+        <v>2840</v>
+      </c>
+      <c r="B2245">
+        <v>54880</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2246" t="s">
+        <v>2952</v>
+      </c>
+      <c r="B2246">
+        <v>54900</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2247" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B2247">
+        <v>54920</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2248" t="s">
+        <v>2842</v>
+      </c>
+      <c r="B2248">
+        <v>54940</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2249" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B2249">
+        <v>54960</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2250" t="s">
+        <v>2843</v>
+      </c>
+      <c r="B2250">
+        <v>54980</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2251" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B2251">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2252" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B2252">
+        <v>55020</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2253" t="s">
+        <v>2963</v>
+      </c>
+      <c r="B2253">
+        <v>55040</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2254" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B2254">
+        <v>55060</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2255" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B2255">
+        <v>55080</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2256" t="s">
+        <v>2973</v>
+      </c>
+      <c r="B2256">
+        <v>55100</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2257" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B2257">
+        <v>55120</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2258" t="s">
+        <v>2971</v>
+      </c>
+      <c r="B2258">
+        <v>55140</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2259" t="s">
+        <v>2981</v>
+      </c>
+      <c r="B2259">
+        <v>55160</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2260" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B2260">
+        <v>55180</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2261" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B2261">
+        <v>55200</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2262" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B2262">
+        <v>55220</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2263" t="s">
+        <v>2829</v>
+      </c>
+      <c r="B2263">
+        <v>55240</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2264" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B2264">
+        <v>55260</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2265" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B2265">
+        <v>55280</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2266" t="s">
+        <v>3013</v>
+      </c>
+      <c r="B2266">
+        <v>55300</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2267" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B2267">
+        <v>55320</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2268" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B2268">
+        <v>55340</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2269" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B2269">
+        <v>55360</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2270" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B2270">
+        <v>55380</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2271" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B2271">
+        <v>55400</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2272" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B2272">
+        <v>55420</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2273" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B2273">
+        <v>55440</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2274" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B2274">
+        <v>55460</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2275" t="s">
+        <v>2676</v>
+      </c>
+      <c r="B2275">
+        <v>55480</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2276" t="s">
+        <v>2706</v>
+      </c>
+      <c r="B2276">
+        <v>55500</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2277" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B2277">
+        <v>55520</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2278" t="s">
+        <v>2693</v>
+      </c>
+      <c r="B2278">
+        <v>55540</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2279" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B2279">
+        <v>55560</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2280" t="s">
+        <v>2650</v>
+      </c>
+      <c r="B2280">
+        <v>55580</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2281" t="s">
+        <v>2711</v>
+      </c>
+      <c r="B2281">
+        <v>55600</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2282" t="s">
+        <v>2655</v>
+      </c>
+      <c r="B2282">
+        <v>55620</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2283" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B2283">
+        <v>55640</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2284" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B2284">
+        <v>55660</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2285" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B2285">
+        <v>55680</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2286" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B2286">
+        <v>55700</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2287" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B2287">
+        <v>55720</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2288" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B2288">
+        <v>55740</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2289" t="s">
+        <v>3039</v>
+      </c>
+      <c r="B2289">
+        <v>55760</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2290" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B2290">
+        <v>55780</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2291" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B2291">
+        <v>55800</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2292" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B2292">
+        <v>55820</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2293" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B2293">
+        <v>55840</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2294" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B2294">
+        <v>55860</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2295" t="s">
+        <v>3042</v>
+      </c>
+      <c r="B2295">
+        <v>55880</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2296" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B2296">
+        <v>55900</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2297" t="s">
+        <v>3043</v>
+      </c>
+      <c r="B2297">
+        <v>55920</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2298" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B2298">
+        <v>55940</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2299" t="s">
+        <v>3049</v>
+      </c>
+      <c r="B2299">
+        <v>55960</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2300" t="s">
+        <v>3045</v>
+      </c>
+      <c r="B2300">
+        <v>55980</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2301" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B2301">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2302" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B2302">
+        <v>56020</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2303" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B2303">
+        <v>56040</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2304" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B2304">
+        <v>56060</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2305" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B2305">
+        <v>56080</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2306" t="s">
+        <v>2699</v>
+      </c>
+      <c r="B2306">
+        <v>56100</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2307" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B2307">
+        <v>56120</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2308" t="s">
+        <v>3055</v>
+      </c>
+      <c r="B2308">
+        <v>56140</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2309" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B2309">
+        <v>56160</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2310" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B2310">
+        <v>56180</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2311" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B2311">
+        <v>56200</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2312" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B2312">
+        <v>56220</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2313" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B2313">
+        <v>56240</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2314" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B2314">
+        <v>56260</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2315" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B2315">
+        <v>56280</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2316" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B2316">
+        <v>56300</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2317" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B2317">
+        <v>56320</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2318" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B2318">
+        <v>56340</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2319" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B2319">
+        <v>56360</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2320" t="s">
+        <v>3063</v>
+      </c>
+      <c r="B2320">
+        <v>56380</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2321" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B2321">
+        <v>56400</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2322" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B2322">
+        <v>56420</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2323" t="s">
+        <v>3065</v>
+      </c>
+      <c r="B2323">
+        <v>56440</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2324" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B2324">
+        <v>56460</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2325" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B2325">
+        <v>56480</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2326" t="s">
+        <v>3048</v>
+      </c>
+      <c r="B2326">
+        <v>56500</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2327" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B2327">
+        <v>56520</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2328" t="s">
+        <v>3035</v>
+      </c>
+      <c r="B2328">
+        <v>56540</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2329" t="s">
+        <v>3014</v>
+      </c>
+      <c r="B2329">
+        <v>56560</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2330" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B2330">
+        <v>56580</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2331" t="s">
+        <v>3037</v>
+      </c>
+      <c r="B2331">
+        <v>56600</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2332" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B2332">
+        <v>56620</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2333" t="s">
+        <v>3068</v>
+      </c>
+      <c r="B2333">
+        <v>56640</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2334" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B2334">
+        <v>56660</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2335" t="s">
+        <v>2740</v>
+      </c>
+      <c r="B2335">
+        <v>56680</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2336" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B2336">
+        <v>56700</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2337" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B2337">
+        <v>56720</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2338" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B2338">
+        <v>56740</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2339" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B2339">
+        <v>56760</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2340" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B2340">
+        <v>56780</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2341" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B2341">
+        <v>56800</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2342" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B2342">
+        <v>56820</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2343" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B2343">
+        <v>56840</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2344" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B2344">
+        <v>56860</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2345" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B2345">
+        <v>56880</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2346" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B2346">
+        <v>56900</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2347" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B2347">
+        <v>56920</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2348" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B2348">
+        <v>56940</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2349" t="s">
+        <v>2810</v>
+      </c>
+      <c r="B2349">
+        <v>56960</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2350" t="s">
+        <v>2785</v>
+      </c>
+      <c r="B2350">
+        <v>56980</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2351" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B2351">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2352" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B2352">
+        <v>57020</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2353" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B2353">
+        <v>57040</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2354" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B2354">
+        <v>57060</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2355" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B2355">
+        <v>57080</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2356" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B2356">
+        <v>57100</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2357" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B2357">
+        <v>57120</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2358" t="s">
+        <v>2746</v>
+      </c>
+      <c r="B2358">
+        <v>57140</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2359" t="s">
+        <v>3079</v>
+      </c>
+      <c r="B2359">
+        <v>57160</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2360" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B2360">
+        <v>57180</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2361" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B2361">
+        <v>57200</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2362" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B2362">
+        <v>57220</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2363" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B2363">
+        <v>57240</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2364" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B2364">
+        <v>57260</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2365" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B2365">
+        <v>57280</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2366" t="s">
+        <v>2707</v>
+      </c>
+      <c r="B2366">
+        <v>57300</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2367" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B2367">
+        <v>57320</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2368" t="s">
+        <v>2791</v>
+      </c>
+      <c r="B2368">
+        <v>57340</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2369" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B2369">
+        <v>57360</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2370" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B2370">
+        <v>57380</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2371" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B2371">
+        <v>57400</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2372" t="s">
+        <v>2672</v>
+      </c>
+      <c r="B2372">
+        <v>57420</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2373" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B2373">
+        <v>57440</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2374" t="s">
+        <v>2651</v>
+      </c>
+      <c r="B2374">
+        <v>57460</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2375" t="s">
+        <v>2712</v>
+      </c>
+      <c r="B2375">
+        <v>57480</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2376" t="s">
+        <v>2701</v>
+      </c>
+      <c r="B2376">
+        <v>57500</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2377" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B2377">
+        <v>57520</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2378" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B2378">
+        <v>57540</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2379" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B2379">
+        <v>57560</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2380" t="s">
+        <v>2694</v>
+      </c>
+      <c r="B2380">
+        <v>57580</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2381" t="s">
+        <v>2664</v>
+      </c>
+      <c r="B2381">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2382" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B2382">
+        <v>57620</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2383" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B2383">
+        <v>57640</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2384" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B2384">
+        <v>57660</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2385" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B2385">
+        <v>57680</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2386" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B2386">
+        <v>57700</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2387" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B2387">
+        <v>57720</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2388" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B2388">
+        <v>57740</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2389" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B2389">
+        <v>57760</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2390" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B2390">
+        <v>57780</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2391" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B2391">
+        <v>57800</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2392" t="s">
+        <v>3114</v>
+      </c>
+      <c r="B2392">
+        <v>57820</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2393" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B2393">
+        <v>57840</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2394" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B2394">
+        <v>57860</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2395" t="s">
+        <v>3089</v>
+      </c>
+      <c r="B2395">
+        <v>57880</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2396" t="s">
+        <v>3113</v>
+      </c>
+      <c r="B2396">
+        <v>57900</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2397" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B2397">
+        <v>57920</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2398" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B2398">
+        <v>57940</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2399" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B2399">
+        <v>57960</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2400" t="s">
+        <v>3092</v>
+      </c>
+      <c r="B2400">
+        <v>57980</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2401" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B2401">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2402" t="s">
+        <v>3116</v>
+      </c>
+      <c r="B2402">
+        <v>58020</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2403" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B2403">
+        <v>58040</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2404" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B2404">
+        <v>58060</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2405" t="s">
+        <v>3095</v>
+      </c>
+      <c r="B2405">
+        <v>58080</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2406" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B2406">
+        <v>58100</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2407" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B2407">
+        <v>58120</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2408" t="s">
+        <v>3097</v>
+      </c>
+      <c r="B2408">
+        <v>58140</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2409" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B2409">
+        <v>58160</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2410" t="s">
+        <v>3098</v>
+      </c>
+      <c r="B2410">
+        <v>58180</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2411" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B2411">
+        <v>58200</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2412" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B2412">
+        <v>58220</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2413" t="s">
+        <v>3100</v>
+      </c>
+      <c r="B2413">
+        <v>58240</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2414" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B2414">
+        <v>58260</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2415" t="s">
+        <v>3125</v>
+      </c>
+      <c r="B2415">
+        <v>58280</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2416" t="s">
+        <v>3150</v>
+      </c>
+      <c r="B2416">
+        <v>58300</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2417" t="s">
+        <v>3126</v>
+      </c>
+      <c r="B2417">
+        <v>58320</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2418" t="s">
+        <v>3127</v>
+      </c>
+      <c r="B2418">
+        <v>58340</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2419" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B2419">
+        <v>58360</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2420" t="s">
+        <v>3128</v>
+      </c>
+      <c r="B2420">
+        <v>58380</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2421" t="s">
+        <v>3129</v>
+      </c>
+      <c r="B2421">
+        <v>58400</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2422" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B2422">
+        <v>58420</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2423" t="s">
+        <v>3130</v>
+      </c>
+      <c r="B2423">
+        <v>58440</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2424" t="s">
+        <v>3131</v>
+      </c>
+      <c r="B2424">
+        <v>58460</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2425" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B2425">
+        <v>58480</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2426" t="s">
+        <v>3122</v>
+      </c>
+      <c r="B2426">
+        <v>58500</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2427" t="s">
+        <v>3133</v>
+      </c>
+      <c r="B2427">
+        <v>58520</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2428" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B2428">
+        <v>58540</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2429" t="s">
+        <v>3153</v>
+      </c>
+      <c r="B2429">
+        <v>58560</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2430" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B2430">
+        <v>58580</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2431" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B2431">
+        <v>58600</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2432" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B2432">
+        <v>58620</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2433" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B2433">
+        <v>58640</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2434" t="s">
+        <v>2647</v>
+      </c>
+      <c r="B2434">
+        <v>58660</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2435" t="s">
+        <v>2665</v>
+      </c>
+      <c r="B2435">
+        <v>58680</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2436" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B2436">
+        <v>58700</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2437" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B2437">
+        <v>58720</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2438" t="s">
+        <v>2695</v>
+      </c>
+      <c r="B2438">
+        <v>58740</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2439" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B2439">
+        <v>58760</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2440" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B2440">
+        <v>58780</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2441" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B2441">
+        <v>58800</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2442" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B2442">
+        <v>58820</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2443" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B2443">
+        <v>58840</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2444" t="s">
+        <v>2831</v>
+      </c>
+      <c r="B2444">
+        <v>58860</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2445" t="s">
+        <v>2832</v>
+      </c>
+      <c r="B2445">
+        <v>58880</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2446" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B2446">
+        <v>58900</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2447" t="s">
+        <v>2979</v>
+      </c>
+      <c r="B2447">
+        <v>58920</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2448" t="s">
+        <v>2833</v>
+      </c>
+      <c r="B2448">
+        <v>58940</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2449" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B2449">
+        <v>58960</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2450" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B2450">
+        <v>58980</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2451" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B2451">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2452" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B2452">
+        <v>59020</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2453" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B2453">
+        <v>59040</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2454" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B2454">
+        <v>59060</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2455" t="s">
+        <v>2696</v>
+      </c>
+      <c r="B2455">
+        <v>59080</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2456" t="s">
+        <v>3161</v>
+      </c>
+      <c r="B2456">
+        <v>59100</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2457" t="s">
+        <v>2652</v>
+      </c>
+      <c r="B2457">
+        <v>59120</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2458" t="s">
+        <v>2682</v>
+      </c>
+      <c r="B2458">
+        <v>59140</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2459" t="s">
+        <v>3162</v>
+      </c>
+      <c r="B2459">
+        <v>59160</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2460" t="s">
+        <v>2704</v>
+      </c>
+      <c r="B2460">
+        <v>59180</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2461" t="s">
+        <v>2678</v>
+      </c>
+      <c r="B2461">
+        <v>59200</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2462" t="s">
+        <v>3163</v>
+      </c>
+      <c r="B2462">
+        <v>59220</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2463" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B2463">
+        <v>59240</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2464" t="s">
+        <v>2713</v>
+      </c>
+      <c r="B2464">
+        <v>59260</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2465" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B2465">
+        <v>59280</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2466" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B2466">
+        <v>59300</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2467" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B2467">
+        <v>59320</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2468" t="s">
+        <v>2679</v>
+      </c>
+      <c r="B2468">
+        <v>59340</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2469" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B2469">
+        <v>59360</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2470" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B2470">
+        <v>59380</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2471" t="s">
+        <v>2820</v>
+      </c>
+      <c r="B2471">
+        <v>59400</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2472" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B2472">
+        <v>59420</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2473" t="s">
+        <v>2643</v>
+      </c>
+      <c r="B2473">
+        <v>59440</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2474" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B2474">
+        <v>59460</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2475" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B2475">
+        <v>59480</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2476" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B2476">
+        <v>59500</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2477" t="s">
+        <v>2992</v>
+      </c>
+      <c r="B2477">
+        <v>59520</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2478" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B2478">
+        <v>59540</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2479" t="s">
+        <v>2976</v>
+      </c>
+      <c r="B2479">
+        <v>59560</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2480" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B2480">
+        <v>59580</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2481" t="s">
+        <v>2995</v>
+      </c>
+      <c r="B2481">
+        <v>59600</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2482" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B2482">
+        <v>59620</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2483" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B2483">
+        <v>59640</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2484" t="s">
+        <v>2668</v>
+      </c>
+      <c r="B2484">
+        <v>59660</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2485" t="s">
+        <v>2683</v>
+      </c>
+      <c r="B2485">
+        <v>59680</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2486" t="s">
+        <v>3166</v>
+      </c>
+      <c r="B2486">
+        <v>59700</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2487" t="s">
+        <v>2697</v>
+      </c>
+      <c r="B2487">
+        <v>59720</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2488" t="s">
+        <v>2714</v>
+      </c>
+      <c r="B2488">
+        <v>59740</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2489" t="s">
+        <v>3167</v>
+      </c>
+      <c r="B2489">
+        <v>59760</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2490" t="s">
+        <v>2680</v>
+      </c>
+      <c r="B2490">
+        <v>59780</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2491" t="s">
+        <v>2690</v>
+      </c>
+      <c r="B2491">
+        <v>59800</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2492" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B2492">
+        <v>59820</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2493" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B2493">
+        <v>59840</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2494" t="s">
+        <v>3071</v>
+      </c>
+      <c r="B2494">
+        <v>59860</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2495" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B2495">
+        <v>59880</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2496" t="s">
+        <v>3170</v>
+      </c>
+      <c r="B2496">
+        <v>59900</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2497" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B2497">
+        <v>59920</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2498" t="s">
+        <v>2998</v>
+      </c>
+      <c r="B2498">
+        <v>59940</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2499" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B2499">
+        <v>59960</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2500" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B2500">
+        <v>59980</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2501" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B2501">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2502" t="s">
+        <v>3172</v>
+      </c>
+      <c r="B2502">
+        <v>60020</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2503" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B2503">
+        <v>60040</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2504" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B2504">
+        <v>60060</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2505" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B2505">
+        <v>60080</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2506" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B2506">
+        <v>60100</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2507" t="s">
+        <v>3003</v>
+      </c>
+      <c r="B2507">
+        <v>60120</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2508" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B2508">
+        <v>60140</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2509" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B2509">
+        <v>60160</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2510" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B2510">
+        <v>60180</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2511" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B2511">
+        <v>60200</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2512" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B2512">
+        <v>60220</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2513" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B2513">
+        <v>60240</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2514" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B2514">
+        <v>60260</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2515" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B2515">
+        <v>60280</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2516" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B2516">
+        <v>60300</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2517" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B2517">
+        <v>60320</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2518" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B2518">
+        <v>60340</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2519" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B2519">
+        <v>60360</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2520" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B2520">
+        <v>60380</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2521" t="s">
+        <v>3106</v>
+      </c>
+      <c r="B2521">
+        <v>60400</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2522" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B2522">
+        <v>60420</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2523" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B2523">
+        <v>60440</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2524" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B2524">
+        <v>60460</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2525" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B2525">
+        <v>60480</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2526" t="s">
+        <v>3198</v>
+      </c>
+      <c r="B2526">
+        <v>60500</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2527" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B2527">
+        <v>60520</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2528" t="s">
+        <v>3182</v>
+      </c>
+      <c r="B2528">
+        <v>60540</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2529" t="s">
+        <v>3201</v>
+      </c>
+      <c r="B2529">
+        <v>60560</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2530" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B2530">
+        <v>60580</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2531" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B2531">
+        <v>60600</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2532" t="s">
+        <v>3202</v>
+      </c>
+      <c r="B2532">
+        <v>60620</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2533" t="s">
+        <v>3203</v>
+      </c>
+      <c r="B2533">
+        <v>60640</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2534" t="s">
+        <v>2845</v>
+      </c>
+      <c r="B2534">
+        <v>60660</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2535" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B2535">
+        <v>60680</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2536" t="s">
+        <v>3207</v>
+      </c>
+      <c r="B2536">
+        <v>60700</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2537" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B2537">
+        <v>60720</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2538" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B2538">
+        <v>60740</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2539" t="s">
+        <v>3209</v>
+      </c>
+      <c r="B2539">
+        <v>60760</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2540" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B2540">
+        <v>60780</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2541" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B2541">
+        <v>60800</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2542" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B2542">
+        <v>60820</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2543" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B2543">
+        <v>60840</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2544" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B2544">
+        <v>60860</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2545" t="s">
+        <v>2851</v>
+      </c>
+      <c r="B2545">
+        <v>60880</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2546" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B2546">
+        <v>60900</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2547" t="s">
+        <v>2852</v>
+      </c>
+      <c r="B2547">
+        <v>60920</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2548" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B2548">
+        <v>60940</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2549" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B2549">
+        <v>60960</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2550" t="s">
+        <v>2854</v>
+      </c>
+      <c r="B2550">
+        <v>60980</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2551" t="s">
+        <v>2855</v>
+      </c>
+      <c r="B2551">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2552" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B2552">
+        <v>61020</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2553" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B2553">
+        <v>61040</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2554" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B2554">
+        <v>61060</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2555" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B2555">
+        <v>61080</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2556" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B2556">
+        <v>61100</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2557" t="s">
+        <v>3187</v>
+      </c>
+      <c r="B2557">
+        <v>61120</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2558" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B2558">
+        <v>61140</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2559" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B2559">
+        <v>61160</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2560" t="s">
+        <v>3189</v>
+      </c>
+      <c r="B2560">
+        <v>61180</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2561" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B2561">
+        <v>61200</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2562" t="s">
+        <v>3237</v>
+      </c>
+      <c r="B2562">
+        <v>61220</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2563" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B2563">
+        <v>61240</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2564" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B2564">
+        <v>61260</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2565" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B2565">
+        <v>61280</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2566" t="s">
+        <v>2961</v>
+      </c>
+      <c r="B2566">
+        <v>61300</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2567" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B2567">
+        <v>61320</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2568" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B2568">
+        <v>61340</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2569" t="s">
+        <v>3244</v>
+      </c>
+      <c r="B2569">
+        <v>61360</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2570" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B2570">
+        <v>61380</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2571" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B2571">
+        <v>61400</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2572" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B2572">
+        <v>61420</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2573" t="s">
+        <v>3251</v>
+      </c>
+      <c r="B2573">
+        <v>61440</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2574" t="s">
+        <v>3191</v>
+      </c>
+      <c r="B2574">
+        <v>61460</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2575" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B2575">
+        <v>61480</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2576" t="s">
+        <v>3238</v>
+      </c>
+      <c r="B2576">
+        <v>61500</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2577" t="s">
+        <v>3193</v>
+      </c>
+      <c r="B2577">
+        <v>61520</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2578" t="s">
+        <v>3194</v>
+      </c>
+      <c r="B2578">
+        <v>61540</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2579" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B2579">
+        <v>61560</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2580" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B2580">
+        <v>61580</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2581" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B2581">
+        <v>61600</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2582" t="s">
+        <v>3245</v>
+      </c>
+      <c r="B2582">
+        <v>61620</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2583" t="s">
+        <v>3217</v>
+      </c>
+      <c r="B2583">
+        <v>61640</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2584" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B2584">
+        <v>61660</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2585" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B2585">
+        <v>61680</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2586" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B2586">
+        <v>61700</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2587" t="s">
+        <v>3260</v>
+      </c>
+      <c r="B2587">
+        <v>61720</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2588" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B2588">
+        <v>61740</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2589" t="s">
+        <v>3264</v>
+      </c>
+      <c r="B2589">
+        <v>61760</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2590" t="s">
+        <v>2864</v>
+      </c>
+      <c r="B2590">
+        <v>61780</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2591" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B2591">
+        <v>61800</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2592" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B2592">
+        <v>61820</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2593" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B2593">
+        <v>61840</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2594" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B2594">
+        <v>61860</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2595" t="s">
+        <v>2866</v>
+      </c>
+      <c r="B2595">
+        <v>61880</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2596" t="s">
+        <v>3247</v>
+      </c>
+      <c r="B2596">
+        <v>61900</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2597" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B2597">
+        <v>61920</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2598" t="s">
+        <v>2867</v>
+      </c>
+      <c r="B2598">
+        <v>61940</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2599" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B2599">
+        <v>61960</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2600" t="s">
+        <v>3268</v>
+      </c>
+      <c r="B2600">
+        <v>61980</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2601" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B2601">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2602" t="s">
+        <v>3239</v>
+      </c>
+      <c r="B2602">
+        <v>62020</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2603" t="s">
+        <v>3277</v>
+      </c>
+      <c r="B2603">
+        <v>62040</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2604" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B2604">
+        <v>62060</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2605" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B2605">
+        <v>62080</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2606" t="s">
+        <v>3240</v>
+      </c>
+      <c r="B2606">
+        <v>62100</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2607" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B2607">
+        <v>62120</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2608" t="s">
+        <v>2871</v>
+      </c>
+      <c r="B2608">
+        <v>62140</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2609" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B2609">
+        <v>62160</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2610" t="s">
+        <v>3269</v>
+      </c>
+      <c r="B2610">
+        <v>62180</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2611" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B2611">
+        <v>62200</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2612" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B2612">
+        <v>62220</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2613" t="s">
+        <v>3222</v>
+      </c>
+      <c r="B2613">
+        <v>62240</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2614" t="s">
+        <v>3287</v>
+      </c>
+      <c r="B2614">
+        <v>62260</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2615" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B2615">
+        <v>62280</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2616" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B2616">
+        <v>62300</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2617" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B2617">
+        <v>62320</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2618" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B2618">
+        <v>62340</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2619" t="s">
+        <v>3294</v>
+      </c>
+      <c r="B2619">
+        <v>62360</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2620" t="s">
+        <v>3290</v>
+      </c>
+      <c r="B2620">
+        <v>62380</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2621" t="s">
+        <v>3291</v>
+      </c>
+      <c r="B2621">
+        <v>62400</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2622" t="s">
+        <v>3296</v>
+      </c>
+      <c r="B2622">
+        <v>62420</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2623" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B2623">
+        <v>62440</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2624" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B2624">
+        <v>62460</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2625" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B2625">
+        <v>62480</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2626" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B2626">
+        <v>62500</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2627" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B2627">
+        <v>62520</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2628" t="s">
+        <v>3262</v>
+      </c>
+      <c r="B2628">
+        <v>62540</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2629" t="s">
+        <v>3211</v>
+      </c>
+      <c r="B2629">
+        <v>62560</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2630" t="s">
+        <v>2875</v>
+      </c>
+      <c r="B2630">
+        <v>62580</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2631" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B2631">
+        <v>62600</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2632" t="s">
+        <v>3205</v>
+      </c>
+      <c r="B2632">
+        <v>62620</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2633" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B2633">
+        <v>62640</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2634" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B2634">
+        <v>62660</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2635" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B2635">
+        <v>62680</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2636" t="s">
+        <v>3248</v>
+      </c>
+      <c r="B2636">
+        <v>62700</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2637" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B2637">
+        <v>62720</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2638" t="s">
+        <v>2880</v>
+      </c>
+      <c r="B2638">
+        <v>62740</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2639" t="s">
+        <v>3241</v>
+      </c>
+      <c r="B2639">
+        <v>62760</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2640" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B2640">
+        <v>62780</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2641" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B2641">
+        <v>62800</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2642" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B2642">
+        <v>62820</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2643" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B2643">
+        <v>62840</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2644" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B2644">
+        <v>62860</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2645" t="s">
+        <v>2884</v>
+      </c>
+      <c r="B2645">
+        <v>62880</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2646" t="s">
+        <v>3224</v>
+      </c>
+      <c r="B2646">
+        <v>62900</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2647" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B2647">
+        <v>62920</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2648" t="s">
+        <v>3275</v>
+      </c>
+      <c r="B2648">
+        <v>62940</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2649" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B2649">
+        <v>62960</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2650" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B2650">
+        <v>62980</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2651" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B2651">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2652" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B2652">
+        <v>63020</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2653" t="s">
+        <v>3212</v>
+      </c>
+      <c r="B2653">
+        <v>63040</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2654" t="s">
+        <v>2887</v>
+      </c>
+      <c r="B2654">
+        <v>63060</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2655" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B2655">
+        <v>63080</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2656" t="s">
+        <v>3242</v>
+      </c>
+      <c r="B2656">
+        <v>63100</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2657" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B2657">
+        <v>63120</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2658" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B2658">
+        <v>63140</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2659" t="s">
+        <v>3249</v>
+      </c>
+      <c r="B2659">
+        <v>63160</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2660" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B2660">
+        <v>63180</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2661" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B2661">
+        <v>63200</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2662" t="s">
+        <v>3213</v>
+      </c>
+      <c r="B2662">
+        <v>63220</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2663" t="s">
+        <v>3279</v>
+      </c>
+      <c r="B2663">
+        <v>63240</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2664" t="s">
+        <v>2891</v>
+      </c>
+      <c r="B2664">
+        <v>63260</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2665" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B2665">
+        <v>63280</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2666" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B2666">
+        <v>63300</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2667" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B2667">
+        <v>63320</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2668" t="s">
+        <v>3298</v>
+      </c>
+      <c r="B2668">
+        <v>63340</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2669" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B2669">
+        <v>63360</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2670" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B2670">
+        <v>63380</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2671" t="s">
+        <v>3276</v>
+      </c>
+      <c r="B2671">
+        <v>63400</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2672" t="s">
+        <v>3304</v>
+      </c>
+      <c r="B2672">
+        <v>63420</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2673" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B2673">
+        <v>63440</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2674" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B2674">
+        <v>63460</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2675" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B2675">
+        <v>63480</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2676" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B2676">
+        <v>63500</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2677" t="s">
+        <v>2895</v>
+      </c>
+      <c r="B2677">
+        <v>63520</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2678" t="s">
+        <v>3273</v>
+      </c>
+      <c r="B2678">
+        <v>63540</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2679" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B2679">
+        <v>63560</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2680" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B2680">
+        <v>63580</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2681" t="s">
+        <v>2897</v>
+      </c>
+      <c r="B2681">
+        <v>63600</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2682" t="s">
+        <v>2955</v>
+      </c>
+      <c r="B2682">
+        <v>63620</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2683" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B2683">
+        <v>63640</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2684" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B2684">
+        <v>63660</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2685" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B2685">
+        <v>63680</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2686" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B2686">
+        <v>63700</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2687" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B2687">
+        <v>63720</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2688" t="s">
+        <v>2900</v>
+      </c>
+      <c r="B2688">
+        <v>63740</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2689" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B2689">
+        <v>63760</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2690" t="s">
+        <v>2901</v>
+      </c>
+      <c r="B2690">
+        <v>63780</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2691" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B2691">
+        <v>63800</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2692" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B2692">
+        <v>63820</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2693" t="s">
+        <v>2956</v>
+      </c>
+      <c r="B2693">
+        <v>63840</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2694" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B2694">
+        <v>63860</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2695" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B2695">
+        <v>63880</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2696" t="s">
+        <v>3250</v>
+      </c>
+      <c r="B2696">
+        <v>63900</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2697" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B2697">
+        <v>63920</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2698" t="s">
+        <v>2905</v>
+      </c>
+      <c r="B2698">
+        <v>63940</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2699" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B2699">
+        <v>63960</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2700" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B2700">
+        <v>63980</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2701" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B2701">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2702" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B2702">
+        <v>64020</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2703" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B2703">
+        <v>64040</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2704" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B2704">
+        <v>64060</v>
+      </c>
+    </row>
+    <row r="2705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2705" t="s">
+        <v>2908</v>
+      </c>
+      <c r="B2705">
+        <v>64080</v>
+      </c>
+    </row>
+    <row r="2706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2706" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B2706">
+        <v>64100</v>
+      </c>
+    </row>
+    <row r="2707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2707" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B2707">
+        <v>64120</v>
+      </c>
+    </row>
+    <row r="2708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2708" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B2708">
+        <v>64140</v>
+      </c>
+    </row>
+    <row r="2709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2709" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B2709">
+        <v>64160</v>
+      </c>
+    </row>
+    <row r="2710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2710" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B2710">
+        <v>64180</v>
+      </c>
+    </row>
+    <row r="2711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2711" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B2711">
+        <v>64200</v>
+      </c>
+    </row>
+    <row r="2712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2712" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B2712">
+        <v>64220</v>
+      </c>
+    </row>
+    <row r="2713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2713" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B2713">
+        <v>64240</v>
+      </c>
+    </row>
+    <row r="2714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2714" t="s">
+        <v>2913</v>
+      </c>
+      <c r="B2714">
+        <v>64260</v>
+      </c>
+    </row>
+    <row r="2715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2715" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B2715">
+        <v>64280</v>
+      </c>
+    </row>
+    <row r="2716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2716" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B2716">
+        <v>64300</v>
+      </c>
+    </row>
+    <row r="2717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2717" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B2717">
+        <v>64320</v>
+      </c>
+    </row>
+    <row r="2718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2718" t="s">
+        <v>3214</v>
+      </c>
+      <c r="B2718">
+        <v>64340</v>
+      </c>
+    </row>
+    <row r="2719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2719" t="s">
+        <v>3215</v>
+      </c>
+      <c r="B2719">
+        <v>64360</v>
+      </c>
+    </row>
+    <row r="2720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2720" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B2720">
+        <v>64380</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2721" t="s">
+        <v>2917</v>
+      </c>
+      <c r="B2721">
+        <v>64400</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2722" t="s">
+        <v>3280</v>
+      </c>
+      <c r="B2722">
+        <v>64420</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2723" t="s">
+        <v>3197</v>
+      </c>
+      <c r="B2723">
+        <v>64440</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2724" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B2724">
+        <v>64460</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2725" t="s">
+        <v>2919</v>
+      </c>
+      <c r="B2725">
+        <v>64480</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2726" t="s">
+        <v>3226</v>
+      </c>
+      <c r="B2726">
+        <v>64500</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2727" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B2727">
+        <v>64520</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2728" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B2728">
+        <v>64540</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2729" t="s">
+        <v>3266</v>
+      </c>
+      <c r="B2729">
+        <v>64560</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2730" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B2730">
+        <v>64580</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2731" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B2731">
+        <v>64600</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2732" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B2732">
+        <v>64620</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2733" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B2733">
+        <v>64640</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2734" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B2734">
+        <v>64660</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2735" t="s">
+        <v>3310</v>
+      </c>
+      <c r="B2735">
+        <v>64680</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2736" t="s">
+        <v>3316</v>
+      </c>
+      <c r="B2736">
+        <v>64700</v>
+      </c>
+    </row>
+    <row r="2737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2737" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B2737">
+        <v>64720</v>
+      </c>
+    </row>
+    <row r="2738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2738" t="s">
+        <v>3312</v>
+      </c>
+      <c r="B2738">
+        <v>64740</v>
+      </c>
+    </row>
+    <row r="2739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2739" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B2739">
+        <v>64760</v>
+      </c>
+    </row>
+    <row r="2740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2740" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B2740">
+        <v>64780</v>
+      </c>
+    </row>
+    <row r="2741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2741" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B2741">
+        <v>64800</v>
+      </c>
+    </row>
+    <row r="2742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2742" t="s">
+        <v>3318</v>
+      </c>
+      <c r="B2742">
+        <v>64820</v>
+      </c>
+    </row>
+    <row r="2743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2743" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B2743">
+        <v>64840</v>
+      </c>
+    </row>
+    <row r="2744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2744" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B2744">
+        <v>64860</v>
+      </c>
+    </row>
+    <row r="2745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2745" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B2745">
+        <v>64880</v>
+      </c>
+    </row>
+    <row r="2746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2746" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B2746">
+        <v>64900</v>
+      </c>
+    </row>
+    <row r="2747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2747" t="s">
+        <v>2925</v>
+      </c>
+      <c r="B2747">
+        <v>64920</v>
+      </c>
+    </row>
+    <row r="2748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2748" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B2748">
+        <v>64940</v>
+      </c>
+    </row>
+    <row r="2749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2749" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B2749">
+        <v>64960</v>
+      </c>
+    </row>
+    <row r="2750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2750" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B2750">
+        <v>64980</v>
+      </c>
+    </row>
+    <row r="2751" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2751" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B2751">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="2752" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2752" t="s">
+        <v>3308</v>
+      </c>
+      <c r="B2752">
+        <v>65020</v>
+      </c>
+    </row>
+    <row r="2753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2753" t="s">
+        <v>3319</v>
+      </c>
+      <c r="B2753">
+        <v>65040</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2754" t="s">
+        <v>3007</v>
+      </c>
+      <c r="B2754">
+        <v>65060</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2755" t="s">
+        <v>3008</v>
+      </c>
+      <c r="B2755">
+        <v>65080</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2756" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B2756">
+        <v>65100</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2757" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B2757">
+        <v>65120</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2758" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B2758">
+        <v>65140</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2759" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B2759">
+        <v>65160</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2760" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B2760">
+        <v>65180</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2761" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B2761">
+        <v>65200</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2762" t="s">
+        <v>3324</v>
+      </c>
+      <c r="B2762">
+        <v>65220</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2763" t="s">
+        <v>3325</v>
+      </c>
+      <c r="B2763">
+        <v>65240</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2764" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B2764">
+        <v>65260</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2765" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B2765">
+        <v>65280</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2766" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B2766">
+        <v>65300</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2767" t="s">
+        <v>3328</v>
+      </c>
+      <c r="B2767">
+        <v>65320</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2768" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B2768">
+        <v>65340</v>
+      </c>
+    </row>
+    <row r="2769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2769" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B2769">
+        <v>65360</v>
+      </c>
+    </row>
+    <row r="2770" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2770" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B2770">
+        <v>65380</v>
+      </c>
+    </row>
+    <row r="2771" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2771" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B2771">
+        <v>65400</v>
+      </c>
+    </row>
+    <row r="2772" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2772" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B2772">
+        <v>65420</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2773" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B2773">
+        <v>65440</v>
+      </c>
+    </row>
+    <row r="2774" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2774" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B2774">
+        <v>65460</v>
+      </c>
+    </row>
+    <row r="2775" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2775" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B2775">
+        <v>65480</v>
+      </c>
+    </row>
+    <row r="2776" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2776" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B2776">
+        <v>65500</v>
+      </c>
+    </row>
+    <row r="2777" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2777" t="s">
+        <v>3139</v>
+      </c>
+      <c r="B2777">
+        <v>65520</v>
+      </c>
+    </row>
+    <row r="2778" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2778" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B2778">
+        <v>65540</v>
+      </c>
+    </row>
+    <row r="2779" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2779" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B2779">
+        <v>65560</v>
+      </c>
+    </row>
+    <row r="2780" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2780" t="s">
+        <v>3141</v>
+      </c>
+      <c r="B2780">
+        <v>65580</v>
+      </c>
+    </row>
+    <row r="2781" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2781" t="s">
+        <v>3142</v>
+      </c>
+      <c r="B2781">
+        <v>65600</v>
+      </c>
+    </row>
+    <row r="2782" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2782" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B2782">
+        <v>65620</v>
+      </c>
+    </row>
+    <row r="2783" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2783" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B2783">
+        <v>65640</v>
+      </c>
+    </row>
+    <row r="2784" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2784" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B2784">
+        <v>65660</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2785" t="s">
+        <v>3144</v>
+      </c>
+      <c r="B2785">
+        <v>65680</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2786" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B2786">
+        <v>65700</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2787" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B2787">
+        <v>65720</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2788" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B2788">
+        <v>65740</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2789" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B2789">
+        <v>65760</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2790" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B2790">
+        <v>65780</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2791" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B2791">
+        <v>65800</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2792" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B2792">
+        <v>65820</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2793" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B2793">
+        <v>65840</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2794" t="s">
+        <v>2929</v>
+      </c>
+      <c r="B2794">
+        <v>65860</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2795" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B2795">
+        <v>65880</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2796" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B2796">
+        <v>65900</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2797" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B2797">
+        <v>65920</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2798" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B2798">
+        <v>65940</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2799" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B2799">
+        <v>65960</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2800" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B2800">
+        <v>65980</v>
+      </c>
+    </row>
+    <row r="2801" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2801" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B2801">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="2802" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2802" t="s">
+        <v>2958</v>
+      </c>
+      <c r="B2802">
+        <v>66020</v>
+      </c>
+    </row>
+    <row r="2803" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2803" t="s">
+        <v>3252</v>
+      </c>
+      <c r="B2803">
+        <v>66040</v>
+      </c>
+    </row>
+    <row r="2804" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2804" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B2804">
+        <v>66060</v>
+      </c>
+    </row>
+    <row r="2805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2805" t="s">
+        <v>2935</v>
+      </c>
+      <c r="B2805">
+        <v>66080</v>
+      </c>
+    </row>
+    <row r="2806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2806" t="s">
+        <v>2967</v>
+      </c>
+      <c r="B2806">
+        <v>66100</v>
+      </c>
+    </row>
+    <row r="2807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2807" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B2807">
+        <v>66120</v>
+      </c>
+    </row>
+    <row r="2808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2808" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B2808">
+        <v>66140</v>
+      </c>
+    </row>
+    <row r="2809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2809" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B2809">
+        <v>66160</v>
+      </c>
+    </row>
+    <row r="2810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2810" t="s">
+        <v>2938</v>
+      </c>
+      <c r="B2810">
+        <v>66180</v>
+      </c>
+    </row>
+    <row r="2811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2811" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B2811">
+        <v>66200</v>
+      </c>
+    </row>
+    <row r="2812" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2812" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B2812">
+        <v>66220</v>
+      </c>
+    </row>
+    <row r="2813" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2813" t="s">
+        <v>3218</v>
+      </c>
+      <c r="B2813">
+        <v>66240</v>
+      </c>
+    </row>
+    <row r="2814" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2814" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B2814">
+        <v>66260</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2815" t="s">
+        <v>2941</v>
+      </c>
+      <c r="B2815">
+        <v>66280</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2816" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B2816">
+        <v>66300</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2817" t="s">
+        <v>2942</v>
+      </c>
+      <c r="B2817">
+        <v>66320</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2818" t="s">
+        <v>2943</v>
+      </c>
+      <c r="B2818">
+        <v>66340</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2819" t="s">
+        <v>3206</v>
+      </c>
+      <c r="B2819">
+        <v>66360</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2820" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B2820">
+        <v>66380</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2821" t="s">
+        <v>2945</v>
+      </c>
+      <c r="B2821">
+        <v>66400</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2822" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B2822">
+        <v>66420</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2823" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B2823">
+        <v>66440</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2824" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B2824">
+        <v>66460</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2825" t="s">
+        <v>2947</v>
+      </c>
+      <c r="B2825">
+        <v>66480</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2826" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B2826">
+        <v>66500</v>
+      </c>
+    </row>
+    <row r="2827" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2827" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B2827">
+        <v>66520</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2828" t="s">
+        <v>2949</v>
+      </c>
+      <c r="B2828">
+        <v>66540</v>
+      </c>
+    </row>
+    <row r="2829" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2829" t="s">
+        <v>3219</v>
+      </c>
+      <c r="B2829">
+        <v>66560</v>
+      </c>
+    </row>
+    <row r="2830" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2830" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B2830">
+        <v>66580</v>
+      </c>
+    </row>
+    <row r="2831" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2831" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B2831">
+        <v>66600</v>
+      </c>
+    </row>
+    <row r="2832" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2832" t="s">
+        <v>2959</v>
+      </c>
+      <c r="B2832">
+        <v>66620</v>
+      </c>
+    </row>
+    <row r="2833" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2833" t="s">
+        <v>3254</v>
+      </c>
+      <c r="B2833">
+        <v>66640</v>
       </c>
     </row>
   </sheetData>
@@ -32080,7 +40385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>

--- a/com/Tools/MyPoco/info_tab/少三2关卡类型表.xlsx
+++ b/com/Tools/MyPoco/info_tab/少三2关卡类型表.xlsx
@@ -11,7 +11,7 @@
     <sheet name="列传" sheetId="2" r:id="rId2"/>
     <sheet name="关隘" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="3344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3905" uniqueCount="3894">
   <si>
     <t>副本</t>
   </si>
@@ -9880,274 +9880,1980 @@
     <t>副本-283-6</t>
   </si>
   <si>
+    <t>副本-261-3</t>
+  </si>
+  <si>
+    <t>副本-262-6</t>
+  </si>
+  <si>
+    <t>副本-267-9</t>
+  </si>
+  <si>
+    <t>副本-273-3</t>
+  </si>
+  <si>
+    <t>副本-274-3</t>
+  </si>
+  <si>
+    <t>副本-261-4</t>
+  </si>
+  <si>
+    <t>副本-262-4</t>
+  </si>
+  <si>
+    <t>副本-265-5</t>
+  </si>
+  <si>
+    <t>副本-261-5</t>
+  </si>
+  <si>
+    <t>副本-261-6</t>
+  </si>
+  <si>
+    <t>副本-267-6</t>
+  </si>
+  <si>
+    <t>副本-275-6</t>
+  </si>
+  <si>
+    <t>副本-261-8</t>
+  </si>
+  <si>
+    <t>副本-262-7</t>
+  </si>
+  <si>
+    <t>副本-263-7</t>
+  </si>
+  <si>
+    <t>副本-267-4</t>
+  </si>
+  <si>
+    <t>副本-268-5</t>
+  </si>
+  <si>
+    <t>副本-269-7</t>
+  </si>
+  <si>
+    <t>副本-270-5</t>
+  </si>
+  <si>
+    <t>副本-262-8</t>
+  </si>
+  <si>
+    <t>副本-267-5</t>
+  </si>
+  <si>
+    <t>副本-269-8</t>
+  </si>
+  <si>
+    <t>副本-262-10</t>
+  </si>
+  <si>
+    <t>副本-266-10</t>
+  </si>
+  <si>
+    <t>副本-268-10</t>
+  </si>
+  <si>
+    <t>副本-274-9</t>
+  </si>
+  <si>
+    <t>副本-275-9</t>
+  </si>
+  <si>
+    <t>副本-284-3</t>
+  </si>
+  <si>
+    <t>副本-263-6</t>
+  </si>
+  <si>
+    <t>副本-269-10</t>
+  </si>
+  <si>
+    <t>副本-270-3</t>
+  </si>
+  <si>
+    <t>副本-272-6</t>
+  </si>
+  <si>
+    <t>副本-264-1</t>
+  </si>
+  <si>
+    <t>副本-264-2</t>
+  </si>
+  <si>
+    <t>副本-264-4</t>
+  </si>
+  <si>
+    <t>副本-264-7</t>
+  </si>
+  <si>
+    <t>副本-264-8</t>
+  </si>
+  <si>
+    <t>副本-264-10</t>
+  </si>
+  <si>
+    <t>副本-264-3</t>
+  </si>
+  <si>
+    <t>副本-264-6</t>
+  </si>
+  <si>
+    <t>副本-264-5</t>
+  </si>
+  <si>
+    <t>副本-264-9</t>
+  </si>
+  <si>
+    <t>副本-265-2</t>
+  </si>
+  <si>
+    <t>副本-269-5</t>
+  </si>
+  <si>
+    <t>副本-270-1</t>
+  </si>
+  <si>
+    <t>副本-271-2</t>
+  </si>
+  <si>
+    <t>副本-265-3</t>
+  </si>
+  <si>
+    <t>副本-282-3</t>
+  </si>
+  <si>
+    <t>副本-268-8</t>
+  </si>
+  <si>
+    <t>副本-269-9</t>
+  </si>
+  <si>
+    <t>副本-270-10</t>
+  </si>
+  <si>
+    <t>副本-271-6</t>
+  </si>
+  <si>
+    <t>副本-271-9</t>
+  </si>
+  <si>
+    <t>副本-277-9</t>
+  </si>
+  <si>
+    <t>副本-276-1</t>
+  </si>
+  <si>
+    <t>副本-276-2</t>
+  </si>
+  <si>
+    <t>副本-276-4</t>
+  </si>
+  <si>
+    <t>副本-276-5</t>
+  </si>
+  <si>
+    <t>副本-276-7</t>
+  </si>
+  <si>
+    <t>副本-276-8</t>
+  </si>
+  <si>
+    <t>副本-276-10</t>
+  </si>
+  <si>
+    <t>副本-276-3</t>
+  </si>
+  <si>
+    <t>副本-276-6</t>
+  </si>
+  <si>
+    <t>副本-276-9</t>
+  </si>
+  <si>
+    <t>副本-277-10</t>
+  </si>
+  <si>
+    <t>副本-283-9</t>
+  </si>
+  <si>
+    <t>副本-284-10</t>
+  </si>
+  <si>
+    <t>副本-278-3</t>
+  </si>
+  <si>
+    <t>副本-278-6</t>
+  </si>
+  <si>
+    <t>副本-278-9</t>
+  </si>
+  <si>
+    <t>副本-278-10</t>
+  </si>
+  <si>
+    <t>副本-279-1</t>
+  </si>
+  <si>
+    <t>副本-279-2</t>
+  </si>
+  <si>
+    <t>副本-279-4</t>
+  </si>
+  <si>
+    <t>副本-279-5</t>
+  </si>
+  <si>
+    <t>副本-279-7</t>
+  </si>
+  <si>
+    <t>副本-279-8</t>
+  </si>
+  <si>
+    <t>副本-279-10</t>
+  </si>
+  <si>
+    <t>副本-279-3</t>
+  </si>
+  <si>
+    <t>副本-279-6</t>
+  </si>
+  <si>
+    <t>副本-279-9</t>
+  </si>
+  <si>
+    <t>副本-280-6</t>
+  </si>
+  <si>
+    <t>副本-280-9</t>
+  </si>
+  <si>
+    <t>副本-280-10</t>
+  </si>
+  <si>
+    <t>副本-281-6</t>
+  </si>
+  <si>
+    <t>副本-281-3</t>
+  </si>
+  <si>
+    <t>副本-282-6</t>
+  </si>
+  <si>
+    <t>副本-284-9</t>
+  </si>
+  <si>
+    <t>副本-285-3</t>
+  </si>
+  <si>
     <t>副本-285-10</t>
-  </si>
-  <si>
-    <t>副本-261-3</t>
-  </si>
-  <si>
-    <t>副本-262-6</t>
-  </si>
-  <si>
-    <t>副本-267-9</t>
-  </si>
-  <si>
-    <t>副本-273-3</t>
-  </si>
-  <si>
-    <t>副本-274-3</t>
-  </si>
-  <si>
-    <t>副本-261-4</t>
-  </si>
-  <si>
-    <t>副本-262-4</t>
-  </si>
-  <si>
-    <t>副本-265-5</t>
-  </si>
-  <si>
-    <t>副本-261-5</t>
-  </si>
-  <si>
-    <t>副本-261-6</t>
-  </si>
-  <si>
-    <t>副本-267-6</t>
-  </si>
-  <si>
-    <t>副本-275-6</t>
-  </si>
-  <si>
-    <t>副本-261-8</t>
-  </si>
-  <si>
-    <t>副本-262-7</t>
-  </si>
-  <si>
-    <t>副本-263-7</t>
-  </si>
-  <si>
-    <t>副本-267-4</t>
-  </si>
-  <si>
-    <t>副本-268-5</t>
-  </si>
-  <si>
-    <t>副本-269-7</t>
-  </si>
-  <si>
-    <t>副本-270-5</t>
-  </si>
-  <si>
-    <t>副本-262-8</t>
-  </si>
-  <si>
-    <t>副本-267-5</t>
-  </si>
-  <si>
-    <t>副本-269-8</t>
-  </si>
-  <si>
-    <t>副本-262-10</t>
-  </si>
-  <si>
-    <t>副本-266-10</t>
-  </si>
-  <si>
-    <t>副本-268-10</t>
-  </si>
-  <si>
-    <t>副本-274-9</t>
-  </si>
-  <si>
-    <t>副本-275-9</t>
-  </si>
-  <si>
-    <t>副本-284-3</t>
-  </si>
-  <si>
-    <t>副本-263-6</t>
-  </si>
-  <si>
-    <t>副本-269-10</t>
-  </si>
-  <si>
-    <t>副本-270-3</t>
-  </si>
-  <si>
-    <t>副本-272-6</t>
-  </si>
-  <si>
-    <t>副本-264-1</t>
-  </si>
-  <si>
-    <t>副本-264-2</t>
-  </si>
-  <si>
-    <t>副本-264-4</t>
-  </si>
-  <si>
-    <t>副本-264-7</t>
-  </si>
-  <si>
-    <t>副本-264-8</t>
-  </si>
-  <si>
-    <t>副本-264-10</t>
-  </si>
-  <si>
-    <t>副本-264-3</t>
-  </si>
-  <si>
-    <t>副本-264-6</t>
-  </si>
-  <si>
-    <t>副本-264-5</t>
-  </si>
-  <si>
-    <t>副本-264-9</t>
-  </si>
-  <si>
-    <t>副本-265-2</t>
-  </si>
-  <si>
-    <t>副本-269-5</t>
-  </si>
-  <si>
-    <t>副本-270-1</t>
-  </si>
-  <si>
-    <t>副本-271-2</t>
-  </si>
-  <si>
-    <t>副本-265-3</t>
-  </si>
-  <si>
-    <t>副本-282-3</t>
-  </si>
-  <si>
-    <t>副本-268-8</t>
-  </si>
-  <si>
-    <t>副本-269-9</t>
-  </si>
-  <si>
-    <t>副本-270-10</t>
-  </si>
-  <si>
-    <t>副本-271-6</t>
-  </si>
-  <si>
-    <t>副本-271-9</t>
-  </si>
-  <si>
-    <t>副本-277-9</t>
-  </si>
-  <si>
-    <t>副本-276-1</t>
-  </si>
-  <si>
-    <t>副本-276-2</t>
-  </si>
-  <si>
-    <t>副本-276-4</t>
-  </si>
-  <si>
-    <t>副本-276-5</t>
-  </si>
-  <si>
-    <t>副本-276-7</t>
-  </si>
-  <si>
-    <t>副本-276-8</t>
-  </si>
-  <si>
-    <t>副本-276-10</t>
-  </si>
-  <si>
-    <t>副本-276-3</t>
-  </si>
-  <si>
-    <t>副本-276-6</t>
-  </si>
-  <si>
-    <t>副本-276-9</t>
-  </si>
-  <si>
-    <t>副本-277-10</t>
-  </si>
-  <si>
-    <t>副本-283-9</t>
-  </si>
-  <si>
-    <t>副本-284-10</t>
-  </si>
-  <si>
-    <t>副本-278-3</t>
-  </si>
-  <si>
-    <t>副本-278-6</t>
-  </si>
-  <si>
-    <t>副本-278-9</t>
-  </si>
-  <si>
-    <t>副本-278-10</t>
-  </si>
-  <si>
-    <t>副本-279-1</t>
-  </si>
-  <si>
-    <t>副本-279-2</t>
-  </si>
-  <si>
-    <t>副本-279-4</t>
-  </si>
-  <si>
-    <t>副本-279-5</t>
-  </si>
-  <si>
-    <t>副本-279-7</t>
-  </si>
-  <si>
-    <t>副本-279-8</t>
-  </si>
-  <si>
-    <t>副本-279-10</t>
-  </si>
-  <si>
-    <t>副本-279-3</t>
-  </si>
-  <si>
-    <t>副本-279-6</t>
-  </si>
-  <si>
-    <t>副本-279-9</t>
-  </si>
-  <si>
-    <t>副本-280-6</t>
-  </si>
-  <si>
-    <t>副本-280-9</t>
-  </si>
-  <si>
-    <t>副本-280-10</t>
-  </si>
-  <si>
-    <t>副本-281-6</t>
-  </si>
-  <si>
-    <t>副本-281-3</t>
-  </si>
-  <si>
-    <t>副本-282-6</t>
-  </si>
-  <si>
-    <t>副本-284-9</t>
-  </si>
-  <si>
-    <t>副本-285-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-286-2</t>
+  </si>
+  <si>
+    <t>副本-286-3</t>
+  </si>
+  <si>
+    <t>副本-286-4</t>
+  </si>
+  <si>
+    <t>副本-286-5</t>
+  </si>
+  <si>
+    <t>副本-286-6</t>
+  </si>
+  <si>
+    <t>副本-286-7</t>
+  </si>
+  <si>
+    <t>副本-286-8</t>
+  </si>
+  <si>
+    <t>副本-286-9</t>
+  </si>
+  <si>
+    <t>副本-286-10</t>
+  </si>
+  <si>
+    <t>副本-286-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-287-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-287-2</t>
+  </si>
+  <si>
+    <t>副本-287-3</t>
+  </si>
+  <si>
+    <t>副本-287-4</t>
+  </si>
+  <si>
+    <t>副本-287-5</t>
+  </si>
+  <si>
+    <t>副本-287-6</t>
+  </si>
+  <si>
+    <t>副本-287-7</t>
+  </si>
+  <si>
+    <t>副本-287-8</t>
+  </si>
+  <si>
+    <t>副本-287-9</t>
+  </si>
+  <si>
+    <t>副本-287-10</t>
+  </si>
+  <si>
+    <t>副本-288-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-288-2</t>
+  </si>
+  <si>
+    <t>副本-288-3</t>
+  </si>
+  <si>
+    <t>副本-288-4</t>
+  </si>
+  <si>
+    <t>副本-288-5</t>
+  </si>
+  <si>
+    <t>副本-288-6</t>
+  </si>
+  <si>
+    <t>副本-288-7</t>
+  </si>
+  <si>
+    <t>副本-288-8</t>
+  </si>
+  <si>
+    <t>副本-288-9</t>
+  </si>
+  <si>
+    <t>副本-288-10</t>
+  </si>
+  <si>
+    <t>副本-290-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-291-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-292-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-293-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-294-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-295-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-296-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-297-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-298-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-299-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-300-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-301-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-302-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-303-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-304-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-305-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-306-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-307-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-308-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-309-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-310-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-311-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-312-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-313-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-314-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-315-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-316-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-317-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-318-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-319-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-320-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-321-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-322-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-323-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-324-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-325-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-326-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-327-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-328-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-329-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-330-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-331-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-332-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-333-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-334-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-335-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-336-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-337-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-338-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-339-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-340-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-289-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本-289-2</t>
+  </si>
+  <si>
+    <t>副本-289-3</t>
+  </si>
+  <si>
+    <t>副本-289-4</t>
+  </si>
+  <si>
+    <t>副本-289-5</t>
+  </si>
+  <si>
+    <t>副本-289-6</t>
+  </si>
+  <si>
+    <t>副本-289-7</t>
+  </si>
+  <si>
+    <t>副本-289-8</t>
+  </si>
+  <si>
+    <t>副本-289-9</t>
+  </si>
+  <si>
+    <t>副本-289-10</t>
+  </si>
+  <si>
+    <t>副本-290-2</t>
+  </si>
+  <si>
+    <t>副本-290-3</t>
+  </si>
+  <si>
+    <t>副本-290-4</t>
+  </si>
+  <si>
+    <t>副本-290-5</t>
+  </si>
+  <si>
+    <t>副本-290-6</t>
+  </si>
+  <si>
+    <t>副本-290-7</t>
+  </si>
+  <si>
+    <t>副本-290-8</t>
+  </si>
+  <si>
+    <t>副本-290-9</t>
+  </si>
+  <si>
+    <t>副本-290-10</t>
+  </si>
+  <si>
+    <t>副本-291-2</t>
+  </si>
+  <si>
+    <t>副本-291-3</t>
+  </si>
+  <si>
+    <t>副本-291-4</t>
+  </si>
+  <si>
+    <t>副本-291-5</t>
+  </si>
+  <si>
+    <t>副本-291-6</t>
+  </si>
+  <si>
+    <t>副本-291-7</t>
+  </si>
+  <si>
+    <t>副本-291-8</t>
+  </si>
+  <si>
+    <t>副本-291-9</t>
+  </si>
+  <si>
+    <t>副本-291-10</t>
+  </si>
+  <si>
+    <t>副本-292-2</t>
+  </si>
+  <si>
+    <t>副本-292-3</t>
+  </si>
+  <si>
+    <t>副本-292-4</t>
+  </si>
+  <si>
+    <t>副本-292-5</t>
+  </si>
+  <si>
+    <t>副本-292-6</t>
+  </si>
+  <si>
+    <t>副本-292-7</t>
+  </si>
+  <si>
+    <t>副本-292-8</t>
+  </si>
+  <si>
+    <t>副本-292-9</t>
+  </si>
+  <si>
+    <t>副本-292-10</t>
+  </si>
+  <si>
+    <t>副本-293-2</t>
+  </si>
+  <si>
+    <t>副本-293-3</t>
+  </si>
+  <si>
+    <t>副本-293-4</t>
+  </si>
+  <si>
+    <t>副本-293-5</t>
+  </si>
+  <si>
+    <t>副本-293-6</t>
+  </si>
+  <si>
+    <t>副本-293-7</t>
+  </si>
+  <si>
+    <t>副本-293-8</t>
+  </si>
+  <si>
+    <t>副本-293-9</t>
+  </si>
+  <si>
+    <t>副本-293-10</t>
+  </si>
+  <si>
+    <t>副本-294-2</t>
+  </si>
+  <si>
+    <t>副本-294-3</t>
+  </si>
+  <si>
+    <t>副本-294-4</t>
+  </si>
+  <si>
+    <t>副本-294-5</t>
+  </si>
+  <si>
+    <t>副本-294-6</t>
+  </si>
+  <si>
+    <t>副本-294-7</t>
+  </si>
+  <si>
+    <t>副本-294-8</t>
+  </si>
+  <si>
+    <t>副本-294-9</t>
+  </si>
+  <si>
+    <t>副本-294-10</t>
+  </si>
+  <si>
+    <t>副本-295-2</t>
+  </si>
+  <si>
+    <t>副本-295-3</t>
+  </si>
+  <si>
+    <t>副本-295-4</t>
+  </si>
+  <si>
+    <t>副本-295-5</t>
+  </si>
+  <si>
+    <t>副本-295-6</t>
+  </si>
+  <si>
+    <t>副本-295-7</t>
+  </si>
+  <si>
+    <t>副本-295-8</t>
+  </si>
+  <si>
+    <t>副本-295-9</t>
+  </si>
+  <si>
+    <t>副本-295-10</t>
+  </si>
+  <si>
+    <t>副本-296-2</t>
+  </si>
+  <si>
+    <t>副本-296-3</t>
+  </si>
+  <si>
+    <t>副本-296-4</t>
+  </si>
+  <si>
+    <t>副本-296-5</t>
+  </si>
+  <si>
+    <t>副本-296-6</t>
+  </si>
+  <si>
+    <t>副本-296-7</t>
+  </si>
+  <si>
+    <t>副本-296-8</t>
+  </si>
+  <si>
+    <t>副本-296-9</t>
+  </si>
+  <si>
+    <t>副本-296-10</t>
+  </si>
+  <si>
+    <t>副本-297-2</t>
+  </si>
+  <si>
+    <t>副本-297-3</t>
+  </si>
+  <si>
+    <t>副本-297-4</t>
+  </si>
+  <si>
+    <t>副本-297-5</t>
+  </si>
+  <si>
+    <t>副本-297-6</t>
+  </si>
+  <si>
+    <t>副本-297-7</t>
+  </si>
+  <si>
+    <t>副本-297-8</t>
+  </si>
+  <si>
+    <t>副本-297-9</t>
+  </si>
+  <si>
+    <t>副本-297-10</t>
+  </si>
+  <si>
+    <t>副本-298-2</t>
+  </si>
+  <si>
+    <t>副本-298-3</t>
+  </si>
+  <si>
+    <t>副本-298-4</t>
+  </si>
+  <si>
+    <t>副本-298-5</t>
+  </si>
+  <si>
+    <t>副本-298-6</t>
+  </si>
+  <si>
+    <t>副本-298-7</t>
+  </si>
+  <si>
+    <t>副本-298-8</t>
+  </si>
+  <si>
+    <t>副本-298-9</t>
+  </si>
+  <si>
+    <t>副本-298-10</t>
+  </si>
+  <si>
+    <t>副本-299-2</t>
+  </si>
+  <si>
+    <t>副本-299-3</t>
+  </si>
+  <si>
+    <t>副本-299-4</t>
+  </si>
+  <si>
+    <t>副本-299-5</t>
+  </si>
+  <si>
+    <t>副本-299-6</t>
+  </si>
+  <si>
+    <t>副本-299-7</t>
+  </si>
+  <si>
+    <t>副本-299-8</t>
+  </si>
+  <si>
+    <t>副本-299-9</t>
+  </si>
+  <si>
+    <t>副本-299-10</t>
+  </si>
+  <si>
+    <t>副本-300-2</t>
+  </si>
+  <si>
+    <t>副本-300-3</t>
+  </si>
+  <si>
+    <t>副本-300-4</t>
+  </si>
+  <si>
+    <t>副本-300-5</t>
+  </si>
+  <si>
+    <t>副本-300-6</t>
+  </si>
+  <si>
+    <t>副本-300-7</t>
+  </si>
+  <si>
+    <t>副本-300-8</t>
+  </si>
+  <si>
+    <t>副本-300-9</t>
+  </si>
+  <si>
+    <t>副本-300-10</t>
+  </si>
+  <si>
+    <t>副本-301-2</t>
+  </si>
+  <si>
+    <t>副本-301-3</t>
+  </si>
+  <si>
+    <t>副本-301-4</t>
+  </si>
+  <si>
+    <t>副本-301-5</t>
+  </si>
+  <si>
+    <t>副本-301-6</t>
+  </si>
+  <si>
+    <t>副本-301-7</t>
+  </si>
+  <si>
+    <t>副本-301-8</t>
+  </si>
+  <si>
+    <t>副本-301-9</t>
+  </si>
+  <si>
+    <t>副本-301-10</t>
+  </si>
+  <si>
+    <t>副本-302-2</t>
+  </si>
+  <si>
+    <t>副本-302-3</t>
+  </si>
+  <si>
+    <t>副本-302-4</t>
+  </si>
+  <si>
+    <t>副本-302-5</t>
+  </si>
+  <si>
+    <t>副本-302-6</t>
+  </si>
+  <si>
+    <t>副本-302-7</t>
+  </si>
+  <si>
+    <t>副本-302-8</t>
+  </si>
+  <si>
+    <t>副本-302-9</t>
+  </si>
+  <si>
+    <t>副本-302-10</t>
+  </si>
+  <si>
+    <t>副本-303-2</t>
+  </si>
+  <si>
+    <t>副本-303-3</t>
+  </si>
+  <si>
+    <t>副本-303-4</t>
+  </si>
+  <si>
+    <t>副本-303-5</t>
+  </si>
+  <si>
+    <t>副本-303-6</t>
+  </si>
+  <si>
+    <t>副本-303-7</t>
+  </si>
+  <si>
+    <t>副本-303-8</t>
+  </si>
+  <si>
+    <t>副本-303-9</t>
+  </si>
+  <si>
+    <t>副本-303-10</t>
+  </si>
+  <si>
+    <t>副本-304-2</t>
+  </si>
+  <si>
+    <t>副本-304-3</t>
+  </si>
+  <si>
+    <t>副本-304-4</t>
+  </si>
+  <si>
+    <t>副本-304-5</t>
+  </si>
+  <si>
+    <t>副本-304-6</t>
+  </si>
+  <si>
+    <t>副本-304-7</t>
+  </si>
+  <si>
+    <t>副本-304-8</t>
+  </si>
+  <si>
+    <t>副本-304-9</t>
+  </si>
+  <si>
+    <t>副本-304-10</t>
+  </si>
+  <si>
+    <t>副本-305-2</t>
+  </si>
+  <si>
+    <t>副本-305-3</t>
+  </si>
+  <si>
+    <t>副本-305-4</t>
+  </si>
+  <si>
+    <t>副本-305-5</t>
+  </si>
+  <si>
+    <t>副本-305-6</t>
+  </si>
+  <si>
+    <t>副本-305-7</t>
+  </si>
+  <si>
+    <t>副本-305-8</t>
+  </si>
+  <si>
+    <t>副本-305-9</t>
+  </si>
+  <si>
+    <t>副本-305-10</t>
+  </si>
+  <si>
+    <t>副本-306-2</t>
+  </si>
+  <si>
+    <t>副本-306-3</t>
+  </si>
+  <si>
+    <t>副本-306-4</t>
+  </si>
+  <si>
+    <t>副本-306-5</t>
+  </si>
+  <si>
+    <t>副本-306-6</t>
+  </si>
+  <si>
+    <t>副本-306-7</t>
+  </si>
+  <si>
+    <t>副本-306-8</t>
+  </si>
+  <si>
+    <t>副本-306-9</t>
+  </si>
+  <si>
+    <t>副本-306-10</t>
+  </si>
+  <si>
+    <t>副本-307-2</t>
+  </si>
+  <si>
+    <t>副本-307-3</t>
+  </si>
+  <si>
+    <t>副本-307-4</t>
+  </si>
+  <si>
+    <t>副本-307-5</t>
+  </si>
+  <si>
+    <t>副本-307-6</t>
+  </si>
+  <si>
+    <t>副本-307-7</t>
+  </si>
+  <si>
+    <t>副本-307-8</t>
+  </si>
+  <si>
+    <t>副本-307-9</t>
+  </si>
+  <si>
+    <t>副本-307-10</t>
+  </si>
+  <si>
+    <t>副本-308-2</t>
+  </si>
+  <si>
+    <t>副本-308-3</t>
+  </si>
+  <si>
+    <t>副本-308-4</t>
+  </si>
+  <si>
+    <t>副本-308-5</t>
+  </si>
+  <si>
+    <t>副本-308-6</t>
+  </si>
+  <si>
+    <t>副本-308-7</t>
+  </si>
+  <si>
+    <t>副本-308-8</t>
+  </si>
+  <si>
+    <t>副本-308-9</t>
+  </si>
+  <si>
+    <t>副本-308-10</t>
+  </si>
+  <si>
+    <t>副本-309-2</t>
+  </si>
+  <si>
+    <t>副本-309-3</t>
+  </si>
+  <si>
+    <t>副本-309-4</t>
+  </si>
+  <si>
+    <t>副本-309-5</t>
+  </si>
+  <si>
+    <t>副本-309-6</t>
+  </si>
+  <si>
+    <t>副本-309-7</t>
+  </si>
+  <si>
+    <t>副本-309-8</t>
+  </si>
+  <si>
+    <t>副本-309-9</t>
+  </si>
+  <si>
+    <t>副本-309-10</t>
+  </si>
+  <si>
+    <t>副本-310-2</t>
+  </si>
+  <si>
+    <t>副本-310-3</t>
+  </si>
+  <si>
+    <t>副本-310-4</t>
+  </si>
+  <si>
+    <t>副本-310-5</t>
+  </si>
+  <si>
+    <t>副本-310-6</t>
+  </si>
+  <si>
+    <t>副本-310-7</t>
+  </si>
+  <si>
+    <t>副本-310-8</t>
+  </si>
+  <si>
+    <t>副本-310-9</t>
+  </si>
+  <si>
+    <t>副本-310-10</t>
+  </si>
+  <si>
+    <t>副本-311-2</t>
+  </si>
+  <si>
+    <t>副本-311-3</t>
+  </si>
+  <si>
+    <t>副本-311-4</t>
+  </si>
+  <si>
+    <t>副本-311-5</t>
+  </si>
+  <si>
+    <t>副本-311-6</t>
+  </si>
+  <si>
+    <t>副本-311-7</t>
+  </si>
+  <si>
+    <t>副本-311-8</t>
+  </si>
+  <si>
+    <t>副本-311-9</t>
+  </si>
+  <si>
+    <t>副本-311-10</t>
+  </si>
+  <si>
+    <t>副本-312-2</t>
+  </si>
+  <si>
+    <t>副本-312-3</t>
+  </si>
+  <si>
+    <t>副本-312-4</t>
+  </si>
+  <si>
+    <t>副本-312-5</t>
+  </si>
+  <si>
+    <t>副本-312-6</t>
+  </si>
+  <si>
+    <t>副本-312-7</t>
+  </si>
+  <si>
+    <t>副本-312-8</t>
+  </si>
+  <si>
+    <t>副本-312-9</t>
+  </si>
+  <si>
+    <t>副本-312-10</t>
+  </si>
+  <si>
+    <t>副本-313-2</t>
+  </si>
+  <si>
+    <t>副本-313-3</t>
+  </si>
+  <si>
+    <t>副本-313-4</t>
+  </si>
+  <si>
+    <t>副本-313-5</t>
+  </si>
+  <si>
+    <t>副本-313-6</t>
+  </si>
+  <si>
+    <t>副本-313-7</t>
+  </si>
+  <si>
+    <t>副本-313-8</t>
+  </si>
+  <si>
+    <t>副本-313-9</t>
+  </si>
+  <si>
+    <t>副本-313-10</t>
+  </si>
+  <si>
+    <t>副本-314-2</t>
+  </si>
+  <si>
+    <t>副本-314-3</t>
+  </si>
+  <si>
+    <t>副本-314-4</t>
+  </si>
+  <si>
+    <t>副本-314-5</t>
+  </si>
+  <si>
+    <t>副本-314-6</t>
+  </si>
+  <si>
+    <t>副本-314-7</t>
+  </si>
+  <si>
+    <t>副本-314-8</t>
+  </si>
+  <si>
+    <t>副本-314-9</t>
+  </si>
+  <si>
+    <t>副本-314-10</t>
+  </si>
+  <si>
+    <t>副本-315-2</t>
+  </si>
+  <si>
+    <t>副本-315-3</t>
+  </si>
+  <si>
+    <t>副本-315-4</t>
+  </si>
+  <si>
+    <t>副本-315-5</t>
+  </si>
+  <si>
+    <t>副本-315-6</t>
+  </si>
+  <si>
+    <t>副本-315-7</t>
+  </si>
+  <si>
+    <t>副本-315-8</t>
+  </si>
+  <si>
+    <t>副本-315-9</t>
+  </si>
+  <si>
+    <t>副本-315-10</t>
+  </si>
+  <si>
+    <t>副本-316-2</t>
+  </si>
+  <si>
+    <t>副本-316-3</t>
+  </si>
+  <si>
+    <t>副本-316-4</t>
+  </si>
+  <si>
+    <t>副本-316-5</t>
+  </si>
+  <si>
+    <t>副本-316-6</t>
+  </si>
+  <si>
+    <t>副本-316-7</t>
+  </si>
+  <si>
+    <t>副本-316-8</t>
+  </si>
+  <si>
+    <t>副本-316-9</t>
+  </si>
+  <si>
+    <t>副本-316-10</t>
+  </si>
+  <si>
+    <t>副本-317-2</t>
+  </si>
+  <si>
+    <t>副本-317-3</t>
+  </si>
+  <si>
+    <t>副本-317-4</t>
+  </si>
+  <si>
+    <t>副本-317-5</t>
+  </si>
+  <si>
+    <t>副本-317-6</t>
+  </si>
+  <si>
+    <t>副本-317-7</t>
+  </si>
+  <si>
+    <t>副本-317-8</t>
+  </si>
+  <si>
+    <t>副本-317-9</t>
+  </si>
+  <si>
+    <t>副本-317-10</t>
+  </si>
+  <si>
+    <t>副本-318-2</t>
+  </si>
+  <si>
+    <t>副本-318-3</t>
+  </si>
+  <si>
+    <t>副本-318-4</t>
+  </si>
+  <si>
+    <t>副本-318-5</t>
+  </si>
+  <si>
+    <t>副本-318-6</t>
+  </si>
+  <si>
+    <t>副本-318-7</t>
+  </si>
+  <si>
+    <t>副本-318-8</t>
+  </si>
+  <si>
+    <t>副本-318-9</t>
+  </si>
+  <si>
+    <t>副本-318-10</t>
+  </si>
+  <si>
+    <t>副本-319-2</t>
+  </si>
+  <si>
+    <t>副本-319-3</t>
+  </si>
+  <si>
+    <t>副本-319-4</t>
+  </si>
+  <si>
+    <t>副本-319-5</t>
+  </si>
+  <si>
+    <t>副本-319-6</t>
+  </si>
+  <si>
+    <t>副本-319-7</t>
+  </si>
+  <si>
+    <t>副本-319-8</t>
+  </si>
+  <si>
+    <t>副本-319-9</t>
+  </si>
+  <si>
+    <t>副本-319-10</t>
+  </si>
+  <si>
+    <t>副本-320-2</t>
+  </si>
+  <si>
+    <t>副本-320-3</t>
+  </si>
+  <si>
+    <t>副本-320-4</t>
+  </si>
+  <si>
+    <t>副本-320-5</t>
+  </si>
+  <si>
+    <t>副本-320-6</t>
+  </si>
+  <si>
+    <t>副本-320-7</t>
+  </si>
+  <si>
+    <t>副本-320-8</t>
+  </si>
+  <si>
+    <t>副本-320-9</t>
+  </si>
+  <si>
+    <t>副本-320-10</t>
+  </si>
+  <si>
+    <t>副本-321-2</t>
+  </si>
+  <si>
+    <t>副本-321-3</t>
+  </si>
+  <si>
+    <t>副本-321-4</t>
+  </si>
+  <si>
+    <t>副本-321-5</t>
+  </si>
+  <si>
+    <t>副本-321-6</t>
+  </si>
+  <si>
+    <t>副本-321-7</t>
+  </si>
+  <si>
+    <t>副本-321-8</t>
+  </si>
+  <si>
+    <t>副本-321-9</t>
+  </si>
+  <si>
+    <t>副本-321-10</t>
+  </si>
+  <si>
+    <t>副本-322-2</t>
+  </si>
+  <si>
+    <t>副本-322-3</t>
+  </si>
+  <si>
+    <t>副本-322-4</t>
+  </si>
+  <si>
+    <t>副本-322-5</t>
+  </si>
+  <si>
+    <t>副本-322-6</t>
+  </si>
+  <si>
+    <t>副本-322-7</t>
+  </si>
+  <si>
+    <t>副本-322-8</t>
+  </si>
+  <si>
+    <t>副本-322-9</t>
+  </si>
+  <si>
+    <t>副本-322-10</t>
+  </si>
+  <si>
+    <t>副本-323-2</t>
+  </si>
+  <si>
+    <t>副本-323-3</t>
+  </si>
+  <si>
+    <t>副本-323-4</t>
+  </si>
+  <si>
+    <t>副本-323-5</t>
+  </si>
+  <si>
+    <t>副本-323-6</t>
+  </si>
+  <si>
+    <t>副本-323-7</t>
+  </si>
+  <si>
+    <t>副本-323-8</t>
+  </si>
+  <si>
+    <t>副本-323-9</t>
+  </si>
+  <si>
+    <t>副本-323-10</t>
+  </si>
+  <si>
+    <t>副本-324-2</t>
+  </si>
+  <si>
+    <t>副本-324-3</t>
+  </si>
+  <si>
+    <t>副本-324-4</t>
+  </si>
+  <si>
+    <t>副本-324-5</t>
+  </si>
+  <si>
+    <t>副本-324-6</t>
+  </si>
+  <si>
+    <t>副本-324-7</t>
+  </si>
+  <si>
+    <t>副本-324-8</t>
+  </si>
+  <si>
+    <t>副本-324-9</t>
+  </si>
+  <si>
+    <t>副本-324-10</t>
+  </si>
+  <si>
+    <t>副本-325-2</t>
+  </si>
+  <si>
+    <t>副本-325-3</t>
+  </si>
+  <si>
+    <t>副本-325-4</t>
+  </si>
+  <si>
+    <t>副本-325-5</t>
+  </si>
+  <si>
+    <t>副本-325-6</t>
+  </si>
+  <si>
+    <t>副本-325-7</t>
+  </si>
+  <si>
+    <t>副本-325-8</t>
+  </si>
+  <si>
+    <t>副本-325-9</t>
+  </si>
+  <si>
+    <t>副本-325-10</t>
+  </si>
+  <si>
+    <t>副本-326-2</t>
+  </si>
+  <si>
+    <t>副本-326-3</t>
+  </si>
+  <si>
+    <t>副本-326-4</t>
+  </si>
+  <si>
+    <t>副本-326-5</t>
+  </si>
+  <si>
+    <t>副本-326-6</t>
+  </si>
+  <si>
+    <t>副本-326-7</t>
+  </si>
+  <si>
+    <t>副本-326-8</t>
+  </si>
+  <si>
+    <t>副本-326-9</t>
+  </si>
+  <si>
+    <t>副本-326-10</t>
+  </si>
+  <si>
+    <t>副本-327-2</t>
+  </si>
+  <si>
+    <t>副本-327-3</t>
+  </si>
+  <si>
+    <t>副本-327-4</t>
+  </si>
+  <si>
+    <t>副本-327-5</t>
+  </si>
+  <si>
+    <t>副本-327-6</t>
+  </si>
+  <si>
+    <t>副本-327-7</t>
+  </si>
+  <si>
+    <t>副本-327-8</t>
+  </si>
+  <si>
+    <t>副本-327-9</t>
+  </si>
+  <si>
+    <t>副本-327-10</t>
+  </si>
+  <si>
+    <t>副本-328-2</t>
+  </si>
+  <si>
+    <t>副本-328-3</t>
+  </si>
+  <si>
+    <t>副本-328-4</t>
+  </si>
+  <si>
+    <t>副本-328-5</t>
+  </si>
+  <si>
+    <t>副本-328-6</t>
+  </si>
+  <si>
+    <t>副本-328-7</t>
+  </si>
+  <si>
+    <t>副本-328-8</t>
+  </si>
+  <si>
+    <t>副本-328-9</t>
+  </si>
+  <si>
+    <t>副本-328-10</t>
+  </si>
+  <si>
+    <t>副本-329-2</t>
+  </si>
+  <si>
+    <t>副本-329-3</t>
+  </si>
+  <si>
+    <t>副本-329-4</t>
+  </si>
+  <si>
+    <t>副本-329-5</t>
+  </si>
+  <si>
+    <t>副本-329-6</t>
+  </si>
+  <si>
+    <t>副本-329-7</t>
+  </si>
+  <si>
+    <t>副本-329-8</t>
+  </si>
+  <si>
+    <t>副本-329-9</t>
+  </si>
+  <si>
+    <t>副本-329-10</t>
+  </si>
+  <si>
+    <t>副本-330-2</t>
+  </si>
+  <si>
+    <t>副本-330-3</t>
+  </si>
+  <si>
+    <t>副本-330-4</t>
+  </si>
+  <si>
+    <t>副本-330-5</t>
+  </si>
+  <si>
+    <t>副本-330-6</t>
+  </si>
+  <si>
+    <t>副本-330-7</t>
+  </si>
+  <si>
+    <t>副本-330-8</t>
+  </si>
+  <si>
+    <t>副本-330-9</t>
+  </si>
+  <si>
+    <t>副本-330-10</t>
+  </si>
+  <si>
+    <t>副本-331-2</t>
+  </si>
+  <si>
+    <t>副本-331-3</t>
+  </si>
+  <si>
+    <t>副本-331-4</t>
+  </si>
+  <si>
+    <t>副本-331-5</t>
+  </si>
+  <si>
+    <t>副本-331-6</t>
+  </si>
+  <si>
+    <t>副本-331-7</t>
+  </si>
+  <si>
+    <t>副本-331-8</t>
+  </si>
+  <si>
+    <t>副本-331-9</t>
+  </si>
+  <si>
+    <t>副本-331-10</t>
+  </si>
+  <si>
+    <t>副本-332-2</t>
+  </si>
+  <si>
+    <t>副本-332-3</t>
+  </si>
+  <si>
+    <t>副本-332-4</t>
+  </si>
+  <si>
+    <t>副本-332-5</t>
+  </si>
+  <si>
+    <t>副本-332-6</t>
+  </si>
+  <si>
+    <t>副本-332-7</t>
+  </si>
+  <si>
+    <t>副本-332-8</t>
+  </si>
+  <si>
+    <t>副本-332-9</t>
+  </si>
+  <si>
+    <t>副本-332-10</t>
+  </si>
+  <si>
+    <t>副本-333-2</t>
+  </si>
+  <si>
+    <t>副本-333-3</t>
+  </si>
+  <si>
+    <t>副本-333-4</t>
+  </si>
+  <si>
+    <t>副本-333-5</t>
+  </si>
+  <si>
+    <t>副本-333-6</t>
+  </si>
+  <si>
+    <t>副本-333-7</t>
+  </si>
+  <si>
+    <t>副本-333-8</t>
+  </si>
+  <si>
+    <t>副本-333-9</t>
+  </si>
+  <si>
+    <t>副本-333-10</t>
+  </si>
+  <si>
+    <t>副本-334-2</t>
+  </si>
+  <si>
+    <t>副本-334-3</t>
+  </si>
+  <si>
+    <t>副本-334-4</t>
+  </si>
+  <si>
+    <t>副本-334-5</t>
+  </si>
+  <si>
+    <t>副本-334-6</t>
+  </si>
+  <si>
+    <t>副本-334-7</t>
+  </si>
+  <si>
+    <t>副本-334-8</t>
+  </si>
+  <si>
+    <t>副本-334-9</t>
+  </si>
+  <si>
+    <t>副本-334-10</t>
+  </si>
+  <si>
+    <t>副本-335-2</t>
+  </si>
+  <si>
+    <t>副本-335-3</t>
+  </si>
+  <si>
+    <t>副本-335-4</t>
+  </si>
+  <si>
+    <t>副本-335-5</t>
+  </si>
+  <si>
+    <t>副本-335-6</t>
+  </si>
+  <si>
+    <t>副本-335-7</t>
+  </si>
+  <si>
+    <t>副本-335-8</t>
+  </si>
+  <si>
+    <t>副本-335-9</t>
+  </si>
+  <si>
+    <t>副本-335-10</t>
+  </si>
+  <si>
+    <t>副本-336-2</t>
+  </si>
+  <si>
+    <t>副本-336-3</t>
+  </si>
+  <si>
+    <t>副本-336-4</t>
+  </si>
+  <si>
+    <t>副本-336-5</t>
+  </si>
+  <si>
+    <t>副本-336-6</t>
+  </si>
+  <si>
+    <t>副本-336-7</t>
+  </si>
+  <si>
+    <t>副本-336-8</t>
+  </si>
+  <si>
+    <t>副本-336-9</t>
+  </si>
+  <si>
+    <t>副本-336-10</t>
+  </si>
+  <si>
+    <t>副本-337-2</t>
+  </si>
+  <si>
+    <t>副本-337-3</t>
+  </si>
+  <si>
+    <t>副本-337-4</t>
+  </si>
+  <si>
+    <t>副本-337-5</t>
+  </si>
+  <si>
+    <t>副本-337-6</t>
+  </si>
+  <si>
+    <t>副本-337-7</t>
+  </si>
+  <si>
+    <t>副本-337-8</t>
+  </si>
+  <si>
+    <t>副本-337-9</t>
+  </si>
+  <si>
+    <t>副本-337-10</t>
+  </si>
+  <si>
+    <t>副本-338-2</t>
+  </si>
+  <si>
+    <t>副本-338-3</t>
+  </si>
+  <si>
+    <t>副本-338-4</t>
+  </si>
+  <si>
+    <t>副本-338-5</t>
+  </si>
+  <si>
+    <t>副本-338-6</t>
+  </si>
+  <si>
+    <t>副本-338-7</t>
+  </si>
+  <si>
+    <t>副本-338-8</t>
+  </si>
+  <si>
+    <t>副本-338-9</t>
+  </si>
+  <si>
+    <t>副本-338-10</t>
+  </si>
+  <si>
+    <t>副本-339-2</t>
+  </si>
+  <si>
+    <t>副本-339-3</t>
+  </si>
+  <si>
+    <t>副本-339-4</t>
+  </si>
+  <si>
+    <t>副本-339-5</t>
+  </si>
+  <si>
+    <t>副本-339-6</t>
+  </si>
+  <si>
+    <t>副本-339-7</t>
+  </si>
+  <si>
+    <t>副本-339-8</t>
+  </si>
+  <si>
+    <t>副本-339-9</t>
+  </si>
+  <si>
+    <t>副本-339-10</t>
+  </si>
+  <si>
+    <t>副本-340-2</t>
+  </si>
+  <si>
+    <t>副本-340-3</t>
+  </si>
+  <si>
+    <t>副本-340-4</t>
+  </si>
+  <si>
+    <t>副本-340-5</t>
+  </si>
+  <si>
+    <t>副本-340-6</t>
+  </si>
+  <si>
+    <t>副本-340-7</t>
+  </si>
+  <si>
+    <t>副本-340-8</t>
+  </si>
+  <si>
+    <t>副本-340-9</t>
+  </si>
+  <si>
+    <t>副本-340-10</t>
   </si>
 </sst>
 </file>
@@ -10472,10 +12178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2833"/>
+  <dimension ref="A1:B3383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2809" workbookViewId="0">
-      <selection activeCell="J2826" sqref="J2826"/>
+    <sheetView tabSelected="1" topLeftCell="A3365" workbookViewId="0">
+      <selection activeCell="K3381" sqref="K3381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -31165,7 +32871,7 @@
     </row>
     <row r="2586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2586" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="B2586">
         <v>61700</v>
@@ -31173,7 +32879,7 @@
     </row>
     <row r="2587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2587" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="B2587">
         <v>61720</v>
@@ -31181,7 +32887,7 @@
     </row>
     <row r="2588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2588" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="B2588">
         <v>61740</v>
@@ -31189,7 +32895,7 @@
     </row>
     <row r="2589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2589" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="B2589">
         <v>61760</v>
@@ -31205,7 +32911,7 @@
     </row>
     <row r="2591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2591" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="B2591">
         <v>61800</v>
@@ -31253,7 +32959,7 @@
     </row>
     <row r="2597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2597" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="B2597">
         <v>61920</v>
@@ -31269,7 +32975,7 @@
     </row>
     <row r="2599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2599" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="B2599">
         <v>61960</v>
@@ -31277,7 +32983,7 @@
     </row>
     <row r="2600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2600" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="B2600">
         <v>61980</v>
@@ -31285,7 +32991,7 @@
     </row>
     <row r="2601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2601" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="B2601">
         <v>62000</v>
@@ -31301,7 +33007,7 @@
     </row>
     <row r="2603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2603" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="B2603">
         <v>62040</v>
@@ -31349,7 +33055,7 @@
     </row>
     <row r="2609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2609" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="B2609">
         <v>62160</v>
@@ -31357,7 +33063,7 @@
     </row>
     <row r="2610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2610" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="B2610">
         <v>62180</v>
@@ -31389,7 +33095,7 @@
     </row>
     <row r="2614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2614" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="B2614">
         <v>62260</v>
@@ -31397,7 +33103,7 @@
     </row>
     <row r="2615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2615" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="B2615">
         <v>62280</v>
@@ -31405,7 +33111,7 @@
     </row>
     <row r="2616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2616" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="B2616">
         <v>62300</v>
@@ -31413,7 +33119,7 @@
     </row>
     <row r="2617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2617" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="B2617">
         <v>62320</v>
@@ -31421,7 +33127,7 @@
     </row>
     <row r="2618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2618" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="B2618">
         <v>62340</v>
@@ -31429,7 +33135,7 @@
     </row>
     <row r="2619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2619" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="B2619">
         <v>62360</v>
@@ -31437,7 +33143,7 @@
     </row>
     <row r="2620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2620" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="B2620">
         <v>62380</v>
@@ -31445,7 +33151,7 @@
     </row>
     <row r="2621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2621" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="B2621">
         <v>62400</v>
@@ -31453,7 +33159,7 @@
     </row>
     <row r="2622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2622" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="B2622">
         <v>62420</v>
@@ -31461,7 +33167,7 @@
     </row>
     <row r="2623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2623" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="B2623">
         <v>62440</v>
@@ -31477,7 +33183,7 @@
     </row>
     <row r="2625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2625" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="B2625">
         <v>62480</v>
@@ -31485,7 +33191,7 @@
     </row>
     <row r="2626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2626" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="B2626">
         <v>62500</v>
@@ -31501,7 +33207,7 @@
     </row>
     <row r="2628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2628" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="B2628">
         <v>62540</v>
@@ -31621,7 +33327,7 @@
     </row>
     <row r="2643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2643" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="B2643">
         <v>62840</v>
@@ -31653,7 +33359,7 @@
     </row>
     <row r="2647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2647" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="B2647">
         <v>62920</v>
@@ -31661,7 +33367,7 @@
     </row>
     <row r="2648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2648" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="B2648">
         <v>62940</v>
@@ -31669,7 +33375,7 @@
     </row>
     <row r="2649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2649" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="B2649">
         <v>62960</v>
@@ -31693,7 +33399,7 @@
     </row>
     <row r="2652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2652" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="B2652">
         <v>63020</v>
@@ -31741,7 +33447,7 @@
     </row>
     <row r="2658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2658" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="B2658">
         <v>63140</v>
@@ -31765,7 +33471,7 @@
     </row>
     <row r="2661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2661" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="B2661">
         <v>63200</v>
@@ -31781,7 +33487,7 @@
     </row>
     <row r="2663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2663" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="B2663">
         <v>63240</v>
@@ -31821,7 +33527,7 @@
     </row>
     <row r="2668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2668" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="B2668">
         <v>63340</v>
@@ -31837,7 +33543,7 @@
     </row>
     <row r="2670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2670" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="B2670">
         <v>63380</v>
@@ -31845,7 +33551,7 @@
     </row>
     <row r="2671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2671" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="B2671">
         <v>63400</v>
@@ -31853,7 +33559,7 @@
     </row>
     <row r="2672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2672" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="B2672">
         <v>63420</v>
@@ -31861,7 +33567,7 @@
     </row>
     <row r="2673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2673" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="B2673">
         <v>63440</v>
@@ -31869,7 +33575,7 @@
     </row>
     <row r="2674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2674" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="B2674">
         <v>63460</v>
@@ -31885,7 +33591,7 @@
     </row>
     <row r="2676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2676" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="B2676">
         <v>63500</v>
@@ -31901,7 +33607,7 @@
     </row>
     <row r="2678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2678" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="B2678">
         <v>63540</v>
@@ -31941,7 +33647,7 @@
     </row>
     <row r="2683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2683" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="B2683">
         <v>63640</v>
@@ -31957,7 +33663,7 @@
     </row>
     <row r="2685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2685" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="B2685">
         <v>63680</v>
@@ -31989,7 +33695,7 @@
     </row>
     <row r="2689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2689" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="B2689">
         <v>63760</v>
@@ -32013,7 +33719,7 @@
     </row>
     <row r="2692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2692" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="B2692">
         <v>63820</v>
@@ -32069,7 +33775,7 @@
     </row>
     <row r="2699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2699" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="B2699">
         <v>63960</v>
@@ -32125,7 +33831,7 @@
     </row>
     <row r="2706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2706" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="B2706">
         <v>64100</v>
@@ -32205,7 +33911,7 @@
     </row>
     <row r="2716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2716" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="B2716">
         <v>64300</v>
@@ -32253,7 +33959,7 @@
     </row>
     <row r="2722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2722" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="B2722">
         <v>64420</v>
@@ -32309,7 +34015,7 @@
     </row>
     <row r="2729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2729" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="B2729">
         <v>64560</v>
@@ -32333,7 +34039,7 @@
     </row>
     <row r="2732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2732" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="B2732">
         <v>64620</v>
@@ -32349,7 +34055,7 @@
     </row>
     <row r="2734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2734" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="B2734">
         <v>64660</v>
@@ -32357,7 +34063,7 @@
     </row>
     <row r="2735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2735" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="B2735">
         <v>64680</v>
@@ -32365,7 +34071,7 @@
     </row>
     <row r="2736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2736" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="B2736">
         <v>64700</v>
@@ -32373,7 +34079,7 @@
     </row>
     <row r="2737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2737" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="B2737">
         <v>64720</v>
@@ -32381,7 +34087,7 @@
     </row>
     <row r="2738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2738" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="B2738">
         <v>64740</v>
@@ -32389,7 +34095,7 @@
     </row>
     <row r="2739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2739" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="B2739">
         <v>64760</v>
@@ -32397,7 +34103,7 @@
     </row>
     <row r="2740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2740" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="B2740">
         <v>64780</v>
@@ -32405,7 +34111,7 @@
     </row>
     <row r="2741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2741" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="B2741">
         <v>64800</v>
@@ -32413,7 +34119,7 @@
     </row>
     <row r="2742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2742" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="B2742">
         <v>64820</v>
@@ -32421,7 +34127,7 @@
     </row>
     <row r="2743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2743" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="B2743">
         <v>64840</v>
@@ -32493,7 +34199,7 @@
     </row>
     <row r="2752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2752" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="B2752">
         <v>65020</v>
@@ -32501,7 +34207,7 @@
     </row>
     <row r="2753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2753" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="B2753">
         <v>65040</v>
@@ -32525,7 +34231,7 @@
     </row>
     <row r="2756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2756" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="B2756">
         <v>65100</v>
@@ -32549,7 +34255,7 @@
     </row>
     <row r="2759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2759" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="B2759">
         <v>65160</v>
@@ -32573,7 +34279,7 @@
     </row>
     <row r="2762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2762" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="B2762">
         <v>65220</v>
@@ -32581,7 +34287,7 @@
     </row>
     <row r="2763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2763" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="B2763">
         <v>65240</v>
@@ -32589,7 +34295,7 @@
     </row>
     <row r="2764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2764" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="B2764">
         <v>65260</v>
@@ -32597,7 +34303,7 @@
     </row>
     <row r="2765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2765" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="B2765">
         <v>65280</v>
@@ -32605,7 +34311,7 @@
     </row>
     <row r="2766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2766" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="B2766">
         <v>65300</v>
@@ -32613,7 +34319,7 @@
     </row>
     <row r="2767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2767" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="B2767">
         <v>65320</v>
@@ -32621,7 +34327,7 @@
     </row>
     <row r="2768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2768" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="B2768">
         <v>65340</v>
@@ -32629,7 +34335,7 @@
     </row>
     <row r="2769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2769" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="B2769">
         <v>65360</v>
@@ -32637,7 +34343,7 @@
     </row>
     <row r="2770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2770" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="B2770">
         <v>65380</v>
@@ -32645,7 +34351,7 @@
     </row>
     <row r="2771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2771" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="B2771">
         <v>65400</v>
@@ -32653,7 +34359,7 @@
     </row>
     <row r="2772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2772" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="B2772">
         <v>65420</v>
@@ -32661,7 +34367,7 @@
     </row>
     <row r="2773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2773" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="B2773">
         <v>65440</v>
@@ -32709,7 +34415,7 @@
     </row>
     <row r="2779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2779" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="B2779">
         <v>65560</v>
@@ -32733,7 +34439,7 @@
     </row>
     <row r="2782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2782" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="B2782">
         <v>65620</v>
@@ -32741,7 +34447,7 @@
     </row>
     <row r="2783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2783" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="B2783">
         <v>65640</v>
@@ -32765,7 +34471,7 @@
     </row>
     <row r="2786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2786" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="B2786">
         <v>65700</v>
@@ -32789,7 +34495,7 @@
     </row>
     <row r="2789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2789" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="B2789">
         <v>65760</v>
@@ -32845,7 +34551,7 @@
     </row>
     <row r="2796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2796" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="B2796">
         <v>65900</v>
@@ -32869,7 +34575,7 @@
     </row>
     <row r="2799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2799" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="B2799">
         <v>65960</v>
@@ -32973,7 +34679,7 @@
     </row>
     <row r="2812" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2812" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="B2812">
         <v>66220</v>
@@ -33005,7 +34711,7 @@
     </row>
     <row r="2816" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2816" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="B2816">
         <v>66300</v>
@@ -33053,7 +34759,7 @@
     </row>
     <row r="2822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2822" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="B2822">
         <v>66420</v>
@@ -33061,7 +34767,7 @@
     </row>
     <row r="2823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2823" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="B2823">
         <v>66440</v>
@@ -33085,7 +34791,7 @@
     </row>
     <row r="2826" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2826" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="B2826">
         <v>66500</v>
@@ -33141,10 +34847,4410 @@
     </row>
     <row r="2833" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2833" t="s">
-        <v>3254</v>
+        <v>3343</v>
       </c>
       <c r="B2833">
         <v>66640</v>
+      </c>
+    </row>
+    <row r="2834" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2834" t="s">
+        <v>3353</v>
+      </c>
+      <c r="B2834">
+        <v>66660</v>
+      </c>
+    </row>
+    <row r="2835" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2835" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B2835">
+        <v>66680</v>
+      </c>
+    </row>
+    <row r="2836" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2836" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B2836">
+        <v>66700</v>
+      </c>
+    </row>
+    <row r="2837" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2837" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B2837">
+        <v>66720</v>
+      </c>
+    </row>
+    <row r="2838" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2838" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B2838">
+        <v>66740</v>
+      </c>
+    </row>
+    <row r="2839" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2839" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B2839">
+        <v>66760</v>
+      </c>
+    </row>
+    <row r="2840" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2840" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B2840">
+        <v>66780</v>
+      </c>
+    </row>
+    <row r="2841" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2841" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B2841">
+        <v>66800</v>
+      </c>
+    </row>
+    <row r="2842" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2842" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B2842">
+        <v>66820</v>
+      </c>
+    </row>
+    <row r="2843" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2843" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B2843">
+        <v>66840</v>
+      </c>
+    </row>
+    <row r="2844" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2844" t="s">
+        <v>3354</v>
+      </c>
+      <c r="B2844">
+        <v>66860</v>
+      </c>
+    </row>
+    <row r="2845" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2845" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B2845">
+        <v>66880</v>
+      </c>
+    </row>
+    <row r="2846" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2846" t="s">
+        <v>3356</v>
+      </c>
+      <c r="B2846">
+        <v>66900</v>
+      </c>
+    </row>
+    <row r="2847" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2847" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B2847">
+        <v>66920</v>
+      </c>
+    </row>
+    <row r="2848" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2848" t="s">
+        <v>3358</v>
+      </c>
+      <c r="B2848">
+        <v>66940</v>
+      </c>
+    </row>
+    <row r="2849" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2849" t="s">
+        <v>3359</v>
+      </c>
+      <c r="B2849">
+        <v>66960</v>
+      </c>
+    </row>
+    <row r="2850" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2850" t="s">
+        <v>3360</v>
+      </c>
+      <c r="B2850">
+        <v>66980</v>
+      </c>
+    </row>
+    <row r="2851" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2851" t="s">
+        <v>3361</v>
+      </c>
+      <c r="B2851">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="2852" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2852" t="s">
+        <v>3362</v>
+      </c>
+      <c r="B2852">
+        <v>67020</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2853" t="s">
+        <v>3363</v>
+      </c>
+      <c r="B2853">
+        <v>67040</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2854" t="s">
+        <v>3364</v>
+      </c>
+      <c r="B2854">
+        <v>67060</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2855" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B2855">
+        <v>67080</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2856" t="s">
+        <v>3366</v>
+      </c>
+      <c r="B2856">
+        <v>67100</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2857" t="s">
+        <v>3367</v>
+      </c>
+      <c r="B2857">
+        <v>67120</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2858" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B2858">
+        <v>67140</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2859" t="s">
+        <v>3369</v>
+      </c>
+      <c r="B2859">
+        <v>67160</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2860" t="s">
+        <v>3370</v>
+      </c>
+      <c r="B2860">
+        <v>67180</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2861" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B2861">
+        <v>67200</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2862" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B2862">
+        <v>67220</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2863" t="s">
+        <v>3373</v>
+      </c>
+      <c r="B2863">
+        <v>67240</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2864" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B2864">
+        <v>67260</v>
+      </c>
+    </row>
+    <row r="2865" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2865" t="s">
+        <v>3426</v>
+      </c>
+      <c r="B2865">
+        <v>67280</v>
+      </c>
+    </row>
+    <row r="2866" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2866" t="s">
+        <v>3427</v>
+      </c>
+      <c r="B2866">
+        <v>67300</v>
+      </c>
+    </row>
+    <row r="2867" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2867" t="s">
+        <v>3428</v>
+      </c>
+      <c r="B2867">
+        <v>67320</v>
+      </c>
+    </row>
+    <row r="2868" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2868" t="s">
+        <v>3429</v>
+      </c>
+      <c r="B2868">
+        <v>67340</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2869" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B2869">
+        <v>67360</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2870" t="s">
+        <v>3431</v>
+      </c>
+      <c r="B2870">
+        <v>67380</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2871" t="s">
+        <v>3432</v>
+      </c>
+      <c r="B2871">
+        <v>67400</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2872" t="s">
+        <v>3433</v>
+      </c>
+      <c r="B2872">
+        <v>67420</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2873" t="s">
+        <v>3434</v>
+      </c>
+      <c r="B2873">
+        <v>67440</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2874" t="s">
+        <v>3374</v>
+      </c>
+      <c r="B2874">
+        <v>67460</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2875" t="s">
+        <v>3435</v>
+      </c>
+      <c r="B2875">
+        <v>67480</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2876" t="s">
+        <v>3436</v>
+      </c>
+      <c r="B2876">
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2877" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B2877">
+        <v>67520</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2878" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B2878">
+        <v>67540</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2879" t="s">
+        <v>3439</v>
+      </c>
+      <c r="B2879">
+        <v>67560</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2880" t="s">
+        <v>3440</v>
+      </c>
+      <c r="B2880">
+        <v>67580</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2881" t="s">
+        <v>3441</v>
+      </c>
+      <c r="B2881">
+        <v>67600</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2882" t="s">
+        <v>3442</v>
+      </c>
+      <c r="B2882">
+        <v>67620</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2883" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B2883">
+        <v>67640</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2884" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B2884">
+        <v>67660</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2885" t="s">
+        <v>3444</v>
+      </c>
+      <c r="B2885">
+        <v>67680</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2886" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B2886">
+        <v>67700</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2887" t="s">
+        <v>3446</v>
+      </c>
+      <c r="B2887">
+        <v>67720</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2888" t="s">
+        <v>3447</v>
+      </c>
+      <c r="B2888">
+        <v>67740</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2889" t="s">
+        <v>3448</v>
+      </c>
+      <c r="B2889">
+        <v>67760</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2890" t="s">
+        <v>3449</v>
+      </c>
+      <c r="B2890">
+        <v>67780</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2891" t="s">
+        <v>3450</v>
+      </c>
+      <c r="B2891">
+        <v>67800</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2892" t="s">
+        <v>3451</v>
+      </c>
+      <c r="B2892">
+        <v>67820</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2893" t="s">
+        <v>3452</v>
+      </c>
+      <c r="B2893">
+        <v>67840</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2894" t="s">
+        <v>3376</v>
+      </c>
+      <c r="B2894">
+        <v>67860</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2895" t="s">
+        <v>3453</v>
+      </c>
+      <c r="B2895">
+        <v>67880</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2896" t="s">
+        <v>3454</v>
+      </c>
+      <c r="B2896">
+        <v>67900</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2897" t="s">
+        <v>3455</v>
+      </c>
+      <c r="B2897">
+        <v>67920</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2898" t="s">
+        <v>3456</v>
+      </c>
+      <c r="B2898">
+        <v>67940</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2899" t="s">
+        <v>3457</v>
+      </c>
+      <c r="B2899">
+        <v>67960</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2900" t="s">
+        <v>3458</v>
+      </c>
+      <c r="B2900">
+        <v>67980</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2901" t="s">
+        <v>3459</v>
+      </c>
+      <c r="B2901">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2902" t="s">
+        <v>3460</v>
+      </c>
+      <c r="B2902">
+        <v>68020</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2903" t="s">
+        <v>3461</v>
+      </c>
+      <c r="B2903">
+        <v>68040</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2904" t="s">
+        <v>3377</v>
+      </c>
+      <c r="B2904">
+        <v>68060</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2905" t="s">
+        <v>3462</v>
+      </c>
+      <c r="B2905">
+        <v>68080</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2906" t="s">
+        <v>3463</v>
+      </c>
+      <c r="B2906">
+        <v>68100</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2907" t="s">
+        <v>3464</v>
+      </c>
+      <c r="B2907">
+        <v>68120</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2908" t="s">
+        <v>3465</v>
+      </c>
+      <c r="B2908">
+        <v>68140</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2909" t="s">
+        <v>3466</v>
+      </c>
+      <c r="B2909">
+        <v>68160</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2910" t="s">
+        <v>3467</v>
+      </c>
+      <c r="B2910">
+        <v>68180</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2911" t="s">
+        <v>3468</v>
+      </c>
+      <c r="B2911">
+        <v>68200</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2912" t="s">
+        <v>3469</v>
+      </c>
+      <c r="B2912">
+        <v>68220</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2913" t="s">
+        <v>3470</v>
+      </c>
+      <c r="B2913">
+        <v>68240</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2914" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B2914">
+        <v>68260</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2915" t="s">
+        <v>3471</v>
+      </c>
+      <c r="B2915">
+        <v>68280</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2916" t="s">
+        <v>3472</v>
+      </c>
+      <c r="B2916">
+        <v>68300</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2917" t="s">
+        <v>3473</v>
+      </c>
+      <c r="B2917">
+        <v>68320</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2918" t="s">
+        <v>3474</v>
+      </c>
+      <c r="B2918">
+        <v>68340</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2919" t="s">
+        <v>3475</v>
+      </c>
+      <c r="B2919">
+        <v>68360</v>
+      </c>
+    </row>
+    <row r="2920" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2920" t="s">
+        <v>3476</v>
+      </c>
+      <c r="B2920">
+        <v>68380</v>
+      </c>
+    </row>
+    <row r="2921" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2921" t="s">
+        <v>3477</v>
+      </c>
+      <c r="B2921">
+        <v>68400</v>
+      </c>
+    </row>
+    <row r="2922" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2922" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B2922">
+        <v>68420</v>
+      </c>
+    </row>
+    <row r="2923" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2923" t="s">
+        <v>3479</v>
+      </c>
+      <c r="B2923">
+        <v>68440</v>
+      </c>
+    </row>
+    <row r="2924" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2924" t="s">
+        <v>3379</v>
+      </c>
+      <c r="B2924">
+        <v>68460</v>
+      </c>
+    </row>
+    <row r="2925" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2925" t="s">
+        <v>3480</v>
+      </c>
+      <c r="B2925">
+        <v>68480</v>
+      </c>
+    </row>
+    <row r="2926" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2926" t="s">
+        <v>3481</v>
+      </c>
+      <c r="B2926">
+        <v>68500</v>
+      </c>
+    </row>
+    <row r="2927" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2927" t="s">
+        <v>3482</v>
+      </c>
+      <c r="B2927">
+        <v>68520</v>
+      </c>
+    </row>
+    <row r="2928" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2928" t="s">
+        <v>3483</v>
+      </c>
+      <c r="B2928">
+        <v>68540</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2929" t="s">
+        <v>3484</v>
+      </c>
+      <c r="B2929">
+        <v>68560</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2930" t="s">
+        <v>3485</v>
+      </c>
+      <c r="B2930">
+        <v>68580</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2931" t="s">
+        <v>3486</v>
+      </c>
+      <c r="B2931">
+        <v>68600</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2932" t="s">
+        <v>3487</v>
+      </c>
+      <c r="B2932">
+        <v>68620</v>
+      </c>
+    </row>
+    <row r="2933" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2933" t="s">
+        <v>3488</v>
+      </c>
+      <c r="B2933">
+        <v>68640</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2934" t="s">
+        <v>3380</v>
+      </c>
+      <c r="B2934">
+        <v>68660</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2935" t="s">
+        <v>3489</v>
+      </c>
+      <c r="B2935">
+        <v>68680</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2936" t="s">
+        <v>3490</v>
+      </c>
+      <c r="B2936">
+        <v>68700</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2937" t="s">
+        <v>3491</v>
+      </c>
+      <c r="B2937">
+        <v>68720</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2938" t="s">
+        <v>3492</v>
+      </c>
+      <c r="B2938">
+        <v>68740</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2939" t="s">
+        <v>3493</v>
+      </c>
+      <c r="B2939">
+        <v>68760</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2940" t="s">
+        <v>3494</v>
+      </c>
+      <c r="B2940">
+        <v>68780</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2941" t="s">
+        <v>3495</v>
+      </c>
+      <c r="B2941">
+        <v>68800</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2942" t="s">
+        <v>3496</v>
+      </c>
+      <c r="B2942">
+        <v>68820</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2943" t="s">
+        <v>3497</v>
+      </c>
+      <c r="B2943">
+        <v>68840</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2944" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B2944">
+        <v>68860</v>
+      </c>
+    </row>
+    <row r="2945" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2945" t="s">
+        <v>3498</v>
+      </c>
+      <c r="B2945">
+        <v>68880</v>
+      </c>
+    </row>
+    <row r="2946" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2946" t="s">
+        <v>3499</v>
+      </c>
+      <c r="B2946">
+        <v>68900</v>
+      </c>
+    </row>
+    <row r="2947" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2947" t="s">
+        <v>3500</v>
+      </c>
+      <c r="B2947">
+        <v>68920</v>
+      </c>
+    </row>
+    <row r="2948" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2948" t="s">
+        <v>3501</v>
+      </c>
+      <c r="B2948">
+        <v>68940</v>
+      </c>
+    </row>
+    <row r="2949" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2949" t="s">
+        <v>3502</v>
+      </c>
+      <c r="B2949">
+        <v>68960</v>
+      </c>
+    </row>
+    <row r="2950" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2950" t="s">
+        <v>3503</v>
+      </c>
+      <c r="B2950">
+        <v>68980</v>
+      </c>
+    </row>
+    <row r="2951" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2951" t="s">
+        <v>3504</v>
+      </c>
+      <c r="B2951">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="2952" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2952" t="s">
+        <v>3505</v>
+      </c>
+      <c r="B2952">
+        <v>69020</v>
+      </c>
+    </row>
+    <row r="2953" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2953" t="s">
+        <v>3506</v>
+      </c>
+      <c r="B2953">
+        <v>69040</v>
+      </c>
+    </row>
+    <row r="2954" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2954" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B2954">
+        <v>69060</v>
+      </c>
+    </row>
+    <row r="2955" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2955" t="s">
+        <v>3507</v>
+      </c>
+      <c r="B2955">
+        <v>69080</v>
+      </c>
+    </row>
+    <row r="2956" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2956" t="s">
+        <v>3508</v>
+      </c>
+      <c r="B2956">
+        <v>69100</v>
+      </c>
+    </row>
+    <row r="2957" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2957" t="s">
+        <v>3509</v>
+      </c>
+      <c r="B2957">
+        <v>69120</v>
+      </c>
+    </row>
+    <row r="2958" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2958" t="s">
+        <v>3510</v>
+      </c>
+      <c r="B2958">
+        <v>69140</v>
+      </c>
+    </row>
+    <row r="2959" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2959" t="s">
+        <v>3511</v>
+      </c>
+      <c r="B2959">
+        <v>69160</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2960" t="s">
+        <v>3512</v>
+      </c>
+      <c r="B2960">
+        <v>69180</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2961" t="s">
+        <v>3513</v>
+      </c>
+      <c r="B2961">
+        <v>69200</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2962" t="s">
+        <v>3514</v>
+      </c>
+      <c r="B2962">
+        <v>69220</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2963" t="s">
+        <v>3515</v>
+      </c>
+      <c r="B2963">
+        <v>69240</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2964" t="s">
+        <v>3383</v>
+      </c>
+      <c r="B2964">
+        <v>69260</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2965" t="s">
+        <v>3516</v>
+      </c>
+      <c r="B2965">
+        <v>69280</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2966" t="s">
+        <v>3517</v>
+      </c>
+      <c r="B2966">
+        <v>69300</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2967" t="s">
+        <v>3518</v>
+      </c>
+      <c r="B2967">
+        <v>69320</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2968" t="s">
+        <v>3519</v>
+      </c>
+      <c r="B2968">
+        <v>69340</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2969" t="s">
+        <v>3520</v>
+      </c>
+      <c r="B2969">
+        <v>69360</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2970" t="s">
+        <v>3521</v>
+      </c>
+      <c r="B2970">
+        <v>69380</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2971" t="s">
+        <v>3522</v>
+      </c>
+      <c r="B2971">
+        <v>69400</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2972" t="s">
+        <v>3523</v>
+      </c>
+      <c r="B2972">
+        <v>69420</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2973" t="s">
+        <v>3524</v>
+      </c>
+      <c r="B2973">
+        <v>69440</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2974" t="s">
+        <v>3384</v>
+      </c>
+      <c r="B2974">
+        <v>69460</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2975" t="s">
+        <v>3525</v>
+      </c>
+      <c r="B2975">
+        <v>69480</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2976" t="s">
+        <v>3526</v>
+      </c>
+      <c r="B2976">
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2977" t="s">
+        <v>3527</v>
+      </c>
+      <c r="B2977">
+        <v>69520</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2978" t="s">
+        <v>3528</v>
+      </c>
+      <c r="B2978">
+        <v>69540</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2979" t="s">
+        <v>3529</v>
+      </c>
+      <c r="B2979">
+        <v>69560</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2980" t="s">
+        <v>3530</v>
+      </c>
+      <c r="B2980">
+        <v>69580</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2981" t="s">
+        <v>3531</v>
+      </c>
+      <c r="B2981">
+        <v>69600</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2982" t="s">
+        <v>3532</v>
+      </c>
+      <c r="B2982">
+        <v>69620</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2983" t="s">
+        <v>3533</v>
+      </c>
+      <c r="B2983">
+        <v>69640</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2984" t="s">
+        <v>3385</v>
+      </c>
+      <c r="B2984">
+        <v>69660</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2985" t="s">
+        <v>3534</v>
+      </c>
+      <c r="B2985">
+        <v>69680</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2986" t="s">
+        <v>3535</v>
+      </c>
+      <c r="B2986">
+        <v>69700</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2987" t="s">
+        <v>3536</v>
+      </c>
+      <c r="B2987">
+        <v>69720</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2988" t="s">
+        <v>3537</v>
+      </c>
+      <c r="B2988">
+        <v>69740</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2989" t="s">
+        <v>3538</v>
+      </c>
+      <c r="B2989">
+        <v>69760</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2990" t="s">
+        <v>3539</v>
+      </c>
+      <c r="B2990">
+        <v>69780</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2991" t="s">
+        <v>3540</v>
+      </c>
+      <c r="B2991">
+        <v>69800</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2992" t="s">
+        <v>3541</v>
+      </c>
+      <c r="B2992">
+        <v>69820</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2993" t="s">
+        <v>3542</v>
+      </c>
+      <c r="B2993">
+        <v>69840</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2994" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B2994">
+        <v>69860</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2995" t="s">
+        <v>3543</v>
+      </c>
+      <c r="B2995">
+        <v>69880</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2996" t="s">
+        <v>3544</v>
+      </c>
+      <c r="B2996">
+        <v>69900</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2997" t="s">
+        <v>3545</v>
+      </c>
+      <c r="B2997">
+        <v>69920</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2998" t="s">
+        <v>3546</v>
+      </c>
+      <c r="B2998">
+        <v>69940</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2999" t="s">
+        <v>3547</v>
+      </c>
+      <c r="B2999">
+        <v>69960</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3000" t="s">
+        <v>3548</v>
+      </c>
+      <c r="B3000">
+        <v>69980</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3001" t="s">
+        <v>3549</v>
+      </c>
+      <c r="B3001">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3002" t="s">
+        <v>3550</v>
+      </c>
+      <c r="B3002">
+        <v>70020</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3003" t="s">
+        <v>3551</v>
+      </c>
+      <c r="B3003">
+        <v>70040</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3004" t="s">
+        <v>3387</v>
+      </c>
+      <c r="B3004">
+        <v>70060</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3005" t="s">
+        <v>3552</v>
+      </c>
+      <c r="B3005">
+        <v>70080</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3006" t="s">
+        <v>3553</v>
+      </c>
+      <c r="B3006">
+        <v>70100</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3007" t="s">
+        <v>3554</v>
+      </c>
+      <c r="B3007">
+        <v>70120</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3008" t="s">
+        <v>3555</v>
+      </c>
+      <c r="B3008">
+        <v>70140</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3009" t="s">
+        <v>3556</v>
+      </c>
+      <c r="B3009">
+        <v>70160</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3010" t="s">
+        <v>3557</v>
+      </c>
+      <c r="B3010">
+        <v>70180</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3011" t="s">
+        <v>3558</v>
+      </c>
+      <c r="B3011">
+        <v>70200</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3012" t="s">
+        <v>3559</v>
+      </c>
+      <c r="B3012">
+        <v>70220</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3013" t="s">
+        <v>3560</v>
+      </c>
+      <c r="B3013">
+        <v>70240</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3014" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B3014">
+        <v>70260</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3015" t="s">
+        <v>3561</v>
+      </c>
+      <c r="B3015">
+        <v>70280</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3016" t="s">
+        <v>3562</v>
+      </c>
+      <c r="B3016">
+        <v>70300</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3017" t="s">
+        <v>3563</v>
+      </c>
+      <c r="B3017">
+        <v>70320</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3018" t="s">
+        <v>3564</v>
+      </c>
+      <c r="B3018">
+        <v>70340</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3019" t="s">
+        <v>3565</v>
+      </c>
+      <c r="B3019">
+        <v>70360</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3020" t="s">
+        <v>3566</v>
+      </c>
+      <c r="B3020">
+        <v>70380</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3021" t="s">
+        <v>3567</v>
+      </c>
+      <c r="B3021">
+        <v>70400</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3022" t="s">
+        <v>3568</v>
+      </c>
+      <c r="B3022">
+        <v>70420</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3023" t="s">
+        <v>3569</v>
+      </c>
+      <c r="B3023">
+        <v>70440</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3024" t="s">
+        <v>3389</v>
+      </c>
+      <c r="B3024">
+        <v>70460</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3025" t="s">
+        <v>3570</v>
+      </c>
+      <c r="B3025">
+        <v>70480</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3026" t="s">
+        <v>3571</v>
+      </c>
+      <c r="B3026">
+        <v>70500</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3027" t="s">
+        <v>3572</v>
+      </c>
+      <c r="B3027">
+        <v>70520</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3028" t="s">
+        <v>3573</v>
+      </c>
+      <c r="B3028">
+        <v>70540</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3029" t="s">
+        <v>3574</v>
+      </c>
+      <c r="B3029">
+        <v>70560</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3030" t="s">
+        <v>3575</v>
+      </c>
+      <c r="B3030">
+        <v>70580</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3031" t="s">
+        <v>3576</v>
+      </c>
+      <c r="B3031">
+        <v>70600</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3032" t="s">
+        <v>3577</v>
+      </c>
+      <c r="B3032">
+        <v>70620</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3033" t="s">
+        <v>3578</v>
+      </c>
+      <c r="B3033">
+        <v>70640</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3034" t="s">
+        <v>3390</v>
+      </c>
+      <c r="B3034">
+        <v>70660</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3035" t="s">
+        <v>3579</v>
+      </c>
+      <c r="B3035">
+        <v>70680</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3036" t="s">
+        <v>3580</v>
+      </c>
+      <c r="B3036">
+        <v>70700</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3037" t="s">
+        <v>3581</v>
+      </c>
+      <c r="B3037">
+        <v>70720</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3038" t="s">
+        <v>3582</v>
+      </c>
+      <c r="B3038">
+        <v>70740</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3039" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B3039">
+        <v>70760</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3040" t="s">
+        <v>3584</v>
+      </c>
+      <c r="B3040">
+        <v>70780</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3041" t="s">
+        <v>3585</v>
+      </c>
+      <c r="B3041">
+        <v>70800</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3042" t="s">
+        <v>3586</v>
+      </c>
+      <c r="B3042">
+        <v>70820</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3043" t="s">
+        <v>3587</v>
+      </c>
+      <c r="B3043">
+        <v>70840</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3044" t="s">
+        <v>3391</v>
+      </c>
+      <c r="B3044">
+        <v>70860</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3045" t="s">
+        <v>3588</v>
+      </c>
+      <c r="B3045">
+        <v>70880</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3046" t="s">
+        <v>3589</v>
+      </c>
+      <c r="B3046">
+        <v>70900</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3047" t="s">
+        <v>3590</v>
+      </c>
+      <c r="B3047">
+        <v>70920</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3048" t="s">
+        <v>3591</v>
+      </c>
+      <c r="B3048">
+        <v>70940</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3049" t="s">
+        <v>3592</v>
+      </c>
+      <c r="B3049">
+        <v>70960</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3050" t="s">
+        <v>3593</v>
+      </c>
+      <c r="B3050">
+        <v>70980</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3051" t="s">
+        <v>3594</v>
+      </c>
+      <c r="B3051">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3052" t="s">
+        <v>3595</v>
+      </c>
+      <c r="B3052">
+        <v>71020</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3053" t="s">
+        <v>3596</v>
+      </c>
+      <c r="B3053">
+        <v>71040</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3054" t="s">
+        <v>3392</v>
+      </c>
+      <c r="B3054">
+        <v>71060</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3055" t="s">
+        <v>3597</v>
+      </c>
+      <c r="B3055">
+        <v>71080</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3056" t="s">
+        <v>3598</v>
+      </c>
+      <c r="B3056">
+        <v>71100</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3057" t="s">
+        <v>3599</v>
+      </c>
+      <c r="B3057">
+        <v>71120</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3058" t="s">
+        <v>3600</v>
+      </c>
+      <c r="B3058">
+        <v>71140</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3059" t="s">
+        <v>3601</v>
+      </c>
+      <c r="B3059">
+        <v>71160</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3060" t="s">
+        <v>3602</v>
+      </c>
+      <c r="B3060">
+        <v>71180</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3061" t="s">
+        <v>3603</v>
+      </c>
+      <c r="B3061">
+        <v>71200</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3062" t="s">
+        <v>3604</v>
+      </c>
+      <c r="B3062">
+        <v>71220</v>
+      </c>
+    </row>
+    <row r="3063" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3063" t="s">
+        <v>3605</v>
+      </c>
+      <c r="B3063">
+        <v>71240</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3064" t="s">
+        <v>3393</v>
+      </c>
+      <c r="B3064">
+        <v>71260</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3065" t="s">
+        <v>3606</v>
+      </c>
+      <c r="B3065">
+        <v>71280</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3066" t="s">
+        <v>3607</v>
+      </c>
+      <c r="B3066">
+        <v>71300</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3067" t="s">
+        <v>3608</v>
+      </c>
+      <c r="B3067">
+        <v>71320</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3068" t="s">
+        <v>3609</v>
+      </c>
+      <c r="B3068">
+        <v>71340</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3069" t="s">
+        <v>3610</v>
+      </c>
+      <c r="B3069">
+        <v>71360</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3070" t="s">
+        <v>3611</v>
+      </c>
+      <c r="B3070">
+        <v>71380</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3071" t="s">
+        <v>3612</v>
+      </c>
+      <c r="B3071">
+        <v>71400</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3072" t="s">
+        <v>3613</v>
+      </c>
+      <c r="B3072">
+        <v>71420</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3073" t="s">
+        <v>3614</v>
+      </c>
+      <c r="B3073">
+        <v>71440</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3074" t="s">
+        <v>3394</v>
+      </c>
+      <c r="B3074">
+        <v>71460</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3075" t="s">
+        <v>3615</v>
+      </c>
+      <c r="B3075">
+        <v>71480</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3076" t="s">
+        <v>3616</v>
+      </c>
+      <c r="B3076">
+        <v>71500</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3077" t="s">
+        <v>3617</v>
+      </c>
+      <c r="B3077">
+        <v>71520</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3078" t="s">
+        <v>3618</v>
+      </c>
+      <c r="B3078">
+        <v>71540</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3079" t="s">
+        <v>3619</v>
+      </c>
+      <c r="B3079">
+        <v>71560</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3080" t="s">
+        <v>3620</v>
+      </c>
+      <c r="B3080">
+        <v>71580</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3081" t="s">
+        <v>3621</v>
+      </c>
+      <c r="B3081">
+        <v>71600</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3082" t="s">
+        <v>3622</v>
+      </c>
+      <c r="B3082">
+        <v>71620</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3083" t="s">
+        <v>3623</v>
+      </c>
+      <c r="B3083">
+        <v>71640</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3084" t="s">
+        <v>3395</v>
+      </c>
+      <c r="B3084">
+        <v>71660</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3085" t="s">
+        <v>3624</v>
+      </c>
+      <c r="B3085">
+        <v>71680</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3086" t="s">
+        <v>3625</v>
+      </c>
+      <c r="B3086">
+        <v>71700</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3087" t="s">
+        <v>3626</v>
+      </c>
+      <c r="B3087">
+        <v>71720</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3088" t="s">
+        <v>3627</v>
+      </c>
+      <c r="B3088">
+        <v>71740</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3089" t="s">
+        <v>3628</v>
+      </c>
+      <c r="B3089">
+        <v>71760</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3090" t="s">
+        <v>3629</v>
+      </c>
+      <c r="B3090">
+        <v>71780</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3091" t="s">
+        <v>3630</v>
+      </c>
+      <c r="B3091">
+        <v>71800</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3092" t="s">
+        <v>3631</v>
+      </c>
+      <c r="B3092">
+        <v>71820</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3093" t="s">
+        <v>3632</v>
+      </c>
+      <c r="B3093">
+        <v>71840</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3094" t="s">
+        <v>3396</v>
+      </c>
+      <c r="B3094">
+        <v>71860</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3095" t="s">
+        <v>3633</v>
+      </c>
+      <c r="B3095">
+        <v>71880</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3096" t="s">
+        <v>3634</v>
+      </c>
+      <c r="B3096">
+        <v>71900</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3097" t="s">
+        <v>3635</v>
+      </c>
+      <c r="B3097">
+        <v>71920</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3098" t="s">
+        <v>3636</v>
+      </c>
+      <c r="B3098">
+        <v>71940</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3099" t="s">
+        <v>3637</v>
+      </c>
+      <c r="B3099">
+        <v>71960</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3100" t="s">
+        <v>3638</v>
+      </c>
+      <c r="B3100">
+        <v>71980</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3101" t="s">
+        <v>3639</v>
+      </c>
+      <c r="B3101">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3102" t="s">
+        <v>3640</v>
+      </c>
+      <c r="B3102">
+        <v>72020</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3103" t="s">
+        <v>3641</v>
+      </c>
+      <c r="B3103">
+        <v>72040</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3104" t="s">
+        <v>3397</v>
+      </c>
+      <c r="B3104">
+        <v>72060</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3105" t="s">
+        <v>3642</v>
+      </c>
+      <c r="B3105">
+        <v>72080</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3106" t="s">
+        <v>3643</v>
+      </c>
+      <c r="B3106">
+        <v>72100</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3107" t="s">
+        <v>3644</v>
+      </c>
+      <c r="B3107">
+        <v>72120</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3108" t="s">
+        <v>3645</v>
+      </c>
+      <c r="B3108">
+        <v>72140</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3109" t="s">
+        <v>3646</v>
+      </c>
+      <c r="B3109">
+        <v>72160</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3110" t="s">
+        <v>3647</v>
+      </c>
+      <c r="B3110">
+        <v>72180</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3111" t="s">
+        <v>3648</v>
+      </c>
+      <c r="B3111">
+        <v>72200</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3112" t="s">
+        <v>3649</v>
+      </c>
+      <c r="B3112">
+        <v>72220</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3113" t="s">
+        <v>3650</v>
+      </c>
+      <c r="B3113">
+        <v>72240</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3114" t="s">
+        <v>3398</v>
+      </c>
+      <c r="B3114">
+        <v>72260</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3115" t="s">
+        <v>3651</v>
+      </c>
+      <c r="B3115">
+        <v>72280</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3116" t="s">
+        <v>3652</v>
+      </c>
+      <c r="B3116">
+        <v>72300</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3117" t="s">
+        <v>3653</v>
+      </c>
+      <c r="B3117">
+        <v>72320</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3118" t="s">
+        <v>3654</v>
+      </c>
+      <c r="B3118">
+        <v>72340</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3119" t="s">
+        <v>3655</v>
+      </c>
+      <c r="B3119">
+        <v>72360</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3120" t="s">
+        <v>3656</v>
+      </c>
+      <c r="B3120">
+        <v>72380</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3121" t="s">
+        <v>3657</v>
+      </c>
+      <c r="B3121">
+        <v>72400</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3122" t="s">
+        <v>3658</v>
+      </c>
+      <c r="B3122">
+        <v>72420</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3123" t="s">
+        <v>3659</v>
+      </c>
+      <c r="B3123">
+        <v>72440</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3124" t="s">
+        <v>3399</v>
+      </c>
+      <c r="B3124">
+        <v>72460</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3125" t="s">
+        <v>3660</v>
+      </c>
+      <c r="B3125">
+        <v>72480</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3126" t="s">
+        <v>3661</v>
+      </c>
+      <c r="B3126">
+        <v>72500</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3127" t="s">
+        <v>3662</v>
+      </c>
+      <c r="B3127">
+        <v>72520</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3128" t="s">
+        <v>3663</v>
+      </c>
+      <c r="B3128">
+        <v>72540</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3129" t="s">
+        <v>3664</v>
+      </c>
+      <c r="B3129">
+        <v>72560</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3130" t="s">
+        <v>3665</v>
+      </c>
+      <c r="B3130">
+        <v>72580</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3131" t="s">
+        <v>3666</v>
+      </c>
+      <c r="B3131">
+        <v>72600</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3132" t="s">
+        <v>3667</v>
+      </c>
+      <c r="B3132">
+        <v>72620</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3133" t="s">
+        <v>3668</v>
+      </c>
+      <c r="B3133">
+        <v>72640</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3134" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B3134">
+        <v>72660</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3135" t="s">
+        <v>3669</v>
+      </c>
+      <c r="B3135">
+        <v>72680</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3136" t="s">
+        <v>3670</v>
+      </c>
+      <c r="B3136">
+        <v>72700</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3137" t="s">
+        <v>3671</v>
+      </c>
+      <c r="B3137">
+        <v>72720</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3138" t="s">
+        <v>3672</v>
+      </c>
+      <c r="B3138">
+        <v>72740</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3139" t="s">
+        <v>3673</v>
+      </c>
+      <c r="B3139">
+        <v>72760</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3140" t="s">
+        <v>3674</v>
+      </c>
+      <c r="B3140">
+        <v>72780</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3141" t="s">
+        <v>3675</v>
+      </c>
+      <c r="B3141">
+        <v>72800</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3142" t="s">
+        <v>3676</v>
+      </c>
+      <c r="B3142">
+        <v>72820</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3143" t="s">
+        <v>3677</v>
+      </c>
+      <c r="B3143">
+        <v>72840</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3144" t="s">
+        <v>3401</v>
+      </c>
+      <c r="B3144">
+        <v>72860</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3145" t="s">
+        <v>3678</v>
+      </c>
+      <c r="B3145">
+        <v>72880</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3146" t="s">
+        <v>3679</v>
+      </c>
+      <c r="B3146">
+        <v>72900</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3147" t="s">
+        <v>3680</v>
+      </c>
+      <c r="B3147">
+        <v>72920</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3148" t="s">
+        <v>3681</v>
+      </c>
+      <c r="B3148">
+        <v>72940</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3149" t="s">
+        <v>3682</v>
+      </c>
+      <c r="B3149">
+        <v>72960</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3150" t="s">
+        <v>3683</v>
+      </c>
+      <c r="B3150">
+        <v>72980</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3151" t="s">
+        <v>3684</v>
+      </c>
+      <c r="B3151">
+        <v>73000</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3152" t="s">
+        <v>3685</v>
+      </c>
+      <c r="B3152">
+        <v>73020</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3153" t="s">
+        <v>3686</v>
+      </c>
+      <c r="B3153">
+        <v>73040</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3154" t="s">
+        <v>3402</v>
+      </c>
+      <c r="B3154">
+        <v>73060</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3155" t="s">
+        <v>3687</v>
+      </c>
+      <c r="B3155">
+        <v>73080</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3156" t="s">
+        <v>3688</v>
+      </c>
+      <c r="B3156">
+        <v>73100</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3157" t="s">
+        <v>3689</v>
+      </c>
+      <c r="B3157">
+        <v>73120</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3158" t="s">
+        <v>3690</v>
+      </c>
+      <c r="B3158">
+        <v>73140</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3159" t="s">
+        <v>3691</v>
+      </c>
+      <c r="B3159">
+        <v>73160</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3160" t="s">
+        <v>3692</v>
+      </c>
+      <c r="B3160">
+        <v>73180</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3161" t="s">
+        <v>3693</v>
+      </c>
+      <c r="B3161">
+        <v>73200</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3162" t="s">
+        <v>3694</v>
+      </c>
+      <c r="B3162">
+        <v>73220</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3163" t="s">
+        <v>3695</v>
+      </c>
+      <c r="B3163">
+        <v>73240</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3164" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B3164">
+        <v>73260</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3165" t="s">
+        <v>3696</v>
+      </c>
+      <c r="B3165">
+        <v>73280</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3166" t="s">
+        <v>3697</v>
+      </c>
+      <c r="B3166">
+        <v>73300</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3167" t="s">
+        <v>3698</v>
+      </c>
+      <c r="B3167">
+        <v>73320</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3168" t="s">
+        <v>3699</v>
+      </c>
+      <c r="B3168">
+        <v>73340</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3169" t="s">
+        <v>3700</v>
+      </c>
+      <c r="B3169">
+        <v>73360</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3170" t="s">
+        <v>3701</v>
+      </c>
+      <c r="B3170">
+        <v>73380</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3171" t="s">
+        <v>3702</v>
+      </c>
+      <c r="B3171">
+        <v>73400</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3172" t="s">
+        <v>3703</v>
+      </c>
+      <c r="B3172">
+        <v>73420</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3173" t="s">
+        <v>3704</v>
+      </c>
+      <c r="B3173">
+        <v>73440</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3174" t="s">
+        <v>3404</v>
+      </c>
+      <c r="B3174">
+        <v>73460</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3175" t="s">
+        <v>3705</v>
+      </c>
+      <c r="B3175">
+        <v>73480</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3176" t="s">
+        <v>3706</v>
+      </c>
+      <c r="B3176">
+        <v>73500</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3177" t="s">
+        <v>3707</v>
+      </c>
+      <c r="B3177">
+        <v>73520</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3178" t="s">
+        <v>3708</v>
+      </c>
+      <c r="B3178">
+        <v>73540</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3179" t="s">
+        <v>3709</v>
+      </c>
+      <c r="B3179">
+        <v>73560</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3180" t="s">
+        <v>3710</v>
+      </c>
+      <c r="B3180">
+        <v>73580</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3181" t="s">
+        <v>3711</v>
+      </c>
+      <c r="B3181">
+        <v>73600</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3182" t="s">
+        <v>3712</v>
+      </c>
+      <c r="B3182">
+        <v>73620</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3183" t="s">
+        <v>3713</v>
+      </c>
+      <c r="B3183">
+        <v>73640</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3184" t="s">
+        <v>3405</v>
+      </c>
+      <c r="B3184">
+        <v>73660</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3185" t="s">
+        <v>3714</v>
+      </c>
+      <c r="B3185">
+        <v>73680</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3186" t="s">
+        <v>3715</v>
+      </c>
+      <c r="B3186">
+        <v>73700</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3187" t="s">
+        <v>3716</v>
+      </c>
+      <c r="B3187">
+        <v>73720</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3188" t="s">
+        <v>3717</v>
+      </c>
+      <c r="B3188">
+        <v>73740</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3189" t="s">
+        <v>3718</v>
+      </c>
+      <c r="B3189">
+        <v>73760</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3190" t="s">
+        <v>3719</v>
+      </c>
+      <c r="B3190">
+        <v>73780</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3191" t="s">
+        <v>3720</v>
+      </c>
+      <c r="B3191">
+        <v>73800</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3192" t="s">
+        <v>3721</v>
+      </c>
+      <c r="B3192">
+        <v>73820</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3193" t="s">
+        <v>3722</v>
+      </c>
+      <c r="B3193">
+        <v>73840</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3194" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B3194">
+        <v>73860</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3195" t="s">
+        <v>3723</v>
+      </c>
+      <c r="B3195">
+        <v>73880</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3196" t="s">
+        <v>3724</v>
+      </c>
+      <c r="B3196">
+        <v>73900</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3197" t="s">
+        <v>3725</v>
+      </c>
+      <c r="B3197">
+        <v>73920</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3198" t="s">
+        <v>3726</v>
+      </c>
+      <c r="B3198">
+        <v>73940</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3199" t="s">
+        <v>3727</v>
+      </c>
+      <c r="B3199">
+        <v>73960</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3200" t="s">
+        <v>3728</v>
+      </c>
+      <c r="B3200">
+        <v>73980</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3201" t="s">
+        <v>3729</v>
+      </c>
+      <c r="B3201">
+        <v>74000</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3202" t="s">
+        <v>3730</v>
+      </c>
+      <c r="B3202">
+        <v>74020</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3203" t="s">
+        <v>3731</v>
+      </c>
+      <c r="B3203">
+        <v>74040</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3204" t="s">
+        <v>3407</v>
+      </c>
+      <c r="B3204">
+        <v>74060</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3205" t="s">
+        <v>3732</v>
+      </c>
+      <c r="B3205">
+        <v>74080</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3206" t="s">
+        <v>3733</v>
+      </c>
+      <c r="B3206">
+        <v>74100</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3207" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B3207">
+        <v>74120</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3208" t="s">
+        <v>3735</v>
+      </c>
+      <c r="B3208">
+        <v>74140</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3209" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B3209">
+        <v>74160</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3210" t="s">
+        <v>3737</v>
+      </c>
+      <c r="B3210">
+        <v>74180</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3211" t="s">
+        <v>3738</v>
+      </c>
+      <c r="B3211">
+        <v>74200</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3212" t="s">
+        <v>3739</v>
+      </c>
+      <c r="B3212">
+        <v>74220</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3213" t="s">
+        <v>3740</v>
+      </c>
+      <c r="B3213">
+        <v>74240</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3214" t="s">
+        <v>3408</v>
+      </c>
+      <c r="B3214">
+        <v>74260</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3215" t="s">
+        <v>3741</v>
+      </c>
+      <c r="B3215">
+        <v>74280</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3216" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B3216">
+        <v>74300</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3217" t="s">
+        <v>3743</v>
+      </c>
+      <c r="B3217">
+        <v>74320</v>
+      </c>
+    </row>
+    <row r="3218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3218" t="s">
+        <v>3744</v>
+      </c>
+      <c r="B3218">
+        <v>74340</v>
+      </c>
+    </row>
+    <row r="3219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3219" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B3219">
+        <v>74360</v>
+      </c>
+    </row>
+    <row r="3220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3220" t="s">
+        <v>3746</v>
+      </c>
+      <c r="B3220">
+        <v>74380</v>
+      </c>
+    </row>
+    <row r="3221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3221" t="s">
+        <v>3747</v>
+      </c>
+      <c r="B3221">
+        <v>74400</v>
+      </c>
+    </row>
+    <row r="3222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3222" t="s">
+        <v>3748</v>
+      </c>
+      <c r="B3222">
+        <v>74420</v>
+      </c>
+    </row>
+    <row r="3223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3223" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B3223">
+        <v>74440</v>
+      </c>
+    </row>
+    <row r="3224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3224" t="s">
+        <v>3409</v>
+      </c>
+      <c r="B3224">
+        <v>74460</v>
+      </c>
+    </row>
+    <row r="3225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3225" t="s">
+        <v>3750</v>
+      </c>
+      <c r="B3225">
+        <v>74480</v>
+      </c>
+    </row>
+    <row r="3226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3226" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B3226">
+        <v>74500</v>
+      </c>
+    </row>
+    <row r="3227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3227" t="s">
+        <v>3752</v>
+      </c>
+      <c r="B3227">
+        <v>74520</v>
+      </c>
+    </row>
+    <row r="3228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3228" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B3228">
+        <v>74540</v>
+      </c>
+    </row>
+    <row r="3229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3229" t="s">
+        <v>3754</v>
+      </c>
+      <c r="B3229">
+        <v>74560</v>
+      </c>
+    </row>
+    <row r="3230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3230" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B3230">
+        <v>74580</v>
+      </c>
+    </row>
+    <row r="3231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3231" t="s">
+        <v>3756</v>
+      </c>
+      <c r="B3231">
+        <v>74600</v>
+      </c>
+    </row>
+    <row r="3232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3232" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B3232">
+        <v>74620</v>
+      </c>
+    </row>
+    <row r="3233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3233" t="s">
+        <v>3758</v>
+      </c>
+      <c r="B3233">
+        <v>74640</v>
+      </c>
+    </row>
+    <row r="3234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3234" t="s">
+        <v>3410</v>
+      </c>
+      <c r="B3234">
+        <v>74660</v>
+      </c>
+    </row>
+    <row r="3235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3235" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B3235">
+        <v>74680</v>
+      </c>
+    </row>
+    <row r="3236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3236" t="s">
+        <v>3760</v>
+      </c>
+      <c r="B3236">
+        <v>74700</v>
+      </c>
+    </row>
+    <row r="3237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3237" t="s">
+        <v>3761</v>
+      </c>
+      <c r="B3237">
+        <v>74720</v>
+      </c>
+    </row>
+    <row r="3238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3238" t="s">
+        <v>3762</v>
+      </c>
+      <c r="B3238">
+        <v>74740</v>
+      </c>
+    </row>
+    <row r="3239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3239" t="s">
+        <v>3763</v>
+      </c>
+      <c r="B3239">
+        <v>74760</v>
+      </c>
+    </row>
+    <row r="3240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3240" t="s">
+        <v>3764</v>
+      </c>
+      <c r="B3240">
+        <v>74780</v>
+      </c>
+    </row>
+    <row r="3241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3241" t="s">
+        <v>3765</v>
+      </c>
+      <c r="B3241">
+        <v>74800</v>
+      </c>
+    </row>
+    <row r="3242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3242" t="s">
+        <v>3766</v>
+      </c>
+      <c r="B3242">
+        <v>74820</v>
+      </c>
+    </row>
+    <row r="3243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3243" t="s">
+        <v>3767</v>
+      </c>
+      <c r="B3243">
+        <v>74840</v>
+      </c>
+    </row>
+    <row r="3244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3244" t="s">
+        <v>3411</v>
+      </c>
+      <c r="B3244">
+        <v>74860</v>
+      </c>
+    </row>
+    <row r="3245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3245" t="s">
+        <v>3768</v>
+      </c>
+      <c r="B3245">
+        <v>74880</v>
+      </c>
+    </row>
+    <row r="3246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3246" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B3246">
+        <v>74900</v>
+      </c>
+    </row>
+    <row r="3247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3247" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B3247">
+        <v>74920</v>
+      </c>
+    </row>
+    <row r="3248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3248" t="s">
+        <v>3771</v>
+      </c>
+      <c r="B3248">
+        <v>74940</v>
+      </c>
+    </row>
+    <row r="3249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3249" t="s">
+        <v>3772</v>
+      </c>
+      <c r="B3249">
+        <v>74960</v>
+      </c>
+    </row>
+    <row r="3250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3250" t="s">
+        <v>3773</v>
+      </c>
+      <c r="B3250">
+        <v>74980</v>
+      </c>
+    </row>
+    <row r="3251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3251" t="s">
+        <v>3774</v>
+      </c>
+      <c r="B3251">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="3252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3252" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B3252">
+        <v>75020</v>
+      </c>
+    </row>
+    <row r="3253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3253" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B3253">
+        <v>75040</v>
+      </c>
+    </row>
+    <row r="3254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3254" t="s">
+        <v>3412</v>
+      </c>
+      <c r="B3254">
+        <v>75060</v>
+      </c>
+    </row>
+    <row r="3255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3255" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B3255">
+        <v>75080</v>
+      </c>
+    </row>
+    <row r="3256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3256" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B3256">
+        <v>75100</v>
+      </c>
+    </row>
+    <row r="3257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3257" t="s">
+        <v>3779</v>
+      </c>
+      <c r="B3257">
+        <v>75120</v>
+      </c>
+    </row>
+    <row r="3258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3258" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B3258">
+        <v>75140</v>
+      </c>
+    </row>
+    <row r="3259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3259" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B3259">
+        <v>75160</v>
+      </c>
+    </row>
+    <row r="3260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3260" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B3260">
+        <v>75180</v>
+      </c>
+    </row>
+    <row r="3261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3261" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B3261">
+        <v>75200</v>
+      </c>
+    </row>
+    <row r="3262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3262" t="s">
+        <v>3784</v>
+      </c>
+      <c r="B3262">
+        <v>75220</v>
+      </c>
+    </row>
+    <row r="3263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3263" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B3263">
+        <v>75240</v>
+      </c>
+    </row>
+    <row r="3264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3264" t="s">
+        <v>3413</v>
+      </c>
+      <c r="B3264">
+        <v>75260</v>
+      </c>
+    </row>
+    <row r="3265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3265" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B3265">
+        <v>75280</v>
+      </c>
+    </row>
+    <row r="3266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3266" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B3266">
+        <v>75300</v>
+      </c>
+    </row>
+    <row r="3267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3267" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B3267">
+        <v>75320</v>
+      </c>
+    </row>
+    <row r="3268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3268" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B3268">
+        <v>75340</v>
+      </c>
+    </row>
+    <row r="3269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3269" t="s">
+        <v>3790</v>
+      </c>
+      <c r="B3269">
+        <v>75360</v>
+      </c>
+    </row>
+    <row r="3270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3270" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B3270">
+        <v>75380</v>
+      </c>
+    </row>
+    <row r="3271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3271" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B3271">
+        <v>75400</v>
+      </c>
+    </row>
+    <row r="3272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3272" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B3272">
+        <v>75420</v>
+      </c>
+    </row>
+    <row r="3273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3273" t="s">
+        <v>3794</v>
+      </c>
+      <c r="B3273">
+        <v>75440</v>
+      </c>
+    </row>
+    <row r="3274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3274" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B3274">
+        <v>75460</v>
+      </c>
+    </row>
+    <row r="3275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3275" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B3275">
+        <v>75480</v>
+      </c>
+    </row>
+    <row r="3276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3276" t="s">
+        <v>3796</v>
+      </c>
+      <c r="B3276">
+        <v>75500</v>
+      </c>
+    </row>
+    <row r="3277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3277" t="s">
+        <v>3797</v>
+      </c>
+      <c r="B3277">
+        <v>75520</v>
+      </c>
+    </row>
+    <row r="3278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3278" t="s">
+        <v>3798</v>
+      </c>
+      <c r="B3278">
+        <v>75540</v>
+      </c>
+    </row>
+    <row r="3279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3279" t="s">
+        <v>3799</v>
+      </c>
+      <c r="B3279">
+        <v>75560</v>
+      </c>
+    </row>
+    <row r="3280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3280" t="s">
+        <v>3800</v>
+      </c>
+      <c r="B3280">
+        <v>75580</v>
+      </c>
+    </row>
+    <row r="3281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3281" t="s">
+        <v>3801</v>
+      </c>
+      <c r="B3281">
+        <v>75600</v>
+      </c>
+    </row>
+    <row r="3282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3282" t="s">
+        <v>3802</v>
+      </c>
+      <c r="B3282">
+        <v>75620</v>
+      </c>
+    </row>
+    <row r="3283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3283" t="s">
+        <v>3803</v>
+      </c>
+      <c r="B3283">
+        <v>75640</v>
+      </c>
+    </row>
+    <row r="3284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3284" t="s">
+        <v>3415</v>
+      </c>
+      <c r="B3284">
+        <v>75660</v>
+      </c>
+    </row>
+    <row r="3285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3285" t="s">
+        <v>3804</v>
+      </c>
+      <c r="B3285">
+        <v>75680</v>
+      </c>
+    </row>
+    <row r="3286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3286" t="s">
+        <v>3805</v>
+      </c>
+      <c r="B3286">
+        <v>75700</v>
+      </c>
+    </row>
+    <row r="3287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3287" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B3287">
+        <v>75720</v>
+      </c>
+    </row>
+    <row r="3288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3288" t="s">
+        <v>3807</v>
+      </c>
+      <c r="B3288">
+        <v>75740</v>
+      </c>
+    </row>
+    <row r="3289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3289" t="s">
+        <v>3808</v>
+      </c>
+      <c r="B3289">
+        <v>75760</v>
+      </c>
+    </row>
+    <row r="3290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3290" t="s">
+        <v>3809</v>
+      </c>
+      <c r="B3290">
+        <v>75780</v>
+      </c>
+    </row>
+    <row r="3291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3291" t="s">
+        <v>3810</v>
+      </c>
+      <c r="B3291">
+        <v>75800</v>
+      </c>
+    </row>
+    <row r="3292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3292" t="s">
+        <v>3811</v>
+      </c>
+      <c r="B3292">
+        <v>75820</v>
+      </c>
+    </row>
+    <row r="3293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3293" t="s">
+        <v>3812</v>
+      </c>
+      <c r="B3293">
+        <v>75840</v>
+      </c>
+    </row>
+    <row r="3294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3294" t="s">
+        <v>3416</v>
+      </c>
+      <c r="B3294">
+        <v>75860</v>
+      </c>
+    </row>
+    <row r="3295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3295" t="s">
+        <v>3813</v>
+      </c>
+      <c r="B3295">
+        <v>75880</v>
+      </c>
+    </row>
+    <row r="3296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3296" t="s">
+        <v>3814</v>
+      </c>
+      <c r="B3296">
+        <v>75900</v>
+      </c>
+    </row>
+    <row r="3297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3297" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B3297">
+        <v>75920</v>
+      </c>
+    </row>
+    <row r="3298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3298" t="s">
+        <v>3816</v>
+      </c>
+      <c r="B3298">
+        <v>75940</v>
+      </c>
+    </row>
+    <row r="3299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3299" t="s">
+        <v>3817</v>
+      </c>
+      <c r="B3299">
+        <v>75960</v>
+      </c>
+    </row>
+    <row r="3300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3300" t="s">
+        <v>3818</v>
+      </c>
+      <c r="B3300">
+        <v>75980</v>
+      </c>
+    </row>
+    <row r="3301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3301" t="s">
+        <v>3819</v>
+      </c>
+      <c r="B3301">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="3302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3302" t="s">
+        <v>3820</v>
+      </c>
+      <c r="B3302">
+        <v>76020</v>
+      </c>
+    </row>
+    <row r="3303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3303" t="s">
+        <v>3821</v>
+      </c>
+      <c r="B3303">
+        <v>76040</v>
+      </c>
+    </row>
+    <row r="3304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3304" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B3304">
+        <v>76060</v>
+      </c>
+    </row>
+    <row r="3305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3305" t="s">
+        <v>3822</v>
+      </c>
+      <c r="B3305">
+        <v>76080</v>
+      </c>
+    </row>
+    <row r="3306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3306" t="s">
+        <v>3823</v>
+      </c>
+      <c r="B3306">
+        <v>76100</v>
+      </c>
+    </row>
+    <row r="3307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3307" t="s">
+        <v>3824</v>
+      </c>
+      <c r="B3307">
+        <v>76120</v>
+      </c>
+    </row>
+    <row r="3308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3308" t="s">
+        <v>3825</v>
+      </c>
+      <c r="B3308">
+        <v>76140</v>
+      </c>
+    </row>
+    <row r="3309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3309" t="s">
+        <v>3826</v>
+      </c>
+      <c r="B3309">
+        <v>76160</v>
+      </c>
+    </row>
+    <row r="3310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3310" t="s">
+        <v>3827</v>
+      </c>
+      <c r="B3310">
+        <v>76180</v>
+      </c>
+    </row>
+    <row r="3311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3311" t="s">
+        <v>3828</v>
+      </c>
+      <c r="B3311">
+        <v>76200</v>
+      </c>
+    </row>
+    <row r="3312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3312" t="s">
+        <v>3829</v>
+      </c>
+      <c r="B3312">
+        <v>76220</v>
+      </c>
+    </row>
+    <row r="3313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3313" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B3313">
+        <v>76240</v>
+      </c>
+    </row>
+    <row r="3314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3314" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B3314">
+        <v>76260</v>
+      </c>
+    </row>
+    <row r="3315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3315" t="s">
+        <v>3831</v>
+      </c>
+      <c r="B3315">
+        <v>76280</v>
+      </c>
+    </row>
+    <row r="3316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3316" t="s">
+        <v>3832</v>
+      </c>
+      <c r="B3316">
+        <v>76300</v>
+      </c>
+    </row>
+    <row r="3317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3317" t="s">
+        <v>3833</v>
+      </c>
+      <c r="B3317">
+        <v>76320</v>
+      </c>
+    </row>
+    <row r="3318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3318" t="s">
+        <v>3834</v>
+      </c>
+      <c r="B3318">
+        <v>76340</v>
+      </c>
+    </row>
+    <row r="3319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3319" t="s">
+        <v>3835</v>
+      </c>
+      <c r="B3319">
+        <v>76360</v>
+      </c>
+    </row>
+    <row r="3320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3320" t="s">
+        <v>3836</v>
+      </c>
+      <c r="B3320">
+        <v>76380</v>
+      </c>
+    </row>
+    <row r="3321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3321" t="s">
+        <v>3837</v>
+      </c>
+      <c r="B3321">
+        <v>76400</v>
+      </c>
+    </row>
+    <row r="3322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3322" t="s">
+        <v>3838</v>
+      </c>
+      <c r="B3322">
+        <v>76420</v>
+      </c>
+    </row>
+    <row r="3323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3323" t="s">
+        <v>3839</v>
+      </c>
+      <c r="B3323">
+        <v>76440</v>
+      </c>
+    </row>
+    <row r="3324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3324" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B3324">
+        <v>76460</v>
+      </c>
+    </row>
+    <row r="3325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3325" t="s">
+        <v>3840</v>
+      </c>
+      <c r="B3325">
+        <v>76480</v>
+      </c>
+    </row>
+    <row r="3326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3326" t="s">
+        <v>3841</v>
+      </c>
+      <c r="B3326">
+        <v>76500</v>
+      </c>
+    </row>
+    <row r="3327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3327" t="s">
+        <v>3842</v>
+      </c>
+      <c r="B3327">
+        <v>76520</v>
+      </c>
+    </row>
+    <row r="3328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3328" t="s">
+        <v>3843</v>
+      </c>
+      <c r="B3328">
+        <v>76540</v>
+      </c>
+    </row>
+    <row r="3329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3329" t="s">
+        <v>3844</v>
+      </c>
+      <c r="B3329">
+        <v>76560</v>
+      </c>
+    </row>
+    <row r="3330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3330" t="s">
+        <v>3845</v>
+      </c>
+      <c r="B3330">
+        <v>76580</v>
+      </c>
+    </row>
+    <row r="3331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3331" t="s">
+        <v>3846</v>
+      </c>
+      <c r="B3331">
+        <v>76600</v>
+      </c>
+    </row>
+    <row r="3332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3332" t="s">
+        <v>3847</v>
+      </c>
+      <c r="B3332">
+        <v>76620</v>
+      </c>
+    </row>
+    <row r="3333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3333" t="s">
+        <v>3848</v>
+      </c>
+      <c r="B3333">
+        <v>76640</v>
+      </c>
+    </row>
+    <row r="3334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3334" t="s">
+        <v>3420</v>
+      </c>
+      <c r="B3334">
+        <v>76660</v>
+      </c>
+    </row>
+    <row r="3335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3335" t="s">
+        <v>3849</v>
+      </c>
+      <c r="B3335">
+        <v>76680</v>
+      </c>
+    </row>
+    <row r="3336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3336" t="s">
+        <v>3850</v>
+      </c>
+      <c r="B3336">
+        <v>76700</v>
+      </c>
+    </row>
+    <row r="3337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3337" t="s">
+        <v>3851</v>
+      </c>
+      <c r="B3337">
+        <v>76720</v>
+      </c>
+    </row>
+    <row r="3338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3338" t="s">
+        <v>3852</v>
+      </c>
+      <c r="B3338">
+        <v>76740</v>
+      </c>
+    </row>
+    <row r="3339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3339" t="s">
+        <v>3853</v>
+      </c>
+      <c r="B3339">
+        <v>76760</v>
+      </c>
+    </row>
+    <row r="3340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3340" t="s">
+        <v>3854</v>
+      </c>
+      <c r="B3340">
+        <v>76780</v>
+      </c>
+    </row>
+    <row r="3341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3341" t="s">
+        <v>3855</v>
+      </c>
+      <c r="B3341">
+        <v>76800</v>
+      </c>
+    </row>
+    <row r="3342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3342" t="s">
+        <v>3856</v>
+      </c>
+      <c r="B3342">
+        <v>76820</v>
+      </c>
+    </row>
+    <row r="3343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3343" t="s">
+        <v>3857</v>
+      </c>
+      <c r="B3343">
+        <v>76840</v>
+      </c>
+    </row>
+    <row r="3344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3344" t="s">
+        <v>3421</v>
+      </c>
+      <c r="B3344">
+        <v>76860</v>
+      </c>
+    </row>
+    <row r="3345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3345" t="s">
+        <v>3858</v>
+      </c>
+      <c r="B3345">
+        <v>76880</v>
+      </c>
+    </row>
+    <row r="3346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3346" t="s">
+        <v>3859</v>
+      </c>
+      <c r="B3346">
+        <v>76900</v>
+      </c>
+    </row>
+    <row r="3347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3347" t="s">
+        <v>3860</v>
+      </c>
+      <c r="B3347">
+        <v>76920</v>
+      </c>
+    </row>
+    <row r="3348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3348" t="s">
+        <v>3861</v>
+      </c>
+      <c r="B3348">
+        <v>76940</v>
+      </c>
+    </row>
+    <row r="3349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3349" t="s">
+        <v>3862</v>
+      </c>
+      <c r="B3349">
+        <v>76960</v>
+      </c>
+    </row>
+    <row r="3350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3350" t="s">
+        <v>3863</v>
+      </c>
+      <c r="B3350">
+        <v>76980</v>
+      </c>
+    </row>
+    <row r="3351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3351" t="s">
+        <v>3864</v>
+      </c>
+      <c r="B3351">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="3352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3352" t="s">
+        <v>3865</v>
+      </c>
+      <c r="B3352">
+        <v>77020</v>
+      </c>
+    </row>
+    <row r="3353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3353" t="s">
+        <v>3866</v>
+      </c>
+      <c r="B3353">
+        <v>77040</v>
+      </c>
+    </row>
+    <row r="3354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3354" t="s">
+        <v>3422</v>
+      </c>
+      <c r="B3354">
+        <v>77060</v>
+      </c>
+    </row>
+    <row r="3355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3355" t="s">
+        <v>3867</v>
+      </c>
+      <c r="B3355">
+        <v>77080</v>
+      </c>
+    </row>
+    <row r="3356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3356" t="s">
+        <v>3868</v>
+      </c>
+      <c r="B3356">
+        <v>77100</v>
+      </c>
+    </row>
+    <row r="3357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3357" t="s">
+        <v>3869</v>
+      </c>
+      <c r="B3357">
+        <v>77120</v>
+      </c>
+    </row>
+    <row r="3358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3358" t="s">
+        <v>3870</v>
+      </c>
+      <c r="B3358">
+        <v>77140</v>
+      </c>
+    </row>
+    <row r="3359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3359" t="s">
+        <v>3871</v>
+      </c>
+      <c r="B3359">
+        <v>77160</v>
+      </c>
+    </row>
+    <row r="3360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3360" t="s">
+        <v>3872</v>
+      </c>
+      <c r="B3360">
+        <v>77180</v>
+      </c>
+    </row>
+    <row r="3361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3361" t="s">
+        <v>3873</v>
+      </c>
+      <c r="B3361">
+        <v>77200</v>
+      </c>
+    </row>
+    <row r="3362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3362" t="s">
+        <v>3874</v>
+      </c>
+      <c r="B3362">
+        <v>77220</v>
+      </c>
+    </row>
+    <row r="3363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3363" t="s">
+        <v>3875</v>
+      </c>
+      <c r="B3363">
+        <v>77240</v>
+      </c>
+    </row>
+    <row r="3364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3364" t="s">
+        <v>3423</v>
+      </c>
+      <c r="B3364">
+        <v>77260</v>
+      </c>
+    </row>
+    <row r="3365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3365" t="s">
+        <v>3876</v>
+      </c>
+      <c r="B3365">
+        <v>77280</v>
+      </c>
+    </row>
+    <row r="3366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3366" t="s">
+        <v>3877</v>
+      </c>
+      <c r="B3366">
+        <v>77300</v>
+      </c>
+    </row>
+    <row r="3367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3367" t="s">
+        <v>3878</v>
+      </c>
+      <c r="B3367">
+        <v>77320</v>
+      </c>
+    </row>
+    <row r="3368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3368" t="s">
+        <v>3879</v>
+      </c>
+      <c r="B3368">
+        <v>77340</v>
+      </c>
+    </row>
+    <row r="3369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3369" t="s">
+        <v>3880</v>
+      </c>
+      <c r="B3369">
+        <v>77360</v>
+      </c>
+    </row>
+    <row r="3370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3370" t="s">
+        <v>3881</v>
+      </c>
+      <c r="B3370">
+        <v>77380</v>
+      </c>
+    </row>
+    <row r="3371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3371" t="s">
+        <v>3882</v>
+      </c>
+      <c r="B3371">
+        <v>77400</v>
+      </c>
+    </row>
+    <row r="3372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3372" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B3372">
+        <v>77420</v>
+      </c>
+    </row>
+    <row r="3373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3373" t="s">
+        <v>3884</v>
+      </c>
+      <c r="B3373">
+        <v>77440</v>
+      </c>
+    </row>
+    <row r="3374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3374" t="s">
+        <v>3424</v>
+      </c>
+      <c r="B3374">
+        <v>77460</v>
+      </c>
+    </row>
+    <row r="3375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3375" t="s">
+        <v>3885</v>
+      </c>
+      <c r="B3375">
+        <v>77480</v>
+      </c>
+    </row>
+    <row r="3376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3376" t="s">
+        <v>3886</v>
+      </c>
+      <c r="B3376">
+        <v>77500</v>
+      </c>
+    </row>
+    <row r="3377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3377" t="s">
+        <v>3887</v>
+      </c>
+      <c r="B3377">
+        <v>77520</v>
+      </c>
+    </row>
+    <row r="3378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3378" t="s">
+        <v>3888</v>
+      </c>
+      <c r="B3378">
+        <v>77540</v>
+      </c>
+    </row>
+    <row r="3379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3379" t="s">
+        <v>3889</v>
+      </c>
+      <c r="B3379">
+        <v>77560</v>
+      </c>
+    </row>
+    <row r="3380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3380" t="s">
+        <v>3890</v>
+      </c>
+      <c r="B3380">
+        <v>77580</v>
+      </c>
+    </row>
+    <row r="3381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3381" t="s">
+        <v>3891</v>
+      </c>
+      <c r="B3381">
+        <v>77600</v>
+      </c>
+    </row>
+    <row r="3382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3382" t="s">
+        <v>3892</v>
+      </c>
+      <c r="B3382">
+        <v>77620</v>
+      </c>
+    </row>
+    <row r="3383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3383" t="s">
+        <v>3893</v>
+      </c>
+      <c r="B3383">
+        <v>77640</v>
       </c>
     </row>
   </sheetData>
